--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO1"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,3381 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bulgarian A League</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Septemvri</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K2" t="n">
+        <v>980</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bulgarian A League</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Botev Vratsa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dobrudzha</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Greek Super League</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Atromitos</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Panserraikos</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Serbian Super League</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FK IMT Novi Beograd</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FK Javor Ivanjica</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Slovenian Premier League</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>13:30:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NK Bravo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NK Aluminij</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>980</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Turkish Super League</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Fatih Karagumruk Istanbul</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Danish Superliga</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SonderjyskE</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Polish Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Nieciecza</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Polish I Liga</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>GKS Tychy</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Odra Opole</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lusitania Futebol Clube</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Dinamo Bucharest</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>34</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Israeli Premier League</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Jong Ajax Amsterdam</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cambuur Leeuwarden</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Jong FC Utrecht</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K16" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Cittadella</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Renate</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Pergolettese</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Union Brescia</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>AC Ospitaletto</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Inter Milan (Res)</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Pesaro</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Nuovo Campobasso</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sociedad B</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>French Ligue 2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Bastia</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ESTAC Troyes</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>990</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>240</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>220</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -679,7 +679,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.03</v>
+        <v>1.66</v>
       </c>
       <c r="K2" t="n">
         <v>980</v>
@@ -805,10 +805,10 @@
         <v>5.5</v>
       </c>
       <c r="G3" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="I3" t="n">
         <v>1.82</v>
@@ -946,7 +946,7 @@
         <v>4.7</v>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G5" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>1.67</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>2.06</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
         <v>4.3</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="Q9" t="n">
         <v>1.57</v>
@@ -1753,7 +1753,7 @@
         <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="I10" t="n">
         <v>2.48</v>
@@ -1762,7 +1762,7 @@
         <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>3.95</v>
       </c>
       <c r="J11" t="n">
-        <v>2.42</v>
+        <v>2.98</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="G13" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
-        <v>9.6</v>
+        <v>3.6</v>
       </c>
       <c r="I13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K13" t="n">
-        <v>6.6</v>
+        <v>980</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2176,16 +2176,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>4.1</v>
+        <v>1.02</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
         <v>1.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>1.52</v>
       </c>
       <c r="I15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J15" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
@@ -2569,7 +2569,7 @@
         <v>2.9</v>
       </c>
       <c r="J16" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
         <v>8.4</v>
@@ -3238,10 +3238,10 @@
         <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I21" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="J21" t="n">
         <v>3.3</v>
@@ -3676,7 +3676,7 @@
         <v>2.04</v>
       </c>
       <c r="S24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T24" t="n">
         <v>1.58</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -673,7 +673,7 @@
         <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="I3" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="G5" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
         <v>5.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="G9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J9" t="n">
         <v>4</v>
@@ -1645,7 +1645,7 @@
         <v>2.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="I10" t="n">
         <v>2.48</v>
@@ -1894,7 +1894,7 @@
         <v>3.95</v>
       </c>
       <c r="J11" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>5.2</v>
@@ -2431,10 +2431,10 @@
         <v>1.52</v>
       </c>
       <c r="I15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="I21" t="n">
         <v>2.76</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J22" t="n">
         <v>2.68</v>
@@ -3391,16 +3391,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O22" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P22" t="n">
         <v>1.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>1.13</v>
       </c>
       <c r="N23" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="O23" t="n">
         <v>1.56</v>
@@ -3535,7 +3535,7 @@
         <v>1.55</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="R23" t="n">
         <v>1.2</v>
@@ -3574,7 +3574,7 @@
         <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE23" t="n">
         <v>990</v>
@@ -3646,10 +3646,10 @@
         <v>1.4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K24" t="n">
         <v>6.4</v>
@@ -3673,7 +3673,7 @@
         <v>1.37</v>
       </c>
       <c r="R24" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="S24" t="n">
         <v>1.9</v>
@@ -3703,7 +3703,7 @@
         <v>15</v>
       </c>
       <c r="AB24" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AC24" t="n">
         <v>16</v>
@@ -3739,7 +3739,7 @@
         <v>65</v>
       </c>
       <c r="AN24" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="AO24" t="n">
         <v>3.9</v>
@@ -3775,10 +3775,10 @@
         <v>3.1</v>
       </c>
       <c r="G25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H25" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I25" t="n">
         <v>2.64</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.07</v>
+        <v>1.25</v>
       </c>
       <c r="Q26" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,7 +679,7 @@
         <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>1.66</v>
+        <v>1.09</v>
       </c>
       <c r="K2" t="n">
         <v>980</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
         <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="H3" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I3" t="n">
         <v>1.84</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.98</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="G4" t="n">
         <v>2.22</v>
       </c>
       <c r="H4" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G5" t="n">
         <v>1.5</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>1.24</v>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
         <v>5.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q8" t="n">
         <v>2.06</v>
@@ -1618,7 +1618,7 @@
         <v>2.04</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
         <v>3.85</v>
@@ -1645,7 +1645,7 @@
         <v>2.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="I10" t="n">
         <v>2.48</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="I11" t="n">
         <v>3.95</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>980</v>
@@ -2290,19 +2290,19 @@
         <v>2.42</v>
       </c>
       <c r="G14" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
         <v>1.39</v>
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>5.7</v>
+        <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>7.2</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.52</v>
+        <v>2.16</v>
       </c>
       <c r="I15" t="n">
-        <v>1.62</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.38</v>
+        <v>5.7</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.22</v>
+        <v>1.52</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>1.62</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="K16" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>1.37</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
         <v>2.48</v>
       </c>
       <c r="I21" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J21" t="n">
         <v>3.3</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3370,16 +3370,16 @@
         <v>2.58</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
         <v>3.05</v>
       </c>
       <c r="I22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="K22" t="n">
         <v>3.2</v>
@@ -3397,10 +3397,10 @@
         <v>1.49</v>
       </c>
       <c r="P22" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>2.3</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
         <v>4.2</v>
@@ -3529,13 +3529,13 @@
         <v>2.72</v>
       </c>
       <c r="O23" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P23" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R23" t="n">
         <v>1.2</v>
@@ -3562,7 +3562,7 @@
         <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
         <v>120</v>
@@ -3577,7 +3577,7 @@
         <v>18.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
         <v>12.5</v>
@@ -3604,7 +3604,7 @@
         <v>240</v>
       </c>
       <c r="AN23" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO23" t="n">
         <v>120</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>7.6</v>
+        <v>1.04</v>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="I24" t="n">
-        <v>1.41</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>6.2</v>
+        <v>1.02</v>
       </c>
       <c r="K24" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>8.6</v>
+        <v>1.25</v>
       </c>
       <c r="O24" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="P24" t="n">
-        <v>3.6</v>
+        <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="R24" t="n">
-        <v>2.02</v>
+        <v>1.13</v>
       </c>
       <c r="S24" t="n">
-        <v>1.9</v>
+        <v>1.43</v>
       </c>
       <c r="T24" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X24" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,67 +3758,67 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.1</v>
+        <v>7.6</v>
       </c>
       <c r="G25" t="n">
-        <v>3.55</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="I25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.64</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
@@ -3826,192 +3826,462 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Argentinian Primera Division</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Deportivo Riestra</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Newells</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="F27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G27" t="n">
         <v>2.58</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>3.7</v>
       </c>
-      <c r="I26" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="I27" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q27" t="n">
         <v>1.01</v>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Albion FC</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.1</v>
+        <v>1.09</v>
       </c>
       <c r="G3" t="n">
-        <v>6.4</v>
+        <v>980</v>
       </c>
       <c r="H3" t="n">
-        <v>1.82</v>
+        <v>1.09</v>
       </c>
       <c r="I3" t="n">
-        <v>1.84</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>1.09</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.26</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>2.02</v>
       </c>
       <c r="I4" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>2.82</v>
+        <v>2.4</v>
       </c>
       <c r="K4" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.4</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="P5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z5" t="n">
         <v>10</v>
       </c>
-      <c r="I5" t="n">
-        <v>13</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,21 +1193,21 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
@@ -1219,7 +1219,7 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.07</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
         <v>1.01</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NK Aluminij</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="G7" t="n">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>10.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.7</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>980</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.46</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fatih Karagumruk Istanbul</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>1.97</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>1.07</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>2.04</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>3.65</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Fatih Karagumruk Istanbul</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.1</v>
+        <v>1.87</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>1.97</v>
       </c>
       <c r="H10" t="n">
-        <v>2.04</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>2.48</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.76</v>
+        <v>1.24</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
         <v>1.4</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,36 +2273,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.42</v>
+        <v>1.44</v>
       </c>
       <c r="G14" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
-        <v>3.75</v>
+        <v>1.44</v>
       </c>
       <c r="K14" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>1.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,36 +2408,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>2.04</v>
       </c>
       <c r="H15" t="n">
-        <v>2.16</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
-        <v>2.9</v>
+        <v>3.85</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,36 +2543,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.7</v>
+        <v>3.05</v>
       </c>
       <c r="G16" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.52</v>
+        <v>2.08</v>
       </c>
       <c r="I16" t="n">
-        <v>1.62</v>
+        <v>2.48</v>
       </c>
       <c r="J16" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,36 +2678,36 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>2.38</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,36 +2813,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>2.58</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,36 +2948,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,31 +3088,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>1.84</v>
       </c>
       <c r="Q20" t="n">
         <v>1.01</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,31 +3223,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3262,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,36 +3353,36 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3391,16 +3391,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,66 +3488,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="R23" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,64 +3556,64 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AK23" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AO23" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="R24" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,66 +3758,66 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>7.6</v>
+        <v>1.45</v>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="H25" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.41</v>
+        <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>6.2</v>
+        <v>1.09</v>
       </c>
       <c r="K25" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>8.6</v>
+        <v>1.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.12</v>
+        <v>1.46</v>
       </c>
       <c r="P25" t="n">
-        <v>3.6</v>
+        <v>1.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.36</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3826,64 +3826,64 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,66 +3893,66 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.1</v>
       </c>
-      <c r="G26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P26" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.26</v>
+        <v>2.74</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3961,64 +3961,64 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,260 +4028,665 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="G27" t="n">
-        <v>2.58</v>
+        <v>1000</v>
       </c>
       <c r="H27" t="n">
-        <v>3.7</v>
+        <v>1.04</v>
       </c>
       <c r="I27" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>2.7</v>
+        <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P27" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G28" t="n">
+        <v>8</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>430</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Uruguayan Primera Division</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Albion FC</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Cerro</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="F31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2.38</v>
       </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>3.25</v>
       </c>
       <c r="G3" t="n">
-        <v>980</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.09</v>
+        <v>2.68</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>2.98</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>2.62</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>3.15</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="V3" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -937,112 +937,112 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="G4" t="n">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
-        <v>2.02</v>
+        <v>5.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.24</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.08</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
@@ -1078,52 +1078,52 @@
         <v>6.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>1.65</v>
+        <v>2.96</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="R5" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V5" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="W5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
@@ -1132,10 +1132,10 @@
         <v>7.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
         <v>16.5</v>
@@ -1147,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="n">
         <v>44</v>
@@ -1159,10 +1159,10 @@
         <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AK5" t="n">
         <v>110</v>
@@ -1171,13 +1171,13 @@
         <v>140</v>
       </c>
       <c r="AM5" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AN5" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.09</v>
+        <v>1.94</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>2.06</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H7" t="n">
         <v>10.5</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="J7" t="n">
         <v>4.1</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P7" t="n">
         <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1489,100 +1489,100 @@
         <v>1000</v>
       </c>
       <c r="J8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.01</v>
       </c>
-      <c r="K8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.07</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.01</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,34 +1612,34 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>2.24</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
         <v>2.46</v>
@@ -1648,76 +1648,76 @@
         <v>1.55</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="G10" t="n">
         <v>1.97</v>
@@ -1765,100 +1765,100 @@
         <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1906,16 +1906,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.24</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.12</v>
+        <v>2.66</v>
       </c>
       <c r="I12" t="n">
         <v>3.95</v>
       </c>
       <c r="J12" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>980</v>
+        <v>5.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.77</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2176,16 +2176,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
         <v>1.24</v>
       </c>
-      <c r="P13" t="n">
-        <v>1.08</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.44</v>
+        <v>3.35</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="H14" t="n">
         <v>2.58</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>1.44</v>
+        <v>2.58</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2434,10 +2434,10 @@
         <v>3.85</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.05</v>
+        <v>1.33</v>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
         <v>2.08</v>
       </c>
       <c r="I16" t="n">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>1.09</v>
       </c>
       <c r="K16" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>1.92</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.38</v>
+        <v>2.74</v>
       </c>
       <c r="Q17" t="n">
         <v>1.39</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,54 +2813,54 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1.01</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.33</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,36 +2948,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,31 +3088,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.84</v>
+        <v>1.24</v>
       </c>
       <c r="Q20" t="n">
         <v>1.01</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.24</v>
+        <v>1.87</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3526,16 +3526,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,66 +3623,66 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>2.68</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3691,64 +3691,64 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.45</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
         <v>1000</v>
       </c>
       <c r="H25" t="n">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
         <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="K25" t="n">
-        <v>3.2</v>
+        <v>1000</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
         <v>1.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.46</v>
+        <v>1.02</v>
       </c>
       <c r="P25" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.26</v>
+        <v>1.43</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,66 +3893,66 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.28</v>
+        <v>7.8</v>
       </c>
       <c r="G26" t="n">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="I26" t="n">
-        <v>4.2</v>
+        <v>1.41</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>6.2</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>6.4</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.72</v>
+        <v>8.6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.55</v>
+        <v>1.12</v>
       </c>
       <c r="P26" t="n">
-        <v>1.52</v>
+        <v>3.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.74</v>
+        <v>1.36</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>2.04</v>
       </c>
       <c r="S26" t="n">
-        <v>5.7</v>
+        <v>1.92</v>
       </c>
       <c r="T26" t="n">
-        <v>2.22</v>
+        <v>1.58</v>
       </c>
       <c r="U26" t="n">
-        <v>1.78</v>
+        <v>2.62</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3961,64 +3961,64 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>8.800000000000001</v>
+        <v>48</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.6</v>
+        <v>120</v>
       </c>
       <c r="AC26" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN26" t="n">
         <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>2.48</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>2.68</v>
       </c>
       <c r="J27" t="n">
-        <v>1.02</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.43</v>
+        <v>2.24</v>
       </c>
       <c r="R27" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,66 +4163,66 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7.6</v>
+        <v>2.38</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>2.58</v>
       </c>
       <c r="H28" t="n">
-        <v>1.4</v>
+        <v>3.85</v>
       </c>
       <c r="I28" t="n">
-        <v>1.42</v>
+        <v>4.2</v>
       </c>
       <c r="J28" t="n">
-        <v>6.2</v>
+        <v>2.82</v>
       </c>
       <c r="K28" t="n">
-        <v>6.4</v>
+        <v>3.05</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>3.6</v>
+        <v>1.38</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.37</v>
+        <v>3.15</v>
       </c>
       <c r="R28" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4231,64 +4231,64 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE28" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI28" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AJ28" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AL28" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN28" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="AO28" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,36 +4298,36 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Albion FC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.1</v>
+        <v>2.18</v>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>2.46</v>
       </c>
       <c r="H29" t="n">
-        <v>2.48</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>2.68</v>
+        <v>4.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>2.88</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.51</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4417,276 +4417,6 @@
         <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Deportivo Riestra</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Newells</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Uruguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Albion FC</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Cerro</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO31" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,22 +805,22 @@
         <v>3.25</v>
       </c>
       <c r="G3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H3" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I3" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="J3" t="n">
         <v>2.62</v>
       </c>
       <c r="K3" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="M3" t="n">
         <v>1.17</v>
@@ -829,13 +829,13 @@
         <v>2.08</v>
       </c>
       <c r="O3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="P3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
         <v>1.12</v>
@@ -844,13 +844,13 @@
         <v>7.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="U3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W3" t="n">
         <v>1.36</v>
@@ -862,7 +862,7 @@
         <v>7.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
         <v>60</v>
@@ -871,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AE3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
         <v>23</v>
@@ -895,7 +895,7 @@
         <v>85</v>
       </c>
       <c r="AK3" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AL3" t="n">
         <v>150</v>
@@ -940,25 +940,25 @@
         <v>1.68</v>
       </c>
       <c r="G4" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="H4" t="n">
         <v>5.6</v>
       </c>
       <c r="I4" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
         <v>2.96</v>
@@ -970,7 +970,7 @@
         <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
@@ -982,13 +982,13 @@
         <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
         <v>1.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X4" t="n">
         <v>12.5</v>
@@ -997,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
         <v>230</v>
@@ -1009,31 +1009,31 @@
         <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>130</v>
       </c>
       <c r="AF4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG4" t="n">
         <v>11</v>
       </c>
-      <c r="AG4" t="n">
-        <v>12</v>
-      </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
         <v>140</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
         <v>220</v>
@@ -1075,13 +1075,13 @@
         <v>5.2</v>
       </c>
       <c r="G5" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="I5" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J5" t="n">
         <v>3.55</v>
@@ -1090,7 +1090,7 @@
         <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
@@ -1099,13 +1099,13 @@
         <v>2.96</v>
       </c>
       <c r="O5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R5" t="n">
         <v>1.24</v>
@@ -1114,13 +1114,13 @@
         <v>4.3</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V5" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="W5" t="n">
         <v>1.19</v>
@@ -1129,10 +1129,10 @@
         <v>11</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
@@ -1144,13 +1144,13 @@
         <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG5" t="n">
         <v>24</v>
@@ -1159,7 +1159,7 @@
         <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AJ5" t="n">
         <v>180</v>
@@ -1168,16 +1168,16 @@
         <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AM5" t="n">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="AN5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AO5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="G6" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H6" t="n">
         <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1249,70 +1249,70 @@
         <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="V6" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF6" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G7" t="n">
         <v>1.49</v>
@@ -1351,13 +1351,13 @@
         <v>10.5</v>
       </c>
       <c r="I7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
         <v>1.47</v>
@@ -1384,7 +1384,7 @@
         <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="U7" t="n">
         <v>1.46</v>
@@ -1396,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="n">
         <v>32</v>
@@ -1426,7 +1426,7 @@
         <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AI7" t="n">
         <v>310</v>
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P8" t="n">
         <v>1.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.02</v>
+        <v>1.39</v>
       </c>
       <c r="R8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="S8" t="n">
-        <v>1.02</v>
+        <v>1.39</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="G9" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,37 +1636,37 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S9" t="n">
         <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="U9" t="n">
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="n">
         <v>1000</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G10" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H10" t="n">
         <v>4.8</v>
@@ -1759,7 +1759,7 @@
         <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
         <v>3.8</v>
@@ -1804,34 +1804,34 @@
         <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
         <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>75</v>
@@ -1849,16 +1849,16 @@
         <v>140</v>
       </c>
       <c r="AN10" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.26</v>
+        <v>2.36</v>
       </c>
       <c r="G11" t="n">
-        <v>1.34</v>
+        <v>3.35</v>
       </c>
       <c r="H11" t="n">
-        <v>9.199999999999999</v>
+        <v>2.58</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="J11" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="K11" t="n">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>1.54</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.09</v>
       </c>
       <c r="P11" t="n">
-        <v>2.06</v>
+        <v>1.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.66</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,118 +2017,118 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="H12" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K12" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>2.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2290,109 +2290,109 @@
         <v>3.35</v>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="H14" t="n">
         <v>2.58</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="P14" t="n">
         <v>1.41</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -2434,22 +2434,22 @@
         <v>3.85</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
         <v>4.3</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P15" t="n">
         <v>2.3</v>
@@ -2458,76 +2458,76 @@
         <v>1.68</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.33</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="J16" t="n">
-        <v>1.09</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.65</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="17">
@@ -2695,10 +2695,10 @@
         <v>2.58</v>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="I17" t="n">
         <v>2.8</v>
@@ -2710,100 +2710,100 @@
         <v>4.7</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P17" t="n">
         <v>2.74</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>2.98</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>1.24</v>
+        <v>2.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>1.86</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -3232,118 +3232,118 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P21" t="n">
         <v>1.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>4.4</v>
       </c>
       <c r="H22" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="I22" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J22" t="n">
         <v>2.78</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>5.4</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P22" t="n">
-        <v>1.87</v>
+        <v>1.52</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.62</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.35</v>
+        <v>4.9</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="K23" t="n">
-        <v>3.2</v>
+        <v>5.7</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>2.74</v>
+        <v>1.48</v>
       </c>
       <c r="O23" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P23" t="n">
-        <v>1.58</v>
+        <v>1.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="G24" t="n">
-        <v>2.32</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>4.1</v>
+        <v>1.56</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>1.96</v>
       </c>
       <c r="J24" t="n">
         <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>2.72</v>
+        <v>1.44</v>
       </c>
       <c r="O24" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="P24" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.68</v>
+        <v>2.22</v>
       </c>
       <c r="R24" t="n">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="S24" t="n">
-        <v>5.6</v>
+        <v>2.22</v>
       </c>
       <c r="T24" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X24" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,60 +3758,60 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>2.62</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>2.78</v>
       </c>
       <c r="H25" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="J25" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>1.25</v>
+        <v>2.74</v>
       </c>
       <c r="O25" t="n">
-        <v>1.02</v>
+        <v>1.49</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.43</v>
+        <v>2.24</v>
       </c>
       <c r="R25" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="S25" t="n">
-        <v>1.43</v>
+        <v>4.1</v>
       </c>
       <c r="T25" t="n">
         <v>1.01</v>
@@ -3820,16 +3820,16 @@
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3841,22 +3841,22 @@
         <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
         <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF25" t="n">
         <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3865,7 +3865,7 @@
         <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>7.8</v>
+        <v>2.3</v>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>2.32</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>1.41</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
-        <v>6.2</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>8.6</v>
+        <v>2.72</v>
       </c>
       <c r="O26" t="n">
-        <v>1.12</v>
+        <v>1.56</v>
       </c>
       <c r="P26" t="n">
-        <v>3.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.36</v>
+        <v>2.74</v>
       </c>
       <c r="R26" t="n">
-        <v>2.04</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.92</v>
+        <v>5.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.58</v>
+        <v>2.26</v>
       </c>
       <c r="U26" t="n">
-        <v>2.62</v>
+        <v>1.78</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X26" t="n">
-        <v>48</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y26" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AA26" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="AB26" t="n">
-        <v>120</v>
+        <v>7.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>16</v>
+        <v>6.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
-        <v>12.5</v>
+        <v>70</v>
       </c>
       <c r="AF26" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="AG26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK26" t="n">
         <v>32</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>240</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>100</v>
       </c>
       <c r="AL26" t="n">
         <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO26" t="n">
-        <v>3.9</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="H27" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="I27" t="n">
-        <v>2.68</v>
+        <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P27" t="n">
-        <v>1.7</v>
+        <v>1.24</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.24</v>
+        <v>1.43</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,260 +4163,530 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.38</v>
+        <v>7.4</v>
       </c>
       <c r="G28" t="n">
-        <v>2.58</v>
+        <v>7.8</v>
       </c>
       <c r="H28" t="n">
-        <v>3.85</v>
+        <v>1.4</v>
       </c>
       <c r="I28" t="n">
-        <v>4.2</v>
+        <v>1.41</v>
       </c>
       <c r="J28" t="n">
-        <v>2.82</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>3.05</v>
+        <v>6.4</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P28" t="n">
-        <v>1.38</v>
+        <v>3.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.15</v>
+        <v>1.36</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Uruguayan Primera Division</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>2026-02-16</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>19:00:00</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Albion FC</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Cerro</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F31" t="n">
         <v>2.18</v>
       </c>
-      <c r="G29" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="G31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.75</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I31" t="n">
         <v>4.9</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J31" t="n">
         <v>2.88</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K31" t="n">
         <v>3.35</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO29" t="n">
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -829,7 +829,7 @@
         <v>2.08</v>
       </c>
       <c r="O3" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="P3" t="n">
         <v>1.34</v>
@@ -847,7 +847,7 @@
         <v>2.44</v>
       </c>
       <c r="U3" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
         <v>1.49</v>
@@ -862,19 +862,19 @@
         <v>7.2</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB3" t="n">
         <v>9</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
         <v>65</v>
@@ -895,19 +895,19 @@
         <v>85</v>
       </c>
       <c r="AK3" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="n">
         <v>150</v>
       </c>
       <c r="AM3" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AN3" t="n">
         <v>140</v>
       </c>
       <c r="AO3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="G4" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="H4" t="n">
         <v>5.6</v>
@@ -949,13 +949,13 @@
         <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -970,22 +970,22 @@
         <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W4" t="n">
         <v>2.12</v>
@@ -994,7 +994,7 @@
         <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="n">
         <v>55</v>
@@ -1006,34 +1006,34 @@
         <v>7.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>130</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
         <v>140</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
         <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
         <v>220</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="G5" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H5" t="n">
         <v>1.77</v>
       </c>
       <c r="I5" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
         <v>3.8</v>
@@ -1099,13 +1099,13 @@
         <v>2.96</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P5" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
         <v>1.24</v>
@@ -1120,10 +1120,10 @@
         <v>1.77</v>
       </c>
       <c r="V5" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="W5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
@@ -1159,22 +1159,22 @@
         <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ5" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AK5" t="n">
         <v>110</v>
       </c>
       <c r="AL5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN5" t="n">
         <v>150</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>320</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>200</v>
       </c>
       <c r="AO5" t="n">
         <v>17</v>
@@ -1222,7 +1222,7 @@
         <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.71</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1357,7 +1357,7 @@
         <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.47</v>
@@ -1372,10 +1372,10 @@
         <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
         <v>1.25</v>
@@ -1384,10 +1384,10 @@
         <v>4.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="U7" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="V7" t="n">
         <v>1.08</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>1.88</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.02</v>
+        <v>2.62</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="O8" t="n">
         <v>1.02</v>
@@ -1510,13 +1510,13 @@
         <v>1.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.39</v>
+        <v>1.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.39</v>
+        <v>3.15</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
         <v>4.6</v>
@@ -1645,7 +1645,7 @@
         <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="R9" t="n">
         <v>1.42</v>
@@ -1654,16 +1654,16 @@
         <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
         <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X9" t="n">
         <v>30</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G10" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H10" t="n">
         <v>4.8</v>
@@ -1771,13 +1771,13 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O10" t="n">
         <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
         <v>2.06</v>
@@ -1789,10 +1789,10 @@
         <v>3.75</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U10" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
         <v>1.25</v>
@@ -1825,7 +1825,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G12" t="n">
         <v>2.94</v>
@@ -2026,13 +2026,13 @@
         <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
         <v>1.31</v>
@@ -2056,7 +2056,7 @@
         <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>1.79</v>
+        <v>2.92</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
@@ -2065,10 +2065,10 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="W12" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2182,22 +2182,22 @@
         <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T13" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U13" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="V13" t="n">
         <v>1.05</v>
@@ -2290,19 +2290,19 @@
         <v>3.35</v>
       </c>
       <c r="G14" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
         <v>2.58</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="J14" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="K14" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L14" t="n">
         <v>1.58</v>
@@ -2311,7 +2311,7 @@
         <v>1.15</v>
       </c>
       <c r="N14" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="O14" t="n">
         <v>1.67</v>
@@ -2320,7 +2320,7 @@
         <v>1.41</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="R14" t="n">
         <v>1.14</v>
@@ -2329,16 +2329,16 @@
         <v>6.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="V14" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W14" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X14" t="n">
         <v>7.6</v>
@@ -2371,7 +2371,7 @@
         <v>970</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
         <v>90</v>
@@ -2386,7 +2386,7 @@
         <v>120</v>
       </c>
       <c r="AM14" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN14" t="n">
         <v>120</v>
@@ -2434,7 +2434,7 @@
         <v>3.85</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>4.3</v>
@@ -2446,7 +2446,7 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.23</v>
@@ -2458,7 +2458,7 @@
         <v>1.68</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S15" t="n">
         <v>2.7</v>
@@ -2467,7 +2467,7 @@
         <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V15" t="n">
         <v>1.35</v>
@@ -2566,7 +2566,7 @@
         <v>2.1</v>
       </c>
       <c r="I16" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2587,7 +2587,7 @@
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
         <v>1.75</v>
@@ -2596,16 +2596,16 @@
         <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
         <v>2.22</v>
       </c>
       <c r="V16" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W16" t="n">
         <v>1.36</v>
@@ -2638,10 +2638,10 @@
         <v>32</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
         <v>38</v>
@@ -2695,16 +2695,16 @@
         <v>2.58</v>
       </c>
       <c r="G17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
         <v>2.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="K17" t="n">
         <v>4.7</v>
@@ -2728,7 +2728,7 @@
         <v>1.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="S17" t="n">
         <v>2.06</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2836,7 +2836,7 @@
         <v>1.52</v>
       </c>
       <c r="I18" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="J18" t="n">
         <v>4.9</v>
@@ -2860,16 +2860,16 @@
         <v>2.98</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S18" t="n">
         <v>1.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="U18" t="n">
         <v>2.06</v>
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="G19" t="n">
         <v>2.64</v>
       </c>
       <c r="H19" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K19" t="n">
         <v>4.7</v>
@@ -2995,25 +2995,25 @@
         <v>2.76</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="R19" t="n">
         <v>1.71</v>
       </c>
       <c r="S19" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="T19" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="V19" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W19" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X19" t="n">
         <v>32</v>
@@ -3100,16 +3100,16 @@
         <v>2.94</v>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
         <v>2.54</v>
       </c>
       <c r="I20" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J20" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
         <v>3.7</v>
@@ -3121,16 +3121,16 @@
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.34</v>
       </c>
       <c r="P20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="R20" t="n">
         <v>1.32</v>
@@ -3139,16 +3139,16 @@
         <v>3.4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="U20" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
         <v>1.56</v>
       </c>
       <c r="W20" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X20" t="n">
         <v>14.5</v>
@@ -3169,7 +3169,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
         <v>32</v>
@@ -3199,10 +3199,10 @@
         <v>120</v>
       </c>
       <c r="AN20" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AO20" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -3256,22 +3256,22 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P21" t="n">
         <v>1.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="R21" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3391,7 +3391,7 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O22" t="n">
         <v>1.43</v>
@@ -3400,13 +3400,13 @@
         <v>1.52</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3505,16 +3505,16 @@
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="H23" t="n">
         <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J23" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="K23" t="n">
         <v>5.7</v>
@@ -3526,22 +3526,22 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="O23" t="n">
         <v>1.47</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="Q23" t="n">
         <v>2.16</v>
       </c>
       <c r="R23" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3550,10 +3550,10 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W23" t="n">
-        <v>1.34</v>
+        <v>1.61</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3643,16 +3643,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="I24" t="n">
         <v>1.96</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,7 +3661,7 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="O24" t="n">
         <v>1.01</v>
@@ -3673,10 +3673,10 @@
         <v>2.22</v>
       </c>
       <c r="R24" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="G25" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I25" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
         <v>1.1</v>
@@ -3805,10 +3805,10 @@
         <v>1.59</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
         <v>4.1</v>
@@ -3817,10 +3817,10 @@
         <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="V25" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="W25" t="n">
         <v>1.57</v>
@@ -3832,43 +3832,43 @@
         <v>13.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC25" t="n">
         <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
         <v>70</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AH25" t="n">
         <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK25" t="n">
         <v>55</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
@@ -3919,13 +3919,13 @@
         <v>4.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L26" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M26" t="n">
         <v>1.13</v>
@@ -3940,7 +3940,7 @@
         <v>1.55</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R26" t="n">
         <v>1.2</v>
@@ -3955,10 +3955,10 @@
         <v>1.78</v>
       </c>
       <c r="V26" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W26" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X26" t="n">
         <v>8.199999999999999</v>
@@ -4006,13 +4006,13 @@
         <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AN26" t="n">
         <v>32</v>
       </c>
       <c r="AO26" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -4042,109 +4042,109 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="J27" t="n">
-        <v>1.02</v>
+        <v>2.88</v>
       </c>
       <c r="K27" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N27" t="n">
-        <v>1.25</v>
+        <v>2.42</v>
       </c>
       <c r="O27" t="n">
-        <v>1.02</v>
+        <v>1.57</v>
       </c>
       <c r="P27" t="n">
-        <v>1.24</v>
+        <v>1.49</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.43</v>
+        <v>2.6</v>
       </c>
       <c r="R27" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="S27" t="n">
-        <v>1.43</v>
+        <v>3.45</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="G28" t="n">
         <v>7.8</v>
       </c>
       <c r="H28" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I28" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K28" t="n">
         <v>6.4</v>
@@ -4255,7 +4255,7 @@
         <v>12.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AG28" t="n">
         <v>29</v>
@@ -4270,7 +4270,7 @@
         <v>230</v>
       </c>
       <c r="AK28" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="n">
         <v>60</v>
@@ -4315,31 +4315,31 @@
         <v>3.1</v>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P29" t="n">
         <v>1.7</v>
@@ -4348,76 +4348,76 @@
         <v>2.24</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -4465,16 +4465,16 @@
         <v>3.05</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P30" t="n">
         <v>1.38</v>
@@ -4483,76 +4483,76 @@
         <v>3.15</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4591,7 +4591,7 @@
         <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J31" t="n">
         <v>2.88</v>
@@ -4600,94 +4600,94 @@
         <v>3.35</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO31"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Septemvri</t>
+          <t>Shamakhi FK</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>PFK Turan Tovuz</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.56</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>2.64</v>
       </c>
       <c r="J2" t="n">
-        <v>1.09</v>
+        <v>2.68</v>
       </c>
       <c r="K2" t="n">
-        <v>980</v>
+        <v>5.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02</v>
+        <v>1.41</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -715,10 +715,10 @@
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>FK Qabala</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>150</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>1.49</v>
       </c>
       <c r="I3" t="n">
-        <v>3.05</v>
+        <v>1.92</v>
       </c>
       <c r="J3" t="n">
-        <v>2.62</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.98</v>
+        <v>7.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V3" t="n">
         <v>2.08</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.49</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.36</v>
+        <v>1.02</v>
       </c>
       <c r="X3" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Septemvri</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.73</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>1.81</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>5.6</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>1.09</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>980</v>
       </c>
       <c r="L4" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>1.02</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="G5" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.77</v>
+        <v>2.66</v>
       </c>
       <c r="I5" t="n">
-        <v>1.82</v>
+        <v>3.05</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>2.62</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>2.98</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="M5" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>2.96</v>
+        <v>2.08</v>
       </c>
       <c r="O5" t="n">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="P5" t="n">
-        <v>1.75</v>
+        <v>1.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="U5" t="n">
-        <v>1.77</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>2.18</v>
+        <v>1.49</v>
       </c>
       <c r="W5" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>6.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF5" t="n">
         <v>23</v>
       </c>
-      <c r="AF5" t="n">
-        <v>46</v>
-      </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AK5" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AM5" t="n">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="AN5" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G6" t="n">
         <v>1.87</v>
       </c>
-      <c r="G6" t="n">
-        <v>2.04</v>
-      </c>
       <c r="H6" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.62</v>
+        <v>2.94</v>
       </c>
       <c r="O6" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
         <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
         <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>1.49</v>
+        <v>7</v>
       </c>
       <c r="H7" t="n">
-        <v>10.5</v>
+        <v>1.7</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>1.73</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O7" t="n">
         <v>1.42</v>
       </c>
       <c r="P7" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R7" t="n">
         <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="U7" t="n">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>2.34</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>1.17</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>6.6</v>
       </c>
       <c r="Z7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>210</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL7" t="n">
         <v>130</v>
       </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>350</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>310</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>65</v>
-      </c>
       <c r="AM7" t="n">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="AN7" t="n">
-        <v>12.5</v>
+        <v>170</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G8" t="n">
-        <v>2.36</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="n">
-        <v>1.78</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="J8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N8" t="n">
         <v>2.62</v>
       </c>
-      <c r="K8" t="n">
-        <v>950</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.21</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.02</v>
+        <v>1.51</v>
       </c>
       <c r="P8" t="n">
-        <v>1.08</v>
+        <v>1.55</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.02</v>
+        <v>2.46</v>
       </c>
       <c r="R8" t="n">
         <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>3.15</v>
+        <v>4.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V8" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,123 +1598,123 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NK Aluminij</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.86</v>
+        <v>1.39</v>
       </c>
       <c r="G9" t="n">
-        <v>2.04</v>
+        <v>1.49</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>10.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="P9" t="n">
-        <v>2.42</v>
+        <v>1.69</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.63</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>2.32</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fatih Karagumruk Istanbul</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>1.97</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P10" t="n">
         <v>1.08</v>
       </c>
-      <c r="N10" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.81</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>1.39</v>
       </c>
       <c r="R10" t="n">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="S10" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,75 +1868,75 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.36</v>
+        <v>1.86</v>
       </c>
       <c r="G11" t="n">
-        <v>3.35</v>
+        <v>2.04</v>
       </c>
       <c r="H11" t="n">
-        <v>2.58</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.8</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.54</v>
+        <v>2.42</v>
       </c>
       <c r="O11" t="n">
-        <v>1.09</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>1.54</v>
+        <v>2.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>1.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
-        <v>3.8</v>
+        <v>2.32</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.43</v>
+        <v>1.91</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Fatih Karagumruk Istanbul</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.36</v>
+        <v>1.89</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94</v>
+        <v>1.97</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.8</v>
       </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L12" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.31</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S12" t="n">
-        <v>2.92</v>
+        <v>3.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>2.04</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -2161,7 +2161,7 @@
         <v>11.5</v>
       </c>
       <c r="I13" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J13" t="n">
         <v>5.5</v>
@@ -2185,7 +2185,7 @@
         <v>2.06</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="n">
         <v>1.42</v>
@@ -2200,7 +2200,7 @@
         <v>1.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W13" t="n">
         <v>3.9</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.35</v>
+        <v>2.42</v>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>2.94</v>
       </c>
       <c r="H14" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="I14" t="n">
-        <v>2.84</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.58</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.67</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
-        <v>1.41</v>
+        <v>1.91</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.05</v>
+        <v>1.79</v>
       </c>
       <c r="R14" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>6.4</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="X14" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.99</v>
+        <v>2.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2.04</v>
+        <v>2.94</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>2.72</v>
       </c>
       <c r="I15" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S15" t="n">
         <v>4</v>
       </c>
-      <c r="K15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.7</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="U15" t="n">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="W15" t="n">
-        <v>1.96</v>
+        <v>1.52</v>
       </c>
       <c r="X15" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
         <v>70</v>
       </c>
-      <c r="AB15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN15" t="n">
         <v>44</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>11</v>
-      </c>
       <c r="AO15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H16" t="n">
-        <v>2.1</v>
+        <v>2.56</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.86</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>2.84</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>2.32</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.68</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>1.41</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>3.05</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="S16" t="n">
-        <v>2.76</v>
+        <v>6.6</v>
       </c>
       <c r="T16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.64</v>
       </c>
-      <c r="U16" t="n">
-        <v>2.22</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z16" t="n">
         <v>17.5</v>
       </c>
       <c r="AA16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH16" t="n">
         <v>32</v>
       </c>
-      <c r="AB16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>19</v>
-      </c>
       <c r="AI16" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AJ16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK16" t="n">
         <v>75</v>
       </c>
-      <c r="AK16" t="n">
-        <v>46</v>
-      </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="AN16" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AO16" t="n">
-        <v>16.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.58</v>
+        <v>1.99</v>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>2.04</v>
       </c>
       <c r="H17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P17" t="n">
         <v>2.3</v>
       </c>
-      <c r="I17" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.74</v>
-      </c>
       <c r="Q17" t="n">
-        <v>1.4</v>
+        <v>1.69</v>
       </c>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="S17" t="n">
-        <v>2.06</v>
+        <v>2.72</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="V17" t="n">
-        <v>1.53</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.44</v>
+        <v>1.96</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.6</v>
+        <v>3.4</v>
       </c>
       <c r="G18" t="n">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="J18" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>2.98</v>
+        <v>4.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>2.98</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.43</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.68</v>
-      </c>
       <c r="S18" t="n">
-        <v>1.9</v>
+        <v>2.72</v>
       </c>
       <c r="T18" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="V18" t="n">
-        <v>2.6</v>
+        <v>1.78</v>
       </c>
       <c r="W18" t="n">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="X18" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="n">
         <v>46</v>
       </c>
-      <c r="AC18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>90</v>
-      </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
         <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>2.42</v>
       </c>
       <c r="G19" t="n">
-        <v>2.64</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.58</v>
+        <v>2.16</v>
       </c>
       <c r="I19" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>6.2</v>
+        <v>2.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="P19" t="n">
-        <v>2.76</v>
+        <v>2.38</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="S19" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="T19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.46</v>
       </c>
-      <c r="U19" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.61</v>
-      </c>
       <c r="X19" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.94</v>
+        <v>5.6</v>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.54</v>
+        <v>1.52</v>
       </c>
       <c r="I20" t="n">
-        <v>2.76</v>
+        <v>1.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.34</v>
+        <v>1.12</v>
       </c>
       <c r="P20" t="n">
-        <v>1.87</v>
+        <v>2.98</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>1.43</v>
       </c>
       <c r="R20" t="n">
-        <v>1.32</v>
+        <v>1.68</v>
       </c>
       <c r="S20" t="n">
-        <v>3.4</v>
+        <v>1.9</v>
       </c>
       <c r="T20" t="n">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="V20" t="n">
-        <v>1.56</v>
+        <v>2.48</v>
       </c>
       <c r="W20" t="n">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Z20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC20" t="n">
         <v>18</v>
       </c>
-      <c r="AA20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="n">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AM20" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>2.36</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>2.64</v>
       </c>
       <c r="H21" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>2.88</v>
       </c>
       <c r="J21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
         <v>1.02</v>
       </c>
-      <c r="K21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.01</v>
-      </c>
       <c r="N21" t="n">
-        <v>1.25</v>
+        <v>6.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>2.76</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>2.1</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="G22" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.14</v>
+        <v>2.54</v>
       </c>
       <c r="I22" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="J22" t="n">
-        <v>2.78</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>1.53</v>
+        <v>3.55</v>
       </c>
       <c r="O22" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="P22" t="n">
-        <v>1.52</v>
+        <v>1.87</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="R22" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S22" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V22" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="W22" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="G23" t="n">
-        <v>2.64</v>
+        <v>1000</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="I23" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J23" t="n">
-        <v>2.92</v>
+        <v>1.02</v>
       </c>
       <c r="K23" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
@@ -3526,22 +3526,22 @@
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.47</v>
+        <v>1.02</v>
       </c>
       <c r="P23" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.16</v>
+        <v>1.44</v>
       </c>
       <c r="R23" t="n">
         <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>2.18</v>
+        <v>1.44</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3550,10 +3550,10 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="W23" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3628,31 +3628,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.8</v>
+        <v>2.88</v>
       </c>
       <c r="G24" t="n">
-        <v>9.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.59</v>
+        <v>2.16</v>
       </c>
       <c r="I24" t="n">
-        <v>1.96</v>
+        <v>2.84</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="K24" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3661,22 +3661,22 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P24" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3685,10 +3685,10 @@
         <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>2.04</v>
+        <v>1.54</v>
       </c>
       <c r="W24" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,117 +3758,117 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.58</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
       <c r="H25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K25" t="n">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>2.74</v>
+        <v>1.53</v>
       </c>
       <c r="O25" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P25" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>4.1</v>
+        <v>2.18</v>
       </c>
       <c r="T25" t="n">
         <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="W25" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="G26" t="n">
-        <v>2.32</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>4.1</v>
+        <v>1.59</v>
       </c>
       <c r="I26" t="n">
-        <v>4.2</v>
+        <v>1.96</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.15</v>
+        <v>6.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.72</v>
+        <v>1.45</v>
       </c>
       <c r="O26" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.72</v>
+        <v>2.24</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>5.6</v>
+        <v>2.24</v>
       </c>
       <c r="T26" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.32</v>
+        <v>2.04</v>
       </c>
       <c r="W26" t="n">
-        <v>1.76</v>
+        <v>1.12</v>
       </c>
       <c r="X26" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="H27" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" t="n">
         <v>3.35</v>
       </c>
-      <c r="I27" t="n">
-        <v>3.95</v>
-      </c>
       <c r="J27" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="L27" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="O27" t="n">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="P27" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="R27" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="S27" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="V27" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="W27" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="X27" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD27" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF27" t="n">
         <v>17</v>
       </c>
-      <c r="AE27" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AG27" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ27" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK27" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN27" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7.6</v>
+        <v>2.3</v>
       </c>
       <c r="G28" t="n">
-        <v>7.8</v>
+        <v>2.32</v>
       </c>
       <c r="H28" t="n">
-        <v>1.41</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>1.42</v>
+        <v>4.2</v>
       </c>
       <c r="J28" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>6.4</v>
+        <v>3.15</v>
       </c>
       <c r="L28" t="n">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N28" t="n">
-        <v>8.6</v>
+        <v>2.72</v>
       </c>
       <c r="O28" t="n">
-        <v>1.12</v>
+        <v>1.56</v>
       </c>
       <c r="P28" t="n">
-        <v>3.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.36</v>
+        <v>2.76</v>
       </c>
       <c r="R28" t="n">
-        <v>2.02</v>
+        <v>1.2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.92</v>
+        <v>5.8</v>
       </c>
       <c r="T28" t="n">
-        <v>1.58</v>
+        <v>2.26</v>
       </c>
       <c r="U28" t="n">
-        <v>2.62</v>
+        <v>1.78</v>
       </c>
       <c r="V28" t="n">
-        <v>3.4</v>
+        <v>1.32</v>
       </c>
       <c r="W28" t="n">
-        <v>1.14</v>
+        <v>1.76</v>
       </c>
       <c r="X28" t="n">
-        <v>46</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y28" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="AA28" t="n">
-        <v>14.5</v>
+        <v>100</v>
       </c>
       <c r="AB28" t="n">
-        <v>44</v>
+        <v>7.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>16</v>
+        <v>6.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
-        <v>12.5</v>
+        <v>70</v>
       </c>
       <c r="AF28" t="n">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="n">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="AK28" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AL28" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AN28" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AO28" t="n">
-        <v>3.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.1</v>
+        <v>2.18</v>
       </c>
       <c r="G29" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="H29" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.62</v>
+        <v>4.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="K29" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N29" t="n">
-        <v>3.05</v>
+        <v>2.26</v>
       </c>
       <c r="O29" t="n">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="P29" t="n">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
       <c r="R29" t="n">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="S29" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="T29" t="n">
-        <v>1.89</v>
+        <v>2.32</v>
       </c>
       <c r="U29" t="n">
-        <v>1.96</v>
+        <v>1.64</v>
       </c>
       <c r="V29" t="n">
-        <v>1.61</v>
+        <v>1.27</v>
       </c>
       <c r="W29" t="n">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="X29" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="AA29" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AC29" t="n">
         <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AI29" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AK29" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AM29" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AO29" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.38</v>
+        <v>7.6</v>
       </c>
       <c r="G30" t="n">
-        <v>2.58</v>
+        <v>7.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3.85</v>
+        <v>1.41</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>1.42</v>
       </c>
       <c r="J30" t="n">
-        <v>2.82</v>
+        <v>6.2</v>
       </c>
       <c r="K30" t="n">
-        <v>3.05</v>
+        <v>6.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.71</v>
+        <v>1.21</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.38</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="P30" t="n">
-        <v>1.38</v>
+        <v>3.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.15</v>
+        <v>1.36</v>
       </c>
       <c r="R30" t="n">
-        <v>1.1</v>
+        <v>2.04</v>
       </c>
       <c r="S30" t="n">
-        <v>6</v>
+        <v>1.92</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="V30" t="n">
-        <v>1.32</v>
+        <v>3.4</v>
       </c>
       <c r="W30" t="n">
-        <v>1.63</v>
+        <v>1.14</v>
       </c>
       <c r="X30" t="n">
-        <v>8.6</v>
+        <v>46</v>
       </c>
       <c r="Y30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z30" t="n">
         <v>13</v>
       </c>
-      <c r="Z30" t="n">
-        <v>38</v>
-      </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.800000000000001</v>
+        <v>44</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AD30" t="n">
-        <v>28</v>
+        <v>10.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="AG30" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AH30" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AJ30" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AK30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL30" t="n">
         <v>60</v>
       </c>
-      <c r="AL30" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,125 +4568,395 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Albion FC</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.18</v>
+        <v>3.1</v>
       </c>
       <c r="G31" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>2.62</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
         <v>3.35</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>1.51</v>
+        <v>3.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P31" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="R31" t="n">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V31" t="n">
-        <v>1.28</v>
+        <v>1.61</v>
       </c>
       <c r="W31" t="n">
-        <v>1.62</v>
+        <v>1.41</v>
       </c>
       <c r="X31" t="n">
         <v>11</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO31" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Deportivo Riestra</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Newells</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="X32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>340</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Albion FC</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X33" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -670,52 +670,52 @@
         <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H2" t="n">
         <v>1.92</v>
       </c>
       <c r="I2" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="J2" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="K2" t="n">
         <v>5.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.41</v>
+        <v>2.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="P2" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>2.22</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="W2" t="n">
         <v>1.21</v>
@@ -805,10 +805,10 @@
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>150</v>
+        <v>9.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="I3" t="n">
         <v>1.92</v>
@@ -817,7 +817,7 @@
         <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,34 +826,34 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.61</v>
+        <v>2.34</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
         <v>1.61</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.84</v>
+        <v>2.96</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
         <v>2.08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -1096,7 +1096,7 @@
         <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="O5" t="n">
         <v>1.8</v>
@@ -1105,7 +1105,7 @@
         <v>1.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
@@ -1114,7 +1114,7 @@
         <v>7.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U5" t="n">
         <v>1.57</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="H6" t="n">
         <v>5.6</v>
@@ -1219,10 +1219,10 @@
         <v>7.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
         <v>1.43</v>
@@ -1237,16 +1237,16 @@
         <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q6" t="n">
         <v>2.28</v>
       </c>
       <c r="R6" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
         <v>2.12</v>
@@ -1258,61 +1258,61 @@
         <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -1360,16 +1360,16 @@
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P7" t="n">
         <v>1.75</v>
@@ -1441,7 +1441,7 @@
         <v>130</v>
       </c>
       <c r="AM7" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AN7" t="n">
         <v>170</v>
@@ -1486,7 +1486,7 @@
         <v>4.8</v>
       </c>
       <c r="I8" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="G9" t="n">
         <v>1.49</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>2.36</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,37 +1771,37 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O10" t="n">
         <v>1.02</v>
       </c>
       <c r="P10" t="n">
-        <v>1.08</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.39</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
         <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1819,7 +1819,7 @@
         <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1885,16 +1885,16 @@
         <v>1.86</v>
       </c>
       <c r="G11" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>4.6</v>
@@ -1903,91 +1903,91 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>2.42</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
         <v>2.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="T11" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.96</v>
       </c>
-      <c r="V11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.91</v>
-      </c>
       <c r="X11" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H12" t="n">
         <v>4.8</v>
@@ -2068,7 +2068,7 @@
         <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X12" t="n">
         <v>15</v>
@@ -2170,7 +2170,7 @@
         <v>6.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2188,10 +2188,10 @@
         <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S13" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T13" t="n">
         <v>2.16</v>
@@ -2209,10 +2209,10 @@
         <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2236,22 +2236,22 @@
         <v>13.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AJ13" t="n">
         <v>11.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
         <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AN13" t="n">
         <v>6.8</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="G14" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="H14" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
@@ -2305,40 +2305,40 @@
         <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P14" t="n">
         <v>1.9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.91</v>
       </c>
       <c r="Q14" t="n">
         <v>1.79</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S14" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
         <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="G15" t="n">
         <v>2.94</v>
       </c>
       <c r="H15" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
         <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="L15" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M15" t="n">
         <v>1.1</v>
@@ -2458,16 +2458,16 @@
         <v>2.28</v>
       </c>
       <c r="R15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V15" t="n">
         <v>1.46</v>
@@ -2476,10 +2476,10 @@
         <v>1.52</v>
       </c>
       <c r="X15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y15" t="n">
         <v>12</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
         <v>23</v>
@@ -2500,7 +2500,7 @@
         <v>46</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -2509,7 +2509,7 @@
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
         <v>55</v>
@@ -2524,7 +2524,7 @@
         <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO15" t="n">
         <v>50</v>
@@ -2560,13 +2560,13 @@
         <v>3.35</v>
       </c>
       <c r="G16" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
         <v>2.56</v>
       </c>
       <c r="I16" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="J16" t="n">
         <v>2.84</v>
@@ -2575,7 +2575,7 @@
         <v>3.05</v>
       </c>
       <c r="L16" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="M16" t="n">
         <v>1.15</v>
@@ -2584,7 +2584,7 @@
         <v>2.32</v>
       </c>
       <c r="O16" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="P16" t="n">
         <v>1.41</v>
@@ -2605,13 +2605,13 @@
         <v>1.64</v>
       </c>
       <c r="V16" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W16" t="n">
         <v>1.35</v>
       </c>
       <c r="X16" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="Y16" t="n">
         <v>8.199999999999999</v>
@@ -2728,7 +2728,7 @@
         <v>1.69</v>
       </c>
       <c r="R17" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S17" t="n">
         <v>2.72</v>
@@ -2749,7 +2749,7 @@
         <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z17" t="n">
         <v>30</v>
@@ -2830,7 +2830,7 @@
         <v>3.4</v>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H18" t="n">
         <v>2.1</v>
@@ -2845,10 +2845,10 @@
         <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
         <v>4.2</v>
@@ -2863,10 +2863,10 @@
         <v>1.75</v>
       </c>
       <c r="R18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="T18" t="n">
         <v>1.64</v>
@@ -2881,7 +2881,7 @@
         <v>1.36</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
         <v>13</v>
@@ -2890,7 +2890,7 @@
         <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AB18" t="n">
         <v>1000</v>
@@ -2902,10 +2902,10 @@
         <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
         <v>1000</v>
@@ -2914,13 +2914,13 @@
         <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
         <v>75</v>
       </c>
       <c r="AK18" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
@@ -2929,7 +2929,7 @@
         <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="J19" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>8.199999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>2.38</v>
+        <v>2.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R19" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="V19" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W19" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="20">
@@ -3151,7 +3151,7 @@
         <v>1.16</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Y20" t="n">
         <v>20</v>
@@ -3169,7 +3169,7 @@
         <v>18</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -3250,7 +3250,7 @@
         <v>4.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
@@ -3370,13 +3370,13 @@
         <v>2.94</v>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
         <v>2.54</v>
       </c>
       <c r="I22" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
         <v>3.3</v>
@@ -3637,58 +3637,58 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="G24" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="I24" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J24" t="n">
         <v>2.84</v>
       </c>
-      <c r="J24" t="n">
-        <v>2.78</v>
-      </c>
       <c r="K24" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>1.53</v>
+        <v>2.92</v>
       </c>
       <c r="O24" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S24" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V24" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="W24" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G25" t="n">
         <v>2.66</v>
@@ -3790,7 +3790,7 @@
         <v>5.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
@@ -3907,55 +3907,55 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="G26" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="H26" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="I26" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>6.4</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>1.45</v>
+        <v>2.64</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="P26" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
         <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>2.24</v>
+        <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="V26" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="W26" t="n">
         <v>1.12</v>
@@ -4045,16 +4045,16 @@
         <v>2.6</v>
       </c>
       <c r="G27" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
         <v>3.35</v>
@@ -4075,13 +4075,13 @@
         <v>1.59</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R27" t="n">
         <v>1.21</v>
       </c>
       <c r="S27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T27" t="n">
         <v>2</v>
@@ -4090,7 +4090,7 @@
         <v>1.86</v>
       </c>
       <c r="V27" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="W27" t="n">
         <v>1.54</v>
@@ -4114,13 +4114,13 @@
         <v>7.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE27" t="n">
         <v>70</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AG27" t="n">
         <v>970</v>
@@ -4336,13 +4336,13 @@
         <v>1.13</v>
       </c>
       <c r="N29" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="O29" t="n">
         <v>1.65</v>
       </c>
       <c r="P29" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q29" t="n">
         <v>2.72</v>
@@ -4357,7 +4357,7 @@
         <v>2.32</v>
       </c>
       <c r="U29" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V29" t="n">
         <v>1.27</v>
@@ -4366,7 +4366,7 @@
         <v>1.74</v>
       </c>
       <c r="X29" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y29" t="n">
         <v>10.5</v>
@@ -4378,7 +4378,7 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AC29" t="n">
         <v>7.4</v>
@@ -4390,13 +4390,13 @@
         <v>90</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
@@ -4408,13 +4408,13 @@
         <v>38</v>
       </c>
       <c r="AL29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4459,7 +4459,7 @@
         <v>1.42</v>
       </c>
       <c r="J30" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
         <v>6.4</v>
@@ -4477,13 +4477,13 @@
         <v>1.12</v>
       </c>
       <c r="P30" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q30" t="n">
         <v>1.36</v>
       </c>
       <c r="R30" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S30" t="n">
         <v>1.92</v>
@@ -4546,7 +4546,7 @@
         <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN30" t="n">
         <v>50</v>
@@ -4585,7 +4585,7 @@
         <v>3.1</v>
       </c>
       <c r="G31" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H31" t="n">
         <v>2.5</v>
@@ -4600,19 +4600,19 @@
         <v>3.35</v>
       </c>
       <c r="L31" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P31" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q31" t="n">
         <v>2.24</v>
@@ -4624,7 +4624,7 @@
         <v>4.3</v>
       </c>
       <c r="T31" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U31" t="n">
         <v>1.96</v>
@@ -4636,13 +4636,13 @@
         <v>1.41</v>
       </c>
       <c r="X31" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="Z31" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AA31" t="n">
         <v>40</v>
@@ -4663,10 +4663,10 @@
         <v>22</v>
       </c>
       <c r="AG31" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH31" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AI31" t="n">
         <v>50</v>
@@ -4720,7 +4720,7 @@
         <v>2.38</v>
       </c>
       <c r="G32" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H32" t="n">
         <v>3.85</v>
@@ -4729,7 +4729,7 @@
         <v>4.2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K32" t="n">
         <v>3.05</v>
@@ -4768,7 +4768,7 @@
         <v>1.32</v>
       </c>
       <c r="W32" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X32" t="n">
         <v>7.6</v>
@@ -4858,7 +4858,7 @@
         <v>2.66</v>
       </c>
       <c r="H33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
         <v>4.8</v>
@@ -4876,13 +4876,13 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="O33" t="n">
         <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="Q33" t="n">
         <v>2.4</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,43 +670,43 @@
         <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="I2" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.8</v>
       </c>
       <c r="K2" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.4</v>
+        <v>1.51</v>
       </c>
       <c r="O2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
         <v>1.51</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>1.4</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
         <v>1.05</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="I3" t="n">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="J3" t="n">
         <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.34</v>
+        <v>2.68</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>2.96</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>2.18</v>
       </c>
       <c r="U3" t="n">
-        <v>1.05</v>
+        <v>1.69</v>
       </c>
       <c r="V3" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>3.25</v>
       </c>
       <c r="G5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
         <v>2.66</v>
@@ -1087,10 +1087,10 @@
         <v>2.62</v>
       </c>
       <c r="K5" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="L5" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="M5" t="n">
         <v>1.17</v>
@@ -1099,7 +1099,7 @@
         <v>2.06</v>
       </c>
       <c r="O5" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="P5" t="n">
         <v>1.34</v>
@@ -1114,7 +1114,7 @@
         <v>7.2</v>
       </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="U5" t="n">
         <v>1.57</v>
@@ -1210,19 +1210,19 @@
         <v>1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>1.43</v>
@@ -1234,22 +1234,22 @@
         <v>2.94</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P6" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
         <v>1.75</v>
@@ -1258,7 +1258,7 @@
         <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
         <v>12.5</v>
@@ -1345,7 +1345,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H7" t="n">
         <v>1.7</v>
@@ -1360,7 +1360,7 @@
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
@@ -1375,7 +1375,7 @@
         <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R7" t="n">
         <v>1.25</v>
@@ -1390,7 +1390,7 @@
         <v>1.76</v>
       </c>
       <c r="V7" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W7" t="n">
         <v>1.17</v>
@@ -1507,19 +1507,19 @@
         <v>1.51</v>
       </c>
       <c r="P8" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R8" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S8" t="n">
         <v>4.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U8" t="n">
         <v>1.71</v>
@@ -1528,10 +1528,10 @@
         <v>1.22</v>
       </c>
       <c r="W8" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
         <v>980</v>
@@ -1627,13 +1627,13 @@
         <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.47</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
         <v>3</v>
@@ -1645,7 +1645,7 @@
         <v>1.69</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
         <v>1.25</v>
@@ -1657,7 +1657,7 @@
         <v>2.46</v>
       </c>
       <c r="U9" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="V9" t="n">
         <v>1.08</v>
@@ -1747,61 +1747,61 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="H10" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
         <v>5.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>1.74</v>
+        <v>2.82</v>
       </c>
       <c r="O10" t="n">
-        <v>1.02</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="V10" t="n">
         <v>1.24</v>
       </c>
       <c r="W10" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1819,7 +1819,7 @@
         <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1882,100 +1882,100 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G11" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
         <v>2.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="S11" t="n">
         <v>2.44</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U11" t="n">
         <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W11" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
         <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK11" t="n">
         <v>22</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>34</v>
@@ -1984,10 +1984,10 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -2035,7 +2035,7 @@
         <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2047,7 +2047,7 @@
         <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q12" t="n">
         <v>2.06</v>
@@ -2059,10 +2059,10 @@
         <v>3.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>1.25</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.26</v>
+        <v>2.66</v>
       </c>
       <c r="G13" t="n">
-        <v>1.34</v>
+        <v>2.92</v>
       </c>
       <c r="H13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y13" t="n">
         <v>11.5</v>
       </c>
-      <c r="I13" t="n">
-        <v>20</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>23</v>
       </c>
-      <c r="Y13" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>180</v>
-      </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>17</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>70</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.6</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>290</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11.5</v>
+        <v>55</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AL13" t="n">
         <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>330</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.8</v>
+        <v>42</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G14" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="H14" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
@@ -2305,7 +2305,7 @@
         <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2317,7 +2317,7 @@
         <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q14" t="n">
         <v>1.79</v>
@@ -2326,19 +2326,19 @@
         <v>1.35</v>
       </c>
       <c r="S14" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T14" t="n">
         <v>1.7</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V14" t="n">
         <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.64</v>
+        <v>1.26</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94</v>
+        <v>1.34</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>11.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>19.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.94</v>
+        <v>5.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>6.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>2.94</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>1.66</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.28</v>
+        <v>1.68</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W15" t="n">
         <v>3.9</v>
       </c>
-      <c r="T15" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.52</v>
-      </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>17</v>
       </c>
       <c r="AD15" t="n">
-        <v>15.5</v>
+        <v>70</v>
       </c>
       <c r="AE15" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>20</v>
+        <v>8.6</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI15" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="AJ15" t="n">
-        <v>55</v>
+        <v>11.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>65</v>
       </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="AN15" t="n">
-        <v>42</v>
+        <v>6.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,34 +2557,34 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H16" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I16" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="J16" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="K16" t="n">
         <v>3.05</v>
       </c>
       <c r="L16" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="M16" t="n">
         <v>1.15</v>
       </c>
       <c r="N16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P16" t="n">
         <v>1.41</v>
@@ -2605,19 +2605,19 @@
         <v>1.64</v>
       </c>
       <c r="V16" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="W16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X16" t="n">
         <v>7.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
         <v>55</v>
@@ -2632,13 +2632,13 @@
         <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="n">
         <v>24</v>
       </c>
       <c r="AG16" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
         <v>32</v>
@@ -2704,19 +2704,19 @@
         <v>3.85</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K17" t="n">
         <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.23</v>
@@ -2842,7 +2842,7 @@
         <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.31</v>
@@ -2860,7 +2860,7 @@
         <v>2.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="R18" t="n">
         <v>1.44</v>
@@ -2968,13 +2968,13 @@
         <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I19" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
         <v>4.7</v>
@@ -2986,7 +2986,7 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.15</v>
@@ -2998,10 +2998,10 @@
         <v>1.44</v>
       </c>
       <c r="R19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S19" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
         <v>1.46</v>
@@ -3010,7 +3010,7 @@
         <v>2.74</v>
       </c>
       <c r="V19" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W19" t="n">
         <v>1.44</v>
@@ -3022,7 +3022,7 @@
         <v>23</v>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA19" t="n">
         <v>42</v>
@@ -3034,10 +3034,10 @@
         <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF19" t="n">
         <v>30</v>
@@ -3049,7 +3049,7 @@
         <v>17.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
         <v>50</v>
@@ -3058,13 +3058,13 @@
         <v>32</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
         <v>60</v>
       </c>
       <c r="AN19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO19" t="n">
         <v>13.5</v>
@@ -3106,7 +3106,7 @@
         <v>1.52</v>
       </c>
       <c r="I20" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="J20" t="n">
         <v>4.9</v>
@@ -3115,94 +3115,94 @@
         <v>6.2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R20" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="S20" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="T20" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="U20" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="V20" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="W20" t="n">
         <v>1.16</v>
       </c>
       <c r="X20" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA20" t="n">
         <v>18.5</v>
       </c>
-      <c r="AA20" t="n">
-        <v>22</v>
-      </c>
       <c r="AB20" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK20" t="n">
         <v>75</v>
       </c>
-      <c r="AG20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>90</v>
-      </c>
       <c r="AL20" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
         <v>2.64</v>
@@ -3250,7 +3250,7 @@
         <v>4.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
@@ -3262,10 +3262,10 @@
         <v>1.15</v>
       </c>
       <c r="P21" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R21" t="n">
         <v>1.73</v>
@@ -3370,13 +3370,13 @@
         <v>2.94</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H22" t="n">
         <v>2.54</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J22" t="n">
         <v>3.3</v>
@@ -3391,7 +3391,7 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.34</v>
@@ -3493,67 +3493,67 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="G23" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="I23" t="n">
-        <v>1000</v>
+        <v>2.74</v>
       </c>
       <c r="J23" t="n">
-        <v>1.02</v>
+        <v>2.84</v>
       </c>
       <c r="K23" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>1.25</v>
+        <v>2.92</v>
       </c>
       <c r="O23" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S23" t="n">
-        <v>1.44</v>
+        <v>4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="V23" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="W23" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3628,67 +3628,67 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="I24" t="n">
-        <v>2.66</v>
+        <v>1000</v>
       </c>
       <c r="J24" t="n">
-        <v>2.84</v>
+        <v>1.02</v>
       </c>
       <c r="K24" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1.44</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="R24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S24" t="n">
         <v>1.44</v>
       </c>
-      <c r="P24" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
       <c r="T24" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="W24" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G25" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J25" t="n">
         <v>2.92</v>
       </c>
       <c r="K25" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L25" t="n">
         <v>1.42</v>
@@ -3799,7 +3799,7 @@
         <v>1.53</v>
       </c>
       <c r="O25" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P25" t="n">
         <v>1.53</v>
@@ -3820,10 +3820,10 @@
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W25" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3913,10 +3913,10 @@
         <v>9</v>
       </c>
       <c r="H26" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I26" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
@@ -3928,7 +3928,7 @@
         <v>1.46</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
         <v>2.64</v>
@@ -3937,34 +3937,34 @@
         <v>1.51</v>
       </c>
       <c r="P26" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T26" t="n">
         <v>2.28</v>
       </c>
-      <c r="R26" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.3</v>
-      </c>
       <c r="U26" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V26" t="n">
         <v>2.18</v>
       </c>
       <c r="W26" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Z26" t="n">
         <v>1000</v>
@@ -3976,7 +3976,7 @@
         <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD26" t="n">
         <v>1000</v>
@@ -4045,16 +4045,16 @@
         <v>2.6</v>
       </c>
       <c r="G27" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
         <v>3.35</v>
@@ -4117,7 +4117,7 @@
         <v>970</v>
       </c>
       <c r="AE27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF27" t="n">
         <v>970</v>
@@ -4327,7 +4327,7 @@
         <v>2.86</v>
       </c>
       <c r="K29" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L29" t="n">
         <v>1.52</v>
@@ -4450,13 +4450,13 @@
         <v>7.6</v>
       </c>
       <c r="G30" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="H30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I30" t="n">
         <v>1.41</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.42</v>
       </c>
       <c r="J30" t="n">
         <v>6</v>
@@ -4471,7 +4471,7 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
         <v>1.12</v>
@@ -4546,13 +4546,13 @@
         <v>60</v>
       </c>
       <c r="AM30" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN30" t="n">
         <v>50</v>
       </c>
       <c r="AO30" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="31">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G31" t="n">
         <v>3.45</v>
@@ -4600,16 +4600,16 @@
         <v>3.35</v>
       </c>
       <c r="L31" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
         <v>1.68</v>
@@ -4729,7 +4729,7 @@
         <v>4.2</v>
       </c>
       <c r="J32" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K32" t="n">
         <v>3.05</v>
@@ -4741,10 +4741,10 @@
         <v>1.16</v>
       </c>
       <c r="N32" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O32" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="P32" t="n">
         <v>1.38</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G33" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
@@ -4867,7 +4867,7 @@
         <v>2.74</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4903,7 +4903,7 @@
         <v>1.26</v>
       </c>
       <c r="W33" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X33" t="n">
         <v>11</v>
@@ -4957,6 +4957,276 @@
         <v>1000</v>
       </c>
       <c r="AO33" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Colombian Primera B</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Quindio</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Juventud De Las Piedras</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="X35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO35" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="G2" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="J2" t="n">
         <v>2.8</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -700,13 +700,13 @@
         <v>1.51</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>1.43</v>
       </c>
       <c r="T2" t="n">
         <v>1.05</v>
@@ -715,10 +715,10 @@
         <v>1.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.66</v>
+        <v>1.52</v>
       </c>
       <c r="W2" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="G3" t="n">
         <v>8.800000000000001</v>
@@ -826,28 +826,28 @@
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="O3" t="n">
         <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q3" t="n">
         <v>2.12</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>3.2</v>
       </c>
       <c r="T3" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U3" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
         <v>2.3</v>
@@ -1075,7 +1075,7 @@
         <v>3.25</v>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H5" t="n">
         <v>2.66</v>
@@ -1090,22 +1090,22 @@
         <v>2.96</v>
       </c>
       <c r="L5" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="M5" t="n">
         <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O5" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="P5" t="n">
         <v>1.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
@@ -1123,7 +1123,7 @@
         <v>1.49</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X5" t="n">
         <v>6.6</v>
@@ -1156,7 +1156,7 @@
         <v>18.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>130</v>
@@ -1210,19 +1210,19 @@
         <v>1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
         <v>7.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
         <v>1.43</v>
@@ -1240,13 +1240,13 @@
         <v>1.66</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
         <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T6" t="n">
         <v>2.1</v>
@@ -1264,13 +1264,13 @@
         <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
         <v>55</v>
       </c>
       <c r="AA6" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB6" t="n">
         <v>7.8</v>
@@ -1279,10 +1279,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1291,7 +1291,7 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
         <v>130</v>
@@ -1306,13 +1306,13 @@
         <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN6" t="n">
         <v>18.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
@@ -1360,13 +1360,13 @@
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O7" t="n">
         <v>1.43</v>
@@ -1417,7 +1417,7 @@
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>55</v>
@@ -1477,94 +1477,94 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.87</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
-        <v>2.04</v>
+        <v>2.44</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>2.72</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
         <v>1.19</v>
       </c>
       <c r="S8" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y8" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA8" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
         <v>980</v>
       </c>
       <c r="AE8" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="n">
         <v>980</v>
@@ -1573,16 +1573,16 @@
         <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
         <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>190</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>1.41</v>
       </c>
       <c r="G9" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
         <v>10.5</v>
@@ -1663,7 +1663,7 @@
         <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X9" t="n">
         <v>12.5</v>
@@ -1753,19 +1753,19 @@
         <v>2.22</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
@@ -1777,16 +1777,16 @@
         <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="R10" t="n">
         <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="T10" t="n">
         <v>1.89</v>
@@ -1885,58 +1885,58 @@
         <v>1.87</v>
       </c>
       <c r="G11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
         <v>2.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="R11" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W11" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="X11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y11" t="n">
         <v>22</v>
@@ -1954,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
         <v>55</v>
@@ -1966,7 +1966,7 @@
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1984,10 +1984,10 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>1.9</v>
       </c>
       <c r="G12" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H12" t="n">
         <v>4.8</v>
@@ -2032,22 +2032,22 @@
         <v>3.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q12" t="n">
         <v>2.06</v>
@@ -2074,7 +2074,7 @@
         <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z12" t="n">
         <v>980</v>
@@ -2170,7 +2170,7 @@
         <v>3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
@@ -2179,7 +2179,7 @@
         <v>2.98</v>
       </c>
       <c r="O13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
         <v>1.67</v>
@@ -2188,10 +2188,10 @@
         <v>2.26</v>
       </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
         <v>1.9</v>
@@ -2206,7 +2206,7 @@
         <v>1.52</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>11.5</v>
@@ -2215,7 +2215,7 @@
         <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
@@ -2239,7 +2239,7 @@
         <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
         <v>55</v>
@@ -2254,7 +2254,7 @@
         <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO13" t="n">
         <v>50</v>
@@ -2287,28 +2287,28 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="H14" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I14" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
         <v>3.6</v>
@@ -2317,28 +2317,28 @@
         <v>1.3</v>
       </c>
       <c r="P14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.89</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.79</v>
       </c>
       <c r="R14" t="n">
         <v>1.35</v>
       </c>
       <c r="S14" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
         <v>1.7</v>
       </c>
       <c r="U14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
         <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2425,13 +2425,13 @@
         <v>1.26</v>
       </c>
       <c r="G15" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
         <v>5.5</v>
@@ -2440,7 +2440,7 @@
         <v>6.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2458,22 +2458,22 @@
         <v>1.68</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T15" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="U15" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="V15" t="n">
         <v>1.06</v>
       </c>
       <c r="W15" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X15" t="n">
         <v>23</v>
@@ -2494,7 +2494,7 @@
         <v>17</v>
       </c>
       <c r="AD15" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G16" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I16" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="K16" t="n">
         <v>3.05</v>
@@ -2581,10 +2581,10 @@
         <v>1.15</v>
       </c>
       <c r="N16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="O16" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="P16" t="n">
         <v>1.41</v>
@@ -2599,19 +2599,19 @@
         <v>6.6</v>
       </c>
       <c r="T16" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y16" t="n">
         <v>8</v>
@@ -2641,7 +2641,7 @@
         <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI16" t="n">
         <v>90</v>
@@ -2704,7 +2704,7 @@
         <v>3.85</v>
       </c>
       <c r="J17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>4.3</v>
@@ -2716,7 +2716,7 @@
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O17" t="n">
         <v>1.23</v>
@@ -2728,7 +2728,7 @@
         <v>1.69</v>
       </c>
       <c r="R17" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S17" t="n">
         <v>2.72</v>
@@ -2836,13 +2836,13 @@
         <v>2.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
         <v>1.31</v>
@@ -2857,7 +2857,7 @@
         <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q18" t="n">
         <v>1.68</v>
@@ -2965,19 +2965,19 @@
         <v>2.62</v>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
         <v>2.34</v>
       </c>
       <c r="I19" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="J19" t="n">
         <v>3.6</v>
       </c>
       <c r="K19" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L19" t="n">
         <v>1.21</v>
@@ -2995,7 +2995,7 @@
         <v>2.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R19" t="n">
         <v>1.71</v>
@@ -3010,10 +3010,10 @@
         <v>2.74</v>
       </c>
       <c r="V19" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="X19" t="n">
         <v>38</v>
@@ -3034,7 +3034,7 @@
         <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3064,7 +3064,7 @@
         <v>60</v>
       </c>
       <c r="AN19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO19" t="n">
         <v>13.5</v>
@@ -3106,7 +3106,7 @@
         <v>1.52</v>
       </c>
       <c r="I20" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J20" t="n">
         <v>4.9</v>
@@ -3136,13 +3136,13 @@
         <v>1.81</v>
       </c>
       <c r="S20" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T20" t="n">
         <v>1.58</v>
       </c>
       <c r="U20" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V20" t="n">
         <v>2.66</v>
@@ -3154,7 +3154,7 @@
         <v>42</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z20" t="n">
         <v>15.5</v>
@@ -3190,7 +3190,7 @@
         <v>150</v>
       </c>
       <c r="AK20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL20" t="n">
         <v>60</v>
@@ -3238,7 +3238,7 @@
         <v>2.64</v>
       </c>
       <c r="H21" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I21" t="n">
         <v>2.88</v>
@@ -3250,34 +3250,34 @@
         <v>4.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.15</v>
       </c>
       <c r="P21" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S21" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T21" t="n">
         <v>1.46</v>
       </c>
       <c r="U21" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="V21" t="n">
         <v>1.54</v>
@@ -3382,16 +3382,16 @@
         <v>3.3</v>
       </c>
       <c r="K22" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O22" t="n">
         <v>1.34</v>
@@ -3400,7 +3400,7 @@
         <v>1.87</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R22" t="n">
         <v>1.32</v>
@@ -3502,58 +3502,58 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
-        <v>2.26</v>
+        <v>2.56</v>
       </c>
       <c r="I23" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="J23" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="K23" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="Q23" t="n">
         <v>2.3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U23" t="n">
         <v>1.9</v>
       </c>
       <c r="V23" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="W23" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3775,22 +3775,22 @@
         <v>2.06</v>
       </c>
       <c r="G25" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J25" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K25" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
@@ -3805,7 +3805,7 @@
         <v>1.53</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R25" t="n">
         <v>1.18</v>
@@ -3820,10 +3820,10 @@
         <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3907,40 +3907,40 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="G26" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="H26" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="I26" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.46</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>2.64</v>
+        <v>2.26</v>
       </c>
       <c r="O26" t="n">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
         <v>1.54</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="R26" t="n">
         <v>1.19</v>
@@ -3949,16 +3949,16 @@
         <v>4.5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U26" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="V26" t="n">
         <v>2.18</v>
       </c>
       <c r="W26" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="G27" t="n">
         <v>2.88</v>
@@ -4051,13 +4051,13 @@
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,7 +4066,7 @@
         <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O27" t="n">
         <v>1.49</v>
@@ -4084,16 +4084,16 @@
         <v>4.9</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U27" t="n">
         <v>1.86</v>
       </c>
       <c r="V27" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="W27" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X27" t="n">
         <v>11.5</v>
@@ -4105,13 +4105,13 @@
         <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
         <v>970</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AD27" t="n">
         <v>970</v>
@@ -4189,10 +4189,10 @@
         <v>4.2</v>
       </c>
       <c r="J28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.15</v>
       </c>
       <c r="L28" t="n">
         <v>1.6</v>
@@ -4225,10 +4225,10 @@
         <v>1.78</v>
       </c>
       <c r="V28" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W28" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X28" t="n">
         <v>8.199999999999999</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="G30" t="n">
         <v>8</v>
@@ -4513,7 +4513,7 @@
         <v>14.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC30" t="n">
         <v>15</v>
@@ -4528,7 +4528,7 @@
         <v>80</v>
       </c>
       <c r="AG30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH30" t="n">
         <v>20</v>
@@ -4588,7 +4588,7 @@
         <v>3.45</v>
       </c>
       <c r="H31" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I31" t="n">
         <v>2.62</v>
@@ -4597,7 +4597,7 @@
         <v>3.2</v>
       </c>
       <c r="K31" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L31" t="n">
         <v>1.49</v>
@@ -4606,7 +4606,7 @@
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
         <v>1.44</v>
@@ -4615,7 +4615,7 @@
         <v>1.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R31" t="n">
         <v>1.26</v>
@@ -4633,7 +4633,7 @@
         <v>1.61</v>
       </c>
       <c r="W31" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X31" t="n">
         <v>970</v>
@@ -4645,7 +4645,7 @@
         <v>970</v>
       </c>
       <c r="AA31" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB31" t="n">
         <v>11</v>
@@ -4657,7 +4657,7 @@
         <v>12.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AF31" t="n">
         <v>22</v>
@@ -4687,7 +4687,7 @@
         <v>60</v>
       </c>
       <c r="AO31" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G32" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H32" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J32" t="n">
         <v>2.82</v>
@@ -4735,16 +4735,16 @@
         <v>3.05</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="M32" t="n">
         <v>1.16</v>
       </c>
       <c r="N32" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="O32" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="P32" t="n">
         <v>1.38</v>
@@ -4759,7 +4759,7 @@
         <v>6.4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="U32" t="n">
         <v>1.61</v>
@@ -4768,7 +4768,7 @@
         <v>1.32</v>
       </c>
       <c r="W32" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X32" t="n">
         <v>7.6</v>
@@ -4813,7 +4813,7 @@
         <v>46</v>
       </c>
       <c r="AL32" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM32" t="n">
         <v>340</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="G33" t="n">
-        <v>2.62</v>
+        <v>2.86</v>
       </c>
       <c r="H33" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="J33" t="n">
         <v>2.74</v>
       </c>
       <c r="K33" t="n">
-        <v>4.8</v>
+        <v>60</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4891,7 +4891,7 @@
         <v>1.13</v>
       </c>
       <c r="S33" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4900,10 +4900,10 @@
         <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="W33" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="X33" t="n">
         <v>11</v>
@@ -5011,7 +5011,7 @@
         <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>1.25</v>
+        <v>1.72</v>
       </c>
       <c r="O34" t="n">
         <v>1.35</v>
@@ -5140,7 +5140,7 @@
         <v>3.85</v>
       </c>
       <c r="L35" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M35" t="n">
         <v>1.08</v>
@@ -5161,7 +5161,7 @@
         <v>1.28</v>
       </c>
       <c r="S35" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T35" t="n">
         <v>1.93</v>
@@ -5179,10 +5179,10 @@
         <v>14.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Z35" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
@@ -5191,34 +5191,34 @@
         <v>8</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE35" t="n">
         <v>85</v>
       </c>
       <c r="AF35" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI35" t="n">
         <v>95</v>
       </c>
       <c r="AJ35" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK35" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL35" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -673,7 +673,7 @@
         <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
         <v>2.92</v>
@@ -808,7 +808,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="I3" t="n">
         <v>1.76</v>
@@ -817,31 +817,31 @@
         <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="O3" t="n">
         <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
         <v>2.12</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>3.2</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
         <v>2.16</v>
@@ -1081,7 +1081,7 @@
         <v>2.66</v>
       </c>
       <c r="I5" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J5" t="n">
         <v>2.62</v>
@@ -1120,7 +1120,7 @@
         <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>1.37</v>
@@ -1210,28 +1210,28 @@
         <v>1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
         <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
         <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O6" t="n">
         <v>1.45</v>
@@ -1255,7 +1255,7 @@
         <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W6" t="n">
         <v>2.14</v>
@@ -1309,7 +1309,7 @@
         <v>210</v>
       </c>
       <c r="AN6" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
         <v>190</v>
@@ -1348,16 +1348,16 @@
         <v>6.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="I7" t="n">
         <v>1.73</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
         <v>1.43</v>
@@ -1366,7 +1366,7 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
         <v>1.43</v>
@@ -1477,40 +1477,40 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="G8" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="K8" t="n">
         <v>3.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="n">
         <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
         <v>1.19</v>
@@ -1522,13 +1522,13 @@
         <v>2.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X8" t="n">
         <v>8.800000000000001</v>
@@ -1537,19 +1537,19 @@
         <v>11.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC8" t="n">
         <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
         <v>75</v>
@@ -1573,16 +1573,16 @@
         <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN8" t="n">
         <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -1699,7 +1699,7 @@
         <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AJ9" t="n">
         <v>12.5</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G10" t="n">
         <v>2.22</v>
       </c>
       <c r="H10" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
         <v>5.2</v>
@@ -1762,7 +1762,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.41</v>
@@ -1777,7 +1777,7 @@
         <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q10" t="n">
         <v>1.99</v>
@@ -1891,16 +1891,16 @@
         <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
         <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -1915,13 +1915,13 @@
         <v>2.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
         <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="T11" t="n">
         <v>1.6</v>
@@ -1933,7 +1933,7 @@
         <v>1.29</v>
       </c>
       <c r="W11" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
         <v>25</v>
@@ -1981,7 +1981,7 @@
         <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN11" t="n">
         <v>11.5</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G12" t="n">
         <v>1.97</v>
@@ -2035,31 +2035,31 @@
         <v>3.75</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
         <v>2</v>
@@ -2083,10 +2083,10 @@
         <v>130</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD12" t="n">
         <v>22</v>
@@ -2110,7 +2110,7 @@
         <v>980</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
         <v>980</v>
@@ -2119,7 +2119,7 @@
         <v>140</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO12" t="n">
         <v>85</v>
@@ -2191,10 +2191,10 @@
         <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U13" t="n">
         <v>1.94</v>
@@ -2290,10 +2290,10 @@
         <v>2.38</v>
       </c>
       <c r="G14" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="H14" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
         <v>3.35</v>
@@ -2302,10 +2302,10 @@
         <v>3.3</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2314,25 +2314,25 @@
         <v>3.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
         <v>1.35</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V14" t="n">
         <v>1.42</v>
@@ -2353,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC14" t="n">
         <v>1000</v>
@@ -2440,7 +2440,7 @@
         <v>6.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2455,19 +2455,19 @@
         <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="R15" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="T15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U15" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="V15" t="n">
         <v>1.06</v>
@@ -2476,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y15" t="n">
         <v>980</v>
@@ -2563,10 +2563,10 @@
         <v>3.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J16" t="n">
         <v>2.84</v>
@@ -2575,7 +2575,7 @@
         <v>3.05</v>
       </c>
       <c r="L16" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M16" t="n">
         <v>1.15</v>
@@ -2722,10 +2722,10 @@
         <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R17" t="n">
         <v>1.52</v>
@@ -2767,7 +2767,7 @@
         <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
         <v>14.5</v>
@@ -2845,7 +2845,7 @@
         <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -2860,19 +2860,19 @@
         <v>2.12</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="R18" t="n">
         <v>1.44</v>
       </c>
       <c r="S18" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V18" t="n">
         <v>1.78</v>
@@ -2965,16 +2965,16 @@
         <v>2.62</v>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H19" t="n">
         <v>2.34</v>
       </c>
       <c r="I19" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
         <v>4.6</v>
@@ -2986,7 +2986,7 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
         <v>1.15</v>
@@ -2995,25 +2995,25 @@
         <v>2.74</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R19" t="n">
         <v>1.71</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="T19" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U19" t="n">
         <v>2.74</v>
       </c>
       <c r="V19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W19" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X19" t="n">
         <v>38</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="G20" t="n">
         <v>7.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="I20" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="J20" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="K20" t="n">
         <v>6.2</v>
@@ -3130,13 +3130,13 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R20" t="n">
         <v>1.81</v>
       </c>
       <c r="S20" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="T20" t="n">
         <v>1.58</v>
@@ -3145,7 +3145,7 @@
         <v>2.48</v>
       </c>
       <c r="V20" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="W20" t="n">
         <v>1.16</v>
@@ -3154,13 +3154,13 @@
         <v>42</v>
       </c>
       <c r="Y20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
         <v>15.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
         <v>38</v>
@@ -3178,7 +3178,7 @@
         <v>65</v>
       </c>
       <c r="AG20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH20" t="n">
         <v>21</v>
@@ -3202,7 +3202,7 @@
         <v>55</v>
       </c>
       <c r="AO20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="21">
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G21" t="n">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="I21" t="n">
         <v>2.88</v>
@@ -3280,10 +3280,10 @@
         <v>2.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W21" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="X21" t="n">
         <v>32</v>
@@ -3367,61 +3367,61 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="G22" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H22" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I22" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
         <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
         <v>3.55</v>
       </c>
       <c r="O22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
         <v>1.34</v>
       </c>
-      <c r="P22" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S22" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T22" t="n">
         <v>1.76</v>
       </c>
       <c r="U22" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V22" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W22" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X22" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -3436,7 +3436,7 @@
         <v>12.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
         <v>12.5</v>
@@ -3502,55 +3502,55 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J23" t="n">
         <v>3</v>
       </c>
-      <c r="G23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.76</v>
-      </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="O23" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.63</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.54</v>
       </c>
       <c r="W23" t="n">
         <v>1.39</v>
@@ -3571,7 +3571,7 @@
         <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
         <v>1000</v>
@@ -3676,13 +3676,13 @@
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V24" t="n">
         <v>1.01</v>
@@ -3775,7 +3775,7 @@
         <v>2.06</v>
       </c>
       <c r="G25" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
@@ -3790,13 +3790,13 @@
         <v>4.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>1.53</v>
+        <v>2.32</v>
       </c>
       <c r="O25" t="n">
         <v>1.44</v>
@@ -3811,16 +3811,16 @@
         <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>2.18</v>
+        <v>3.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W25" t="n">
         <v>1.59</v>
@@ -3907,40 +3907,40 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="G26" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="H26" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="I26" t="n">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="J26" t="n">
         <v>3.15</v>
       </c>
       <c r="K26" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.46</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>2.26</v>
+        <v>2.64</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="P26" t="n">
         <v>1.54</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="R26" t="n">
         <v>1.19</v>
@@ -3949,16 +3949,16 @@
         <v>4.5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U26" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="V26" t="n">
         <v>2.18</v>
       </c>
       <c r="W26" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4066,16 +4066,16 @@
         <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O27" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="R27" t="n">
         <v>1.21</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G28" t="n">
         <v>2.32</v>
@@ -4198,7 +4198,7 @@
         <v>1.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N28" t="n">
         <v>2.72</v>
@@ -4231,7 +4231,7 @@
         <v>1.75</v>
       </c>
       <c r="X28" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y28" t="n">
         <v>11</v>
@@ -4246,10 +4246,10 @@
         <v>7.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE28" t="n">
         <v>70</v>
@@ -4333,7 +4333,7 @@
         <v>1.52</v>
       </c>
       <c r="M29" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N29" t="n">
         <v>2.3</v>
@@ -4384,7 +4384,7 @@
         <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
         <v>90</v>
@@ -4447,10 +4447,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>1.4</v>
@@ -4459,7 +4459,7 @@
         <v>1.41</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K30" t="n">
         <v>6.4</v>
@@ -4468,7 +4468,7 @@
         <v>1.21</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
         <v>9</v>
@@ -4486,7 +4486,7 @@
         <v>2.06</v>
       </c>
       <c r="S30" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="T30" t="n">
         <v>1.58</v>
@@ -4495,7 +4495,7 @@
         <v>2.62</v>
       </c>
       <c r="V30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="W30" t="n">
         <v>1.14</v>
@@ -4543,13 +4543,13 @@
         <v>80</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
         <v>70</v>
       </c>
       <c r="AN30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AO30" t="n">
         <v>3.85</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G31" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H31" t="n">
         <v>2.54</v>
@@ -4597,10 +4597,10 @@
         <v>3.2</v>
       </c>
       <c r="K31" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L31" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4633,7 +4633,7 @@
         <v>1.61</v>
       </c>
       <c r="W31" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X31" t="n">
         <v>970</v>
@@ -4648,7 +4648,7 @@
         <v>42</v>
       </c>
       <c r="AB31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC31" t="n">
         <v>7.4</v>
@@ -4657,10 +4657,10 @@
         <v>12.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
         <v>970</v>
@@ -4675,7 +4675,7 @@
         <v>60</v>
       </c>
       <c r="AK31" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL31" t="n">
         <v>60</v>
@@ -4723,7 +4723,7 @@
         <v>2.52</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
         <v>4.3</v>
@@ -4765,7 +4765,7 @@
         <v>1.61</v>
       </c>
       <c r="V32" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W32" t="n">
         <v>1.65</v>
@@ -4852,46 +4852,46 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G33" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I33" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J33" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="K33" t="n">
-        <v>60</v>
+        <v>4.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="O33" t="n">
         <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R33" t="n">
         <v>1.13</v>
       </c>
       <c r="S33" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4900,7 +4900,7 @@
         <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W33" t="n">
         <v>1.54</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="G34" t="n">
-        <v>1000</v>
+        <v>1.81</v>
       </c>
       <c r="H34" t="n">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="I34" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>1.02</v>
+        <v>2.94</v>
       </c>
       <c r="K34" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5017,34 +5017,34 @@
         <v>1.35</v>
       </c>
       <c r="P34" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.35</v>
+        <v>1.89</v>
       </c>
       <c r="R34" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="V34" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W34" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z34" t="n">
         <v>1000</v>
@@ -5053,34 +5053,34 @@
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL34" t="n">
         <v>1000</v>
@@ -5089,7 +5089,7 @@
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5128,16 +5128,16 @@
         <v>1.96</v>
       </c>
       <c r="H35" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I35" t="n">
         <v>5.3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K35" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L35" t="n">
         <v>1.44</v>
@@ -5197,7 +5197,7 @@
         <v>21</v>
       </c>
       <c r="AE35" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
         <v>11.5</v>
@@ -5218,7 +5218,7 @@
         <v>23</v>
       </c>
       <c r="AL35" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="G2" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="I2" t="n">
-        <v>2.92</v>
+        <v>2.68</v>
       </c>
       <c r="J2" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>1.51</v>
+        <v>2.56</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P2" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S2" t="n">
-        <v>1.43</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
-        <v>1.05</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="W2" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="G3" t="n">
         <v>8.800000000000001</v>
@@ -811,7 +811,7 @@
         <v>1.6</v>
       </c>
       <c r="I3" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="J3" t="n">
         <v>3.3</v>
@@ -820,7 +820,7 @@
         <v>4.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
@@ -850,7 +850,7 @@
         <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="W3" t="n">
         <v>1.14</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="G5" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="I5" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="J5" t="n">
         <v>2.62</v>
@@ -1090,13 +1090,13 @@
         <v>2.96</v>
       </c>
       <c r="L5" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="M5" t="n">
         <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="O5" t="n">
         <v>1.8</v>
@@ -1105,7 +1105,7 @@
         <v>1.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
@@ -1120,22 +1120,22 @@
         <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X5" t="n">
         <v>6.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB5" t="n">
         <v>9</v>
@@ -1147,10 +1147,10 @@
         <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
         <v>18.5</v>
@@ -1159,13 +1159,13 @@
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AK5" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="n">
         <v>150</v>
@@ -1210,16 +1210,16 @@
         <v>1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="H6" t="n">
         <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>3.85</v>
@@ -1240,13 +1240,13 @@
         <v>1.66</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
         <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
         <v>2.1</v>
@@ -1258,7 +1258,7 @@
         <v>1.15</v>
       </c>
       <c r="W6" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="X6" t="n">
         <v>12.5</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="G7" t="n">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="I7" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
         <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S7" t="n">
         <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="X7" t="n">
         <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="AK7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN7" t="n">
         <v>120</v>
       </c>
-      <c r="AL7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>170</v>
-      </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="G8" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="H8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L8" t="n">
         <v>1.54</v>
@@ -1507,7 +1507,7 @@
         <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q8" t="n">
         <v>2.5</v>
@@ -1528,7 +1528,7 @@
         <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="X8" t="n">
         <v>8.800000000000001</v>
@@ -1558,7 +1558,7 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
         <v>980</v>
@@ -1621,7 +1621,7 @@
         <v>10.5</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J9" t="n">
         <v>4.2</v>
@@ -1645,7 +1645,7 @@
         <v>1.69</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
         <v>1.25</v>
@@ -1654,10 +1654,10 @@
         <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="U9" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="V9" t="n">
         <v>1.08</v>
@@ -1687,7 +1687,7 @@
         <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AF9" t="n">
         <v>7.4</v>
@@ -1699,7 +1699,7 @@
         <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AJ9" t="n">
         <v>12.5</v>
@@ -1711,7 +1711,7 @@
         <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AN9" t="n">
         <v>12.5</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I10" t="n">
         <v>5.2</v>
@@ -1798,7 +1798,7 @@
         <v>1.24</v>
       </c>
       <c r="W10" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G11" t="n">
         <v>2.08</v>
@@ -1891,10 +1891,10 @@
         <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
         <v>4.5</v>
@@ -1906,10 +1906,10 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
         <v>2.42</v>
@@ -1918,22 +1918,22 @@
         <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
         <v>1.29</v>
       </c>
       <c r="W11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="X11" t="n">
         <v>25</v>
@@ -1981,7 +1981,7 @@
         <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>11.5</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G12" t="n">
         <v>1.97</v>
@@ -2041,7 +2041,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -2176,13 +2176,13 @@
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q13" t="n">
         <v>2.26</v>
@@ -2191,7 +2191,7 @@
         <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
         <v>1.92</v>
@@ -2290,7 +2290,7 @@
         <v>2.38</v>
       </c>
       <c r="G14" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
         <v>2.9</v>
@@ -2320,7 +2320,7 @@
         <v>1.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="R14" t="n">
         <v>1.35</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G15" t="n">
         <v>1.33</v>
       </c>
       <c r="H15" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="I15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="J15" t="n">
         <v>5.5</v>
@@ -2440,7 +2440,7 @@
         <v>6.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2452,13 +2452,13 @@
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
         <v>2.96</v>
@@ -2467,7 +2467,7 @@
         <v>2.34</v>
       </c>
       <c r="U15" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="V15" t="n">
         <v>1.06</v>
@@ -2563,7 +2563,7 @@
         <v>3.8</v>
       </c>
       <c r="H16" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I16" t="n">
         <v>2.72</v>
@@ -2620,7 +2620,7 @@
         <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="n">
         <v>9.199999999999999</v>
@@ -2737,7 +2737,7 @@
         <v>1.65</v>
       </c>
       <c r="U17" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
         <v>1.35</v>
@@ -2845,7 +2845,7 @@
         <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -2869,10 +2869,10 @@
         <v>2.96</v>
       </c>
       <c r="T18" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V18" t="n">
         <v>1.78</v>
@@ -2965,7 +2965,7 @@
         <v>2.62</v>
       </c>
       <c r="G19" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
         <v>2.34</v>
@@ -2986,7 +2986,7 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.15</v>
@@ -3010,16 +3010,16 @@
         <v>2.74</v>
       </c>
       <c r="V19" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W19" t="n">
         <v>1.5</v>
       </c>
       <c r="X19" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="Y19" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Z19" t="n">
         <v>27</v>
@@ -3028,7 +3028,7 @@
         <v>42</v>
       </c>
       <c r="AB19" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AC19" t="n">
         <v>13</v>
@@ -3109,7 +3109,7 @@
         <v>1.61</v>
       </c>
       <c r="J20" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="K20" t="n">
         <v>6.2</v>
@@ -3130,13 +3130,13 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R20" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S20" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="T20" t="n">
         <v>1.58</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
         <v>2.5</v>
@@ -3241,13 +3241,13 @@
         <v>2.7</v>
       </c>
       <c r="I21" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.23</v>
@@ -3274,7 +3274,7 @@
         <v>2.12</v>
       </c>
       <c r="T21" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U21" t="n">
         <v>2.8</v>
@@ -3286,7 +3286,7 @@
         <v>1.66</v>
       </c>
       <c r="X21" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Y21" t="n">
         <v>21</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G22" t="n">
         <v>3.15</v>
@@ -3391,7 +3391,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O22" t="n">
         <v>1.35</v>
@@ -3514,10 +3514,10 @@
         <v>2.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -3526,7 +3526,7 @@
         <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O23" t="n">
         <v>1.45</v>
@@ -3553,7 +3553,7 @@
         <v>1.63</v>
       </c>
       <c r="W23" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3637,46 +3637,46 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="H24" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="I24" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.02</v>
+        <v>1.86</v>
       </c>
       <c r="K24" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="P24" t="n">
         <v>1.24</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>1.43</v>
+        <v>2.5</v>
       </c>
       <c r="T24" t="n">
         <v>1.05</v>
@@ -3685,13 +3685,13 @@
         <v>1.05</v>
       </c>
       <c r="V24" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="W24" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -3772,46 +3772,46 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="G25" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
         <v>2.96</v>
       </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="L25" t="n">
         <v>1.51</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.32</v>
+        <v>2.76</v>
       </c>
       <c r="O25" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P25" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S25" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
         <v>1.05</v>
@@ -3820,10 +3820,10 @@
         <v>1.05</v>
       </c>
       <c r="V25" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W25" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="X25" t="n">
         <v>1000</v>
@@ -3955,7 +3955,7 @@
         <v>1.61</v>
       </c>
       <c r="V26" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="W26" t="n">
         <v>1.12</v>
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="G27" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J27" t="n">
         <v>3.05</v>
@@ -4060,7 +4060,7 @@
         <v>3.15</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M27" t="n">
         <v>1.11</v>
@@ -4072,13 +4072,13 @@
         <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q27" t="n">
         <v>2.46</v>
       </c>
       <c r="R27" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
         <v>4.9</v>
@@ -4090,25 +4090,25 @@
         <v>1.86</v>
       </c>
       <c r="V27" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="W27" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="X27" t="n">
         <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z27" t="n">
         <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
         <v>970</v>
@@ -4117,34 +4117,34 @@
         <v>970</v>
       </c>
       <c r="AE27" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AF27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH27" t="n">
         <v>970</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>70</v>
       </c>
       <c r="AJ27" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AL27" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AM27" t="n">
         <v>190</v>
       </c>
       <c r="AN27" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AO27" t="n">
         <v>60</v>
@@ -4195,7 +4195,7 @@
         <v>3.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M28" t="n">
         <v>1.14</v>
@@ -4219,10 +4219,10 @@
         <v>5.8</v>
       </c>
       <c r="T28" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U28" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V28" t="n">
         <v>1.31</v>
@@ -4237,10 +4237,10 @@
         <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA28" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB28" t="n">
         <v>7.2</v>
@@ -4261,7 +4261,7 @@
         <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
         <v>95</v>
@@ -4477,22 +4477,22 @@
         <v>1.12</v>
       </c>
       <c r="P30" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R30" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="S30" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T30" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U30" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V30" t="n">
         <v>3.45</v>
@@ -4504,10 +4504,10 @@
         <v>46</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
         <v>14.5</v>
@@ -4525,7 +4525,7 @@
         <v>12.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG30" t="n">
         <v>30</v>
@@ -4537,10 +4537,10 @@
         <v>22</v>
       </c>
       <c r="AJ30" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AK30" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL30" t="n">
         <v>65</v>
@@ -4549,7 +4549,7 @@
         <v>70</v>
       </c>
       <c r="AN30" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO30" t="n">
         <v>3.85</v>
@@ -4582,58 +4582,58 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G31" t="n">
         <v>3.35</v>
       </c>
       <c r="H31" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I31" t="n">
         <v>2.62</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
         <v>3.35</v>
       </c>
       <c r="L31" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O31" t="n">
         <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R31" t="n">
         <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="U31" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V31" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W31" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X31" t="n">
         <v>970</v>
@@ -4645,7 +4645,7 @@
         <v>970</v>
       </c>
       <c r="AA31" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB31" t="n">
         <v>10.5</v>
@@ -4687,7 +4687,7 @@
         <v>60</v>
       </c>
       <c r="AO31" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -4723,7 +4723,7 @@
         <v>2.52</v>
       </c>
       <c r="H32" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
         <v>4.3</v>
@@ -4732,7 +4732,7 @@
         <v>2.82</v>
       </c>
       <c r="K32" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
         <v>1.7</v>
@@ -4768,7 +4768,7 @@
         <v>1.31</v>
       </c>
       <c r="W32" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X32" t="n">
         <v>7.6</v>
@@ -4852,64 +4852,64 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="G33" t="n">
         <v>2.82</v>
       </c>
       <c r="H33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="J33" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K33" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>1.44</v>
+        <v>2.54</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="P33" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V33" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W33" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4918,10 +4918,10 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
@@ -4930,10 +4930,10 @@
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
         <v>1000</v>
@@ -4993,25 +4993,25 @@
         <v>1.81</v>
       </c>
       <c r="H34" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="I34" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K34" t="n">
         <v>4.7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>1.72</v>
+        <v>2.92</v>
       </c>
       <c r="O34" t="n">
         <v>1.35</v>
@@ -5023,73 +5023,73 @@
         <v>1.89</v>
       </c>
       <c r="R34" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="S34" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="U34" t="n">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="V34" t="n">
         <v>1.12</v>
       </c>
       <c r="W34" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X34" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>19</v>
       </c>
-      <c r="Y34" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ34" t="n">
+      <c r="AK34" t="n">
         <v>23</v>
       </c>
-      <c r="AK34" t="n">
-        <v>28</v>
-      </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5146,7 +5146,7 @@
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O35" t="n">
         <v>1.37</v>
@@ -5176,7 +5176,7 @@
         <v>2.04</v>
       </c>
       <c r="X35" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y35" t="n">
         <v>16</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO35"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I2" t="n">
         <v>2.68</v>
       </c>
       <c r="J2" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N2" t="n">
         <v>1.1</v>
       </c>
-      <c r="N2" t="n">
-        <v>2.56</v>
-      </c>
       <c r="O2" t="n">
-        <v>1.45</v>
+        <v>1.09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.58</v>
+        <v>1.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>1.43</v>
       </c>
       <c r="R2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.05</v>
       </c>
-      <c r="T2" t="n">
-        <v>1.95</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="G3" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="I3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K3" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.74</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V3" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -1072,31 +1072,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="I5" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="J5" t="n">
         <v>2.62</v>
       </c>
       <c r="K5" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="L5" t="n">
         <v>1.72</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O5" t="n">
         <v>1.8</v>
@@ -1105,7 +1105,7 @@
         <v>1.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
@@ -1117,34 +1117,34 @@
         <v>2.48</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X5" t="n">
         <v>6.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z5" t="n">
         <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>60</v>
@@ -1153,10 +1153,10 @@
         <v>25</v>
       </c>
       <c r="AG5" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AI5" t="n">
         <v>120</v>
@@ -1165,19 +1165,19 @@
         <v>110</v>
       </c>
       <c r="AK5" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AL5" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AM5" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="AN5" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AO5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="G6" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>8.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.96</v>
+        <v>2.52</v>
       </c>
       <c r="O6" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>5.4</v>
@@ -1351,34 +1351,34 @@
         <v>1.85</v>
       </c>
       <c r="I7" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.9</v>
+        <v>2.76</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
         <v>1.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
         <v>4.3</v>
@@ -1387,19 +1387,19 @@
         <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="V7" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="W7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>10.5</v>
@@ -1408,37 +1408,37 @@
         <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AK7" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AL7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
         <v>180</v>
@@ -1477,37 +1477,37 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
         <v>4.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" t="n">
         <v>2.5</v>
@@ -1516,37 +1516,37 @@
         <v>1.19</v>
       </c>
       <c r="S8" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X8" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
         <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1555,7 +1555,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
         <v>13.5</v>
@@ -1564,7 +1564,7 @@
         <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AJ8" t="n">
         <v>980</v>
@@ -1573,16 +1573,16 @@
         <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="AN8" t="n">
         <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="H9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
         <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
         <v>1.47</v>
@@ -1639,13 +1639,13 @@
         <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
         <v>1.69</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
         <v>1.25</v>
@@ -1657,19 +1657,19 @@
         <v>2.44</v>
       </c>
       <c r="U9" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="V9" t="n">
         <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Z9" t="n">
         <v>130</v>
@@ -1678,19 +1678,19 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AD9" t="n">
         <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AG9" t="n">
         <v>11.5</v>
@@ -1699,10 +1699,10 @@
         <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
         <v>980</v>
@@ -1711,10 +1711,10 @@
         <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="AN9" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1759,19 +1759,19 @@
         <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
         <v>3.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="O10" t="n">
         <v>1.38</v>
@@ -1780,13 +1780,13 @@
         <v>1.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="R10" t="n">
         <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
         <v>1.89</v>
@@ -1882,118 +1882,118 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>2.42</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
         <v>2.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.5</v>
       </c>
-      <c r="S11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.61</v>
-      </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>1.05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="W11" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fatih Karagumruk Istanbul</t>
+          <t>Rudar Prijedor</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>1.97</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>990</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>950</v>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>3.5</v>
+        <v>1.24</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>1.86</v>
+        <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.04</v>
+        <v>1.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>3.65</v>
+        <v>1.34</v>
       </c>
       <c r="T12" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W12" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Fatih Karagumruk Istanbul</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.66</v>
+        <v>1.9</v>
       </c>
       <c r="G13" t="n">
-        <v>2.92</v>
+        <v>1.96</v>
       </c>
       <c r="H13" t="n">
-        <v>2.88</v>
+        <v>4.8</v>
       </c>
       <c r="I13" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.26</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.25</v>
       </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.46</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="X13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG13" t="n">
         <v>12</v>
       </c>
-      <c r="Y13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15</v>
-      </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AK13" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>44</v>
+        <v>17.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,67 +2278,67 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>2.94</v>
       </c>
       <c r="H14" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="P14" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.79</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
-        <v>2.14</v>
+        <v>1.05</v>
       </c>
       <c r="V14" t="n">
         <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2353,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
         <v>1000</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,118 +2413,118 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.27</v>
+        <v>2.2</v>
       </c>
       <c r="G15" t="n">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>13.5</v>
+        <v>2.52</v>
       </c>
       <c r="I15" t="n">
-        <v>19.5</v>
+        <v>3.95</v>
       </c>
       <c r="J15" t="n">
-        <v>5.5</v>
+        <v>2.98</v>
       </c>
       <c r="K15" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.05</v>
       </c>
-      <c r="N15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.34</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.61</v>
+        <v>1.05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="W15" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="X15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.45</v>
+        <v>1.26</v>
       </c>
       <c r="G16" t="n">
-        <v>3.8</v>
+        <v>1.33</v>
       </c>
       <c r="H16" t="n">
-        <v>2.52</v>
+        <v>14</v>
       </c>
       <c r="I16" t="n">
-        <v>2.72</v>
+        <v>21</v>
       </c>
       <c r="J16" t="n">
-        <v>2.84</v>
+        <v>5.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.05</v>
+        <v>6.8</v>
       </c>
       <c r="L16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.59</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.65</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.58</v>
+        <v>1.05</v>
       </c>
       <c r="W16" t="n">
-        <v>1.35</v>
+        <v>4</v>
       </c>
       <c r="X16" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>420</v>
+      </c>
+      <c r="AF16" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y16" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z16" t="n">
+      <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>310</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AK16" t="n">
         <v>17</v>
       </c>
-      <c r="AA16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>75</v>
-      </c>
       <c r="AL16" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="AN16" t="n">
-        <v>120</v>
+        <v>5.9</v>
       </c>
       <c r="AO16" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.99</v>
+        <v>3.3</v>
       </c>
       <c r="G17" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J17" t="n">
         <v>2.04</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4</v>
-      </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.05</v>
       </c>
-      <c r="N17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.38</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
       <c r="W17" t="n">
-        <v>1.96</v>
+        <v>1.32</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>19.5</v>
+        <v>95</v>
       </c>
       <c r="AL17" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,118 +2818,118 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.4</v>
+        <v>1.99</v>
       </c>
       <c r="G18" t="n">
-        <v>3.75</v>
+        <v>2.04</v>
       </c>
       <c r="H18" t="n">
-        <v>2.1</v>
+        <v>3.65</v>
       </c>
       <c r="I18" t="n">
-        <v>2.28</v>
+        <v>3.85</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="O18" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="S18" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="T18" t="n">
         <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="V18" t="n">
-        <v>1.78</v>
+        <v>1.35</v>
       </c>
       <c r="W18" t="n">
-        <v>1.36</v>
+        <v>1.96</v>
       </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE18" t="n">
         <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AG18" t="n">
         <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AJ18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM18" t="n">
         <v>75</v>
       </c>
-      <c r="AK18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>90</v>
-      </c>
       <c r="AN18" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.62</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I19" t="n">
+        <v>110</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>60</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S19" t="n">
         <v>2.34</v>
       </c>
-      <c r="I19" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.12</v>
-      </c>
       <c r="T19" t="n">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>2.74</v>
+        <v>1.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="W19" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X19" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.5</v>
+        <v>2.58</v>
       </c>
       <c r="G20" t="n">
-        <v>7.2</v>
+        <v>3.15</v>
       </c>
       <c r="H20" t="n">
-        <v>1.53</v>
+        <v>2.36</v>
       </c>
       <c r="I20" t="n">
-        <v>1.61</v>
+        <v>2.72</v>
       </c>
       <c r="J20" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.21</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="S20" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="T20" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="U20" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="V20" t="n">
-        <v>2.64</v>
+        <v>1.53</v>
       </c>
       <c r="W20" t="n">
-        <v>1.16</v>
+        <v>1.47</v>
       </c>
       <c r="X20" t="n">
+        <v>970</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA20" t="n">
         <v>42</v>
       </c>
-      <c r="Y20" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>19</v>
-      </c>
       <c r="AB20" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AG20" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AJ20" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="AK20" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AL20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM20" t="n">
         <v>60</v>
       </c>
-      <c r="AM20" t="n">
-        <v>75</v>
-      </c>
       <c r="AN20" t="n">
-        <v>55</v>
+        <v>16.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>5.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.38</v>
+        <v>5.4</v>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>6.6</v>
       </c>
       <c r="H21" t="n">
-        <v>2.7</v>
+        <v>1.54</v>
       </c>
       <c r="I21" t="n">
-        <v>2.9</v>
+        <v>1.63</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="P21" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="R21" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="S21" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="U21" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="W21" t="n">
-        <v>1.66</v>
+        <v>1.19</v>
       </c>
       <c r="X21" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH21" t="n">
         <v>25</v>
       </c>
-      <c r="AA21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>15</v>
-      </c>
       <c r="AI21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ21" t="n">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AL21" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.94</v>
+        <v>2.36</v>
       </c>
       <c r="G22" t="n">
-        <v>3.15</v>
+        <v>2.54</v>
       </c>
       <c r="H22" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="I22" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>1.1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="P22" t="n">
-        <v>1.88</v>
+        <v>2.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1.37</v>
       </c>
       <c r="R22" t="n">
-        <v>1.34</v>
+        <v>1.71</v>
       </c>
       <c r="S22" t="n">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="T22" t="n">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
       <c r="U22" t="n">
-        <v>2.18</v>
+        <v>1.05</v>
       </c>
       <c r="V22" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="W22" t="n">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="X22" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO22" t="n">
         <v>18</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,109 +3493,109 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="G23" t="n">
         <v>3.15</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S23" t="n">
         <v>3.55</v>
       </c>
-      <c r="H23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.94</v>
+        <v>1.76</v>
       </c>
       <c r="U23" t="n">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="W23" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y23" t="n">
         <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="n">
         <v>1000</v>
@@ -3604,10 +3604,10 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -3628,70 +3628,70 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.7</v>
+        <v>3.35</v>
       </c>
       <c r="G24" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="I24" t="n">
-        <v>5.4</v>
+        <v>2.68</v>
       </c>
       <c r="J24" t="n">
-        <v>1.86</v>
+        <v>2.96</v>
       </c>
       <c r="K24" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.07</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="T24" t="n">
         <v>1.05</v>
       </c>
       <c r="U24" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="V24" t="n">
-        <v>1.22</v>
+        <v>1.66</v>
       </c>
       <c r="W24" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -3763,55 +3763,55 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.16</v>
+        <v>1.7</v>
       </c>
       <c r="G25" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
-        <v>3.55</v>
+        <v>2.02</v>
       </c>
       <c r="I25" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.96</v>
+        <v>1.86</v>
       </c>
       <c r="K25" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
         <v>1.1</v>
       </c>
-      <c r="N25" t="n">
-        <v>2.76</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P25" t="n">
-        <v>1.59</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.34</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="T25" t="n">
         <v>1.05</v>
@@ -3820,13 +3820,13 @@
         <v>1.05</v>
       </c>
       <c r="V25" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y25" t="n">
         <v>1000</v>
@@ -3898,73 +3898,73 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>5.6</v>
+        <v>1.94</v>
       </c>
       <c r="G26" t="n">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
-        <v>1.65</v>
+        <v>2.96</v>
       </c>
       <c r="I26" t="n">
-        <v>1.85</v>
+        <v>4.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>10.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>2.64</v>
+        <v>2.32</v>
       </c>
       <c r="O26" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="R26" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="T26" t="n">
-        <v>2.28</v>
+        <v>1.05</v>
       </c>
       <c r="U26" t="n">
-        <v>1.61</v>
+        <v>1.05</v>
       </c>
       <c r="V26" t="n">
-        <v>2.12</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>1.12</v>
+        <v>1.58</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
         <v>1000</v>
@@ -3976,7 +3976,7 @@
         <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.84</v>
+        <v>5.1</v>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>9.4</v>
       </c>
       <c r="H27" t="n">
-        <v>2.8</v>
+        <v>1.56</v>
       </c>
       <c r="I27" t="n">
-        <v>3.1</v>
+        <v>1.94</v>
       </c>
       <c r="J27" t="n">
         <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>3.15</v>
+        <v>6.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>2.74</v>
+        <v>2.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="R27" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>4.9</v>
+        <v>2.66</v>
       </c>
       <c r="T27" t="n">
-        <v>2.02</v>
+        <v>1.05</v>
       </c>
       <c r="U27" t="n">
-        <v>1.86</v>
+        <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.48</v>
+        <v>2.06</v>
       </c>
       <c r="W27" t="n">
-        <v>1.48</v>
+        <v>1.12</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.28</v>
+        <v>2.9</v>
       </c>
       <c r="G28" t="n">
-        <v>2.32</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="I28" t="n">
-        <v>4.2</v>
+        <v>2.96</v>
       </c>
       <c r="J28" t="n">
         <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L28" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="O28" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="P28" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.76</v>
+        <v>1.51</v>
       </c>
       <c r="R28" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>5.8</v>
+        <v>1.51</v>
       </c>
       <c r="T28" t="n">
-        <v>2.24</v>
+        <v>1.05</v>
       </c>
       <c r="U28" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="V28" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="W28" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="X28" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="G29" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="H29" t="n">
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="L29" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="M29" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="N29" t="n">
-        <v>2.3</v>
+        <v>2.68</v>
       </c>
       <c r="O29" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="P29" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="R29" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="S29" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="U29" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="V29" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W29" t="n">
         <v>1.74</v>
       </c>
       <c r="X29" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD29" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AF29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ29" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AK29" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL29" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>2.18</v>
       </c>
       <c r="G30" t="n">
-        <v>8.199999999999999</v>
+        <v>2.58</v>
       </c>
       <c r="H30" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="I30" t="n">
-        <v>1.41</v>
+        <v>5.2</v>
       </c>
       <c r="J30" t="n">
-        <v>6.2</v>
+        <v>2.62</v>
       </c>
       <c r="K30" t="n">
-        <v>6.4</v>
+        <v>3.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="M30" t="n">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>2.28</v>
       </c>
       <c r="O30" t="n">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="P30" t="n">
-        <v>3.6</v>
+        <v>1.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.37</v>
+        <v>2.68</v>
       </c>
       <c r="R30" t="n">
-        <v>2.04</v>
+        <v>1.15</v>
       </c>
       <c r="S30" t="n">
-        <v>1.92</v>
+        <v>3.45</v>
       </c>
       <c r="T30" t="n">
-        <v>1.59</v>
+        <v>2.3</v>
       </c>
       <c r="U30" t="n">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="V30" t="n">
-        <v>3.45</v>
+        <v>1.23</v>
       </c>
       <c r="W30" t="n">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
       <c r="X30" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
         <v>46</v>
       </c>
-      <c r="Y30" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>210</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>60</v>
-      </c>
       <c r="AO30" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.15</v>
+        <v>8</v>
       </c>
       <c r="G31" t="n">
-        <v>3.35</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>2.52</v>
+        <v>1.38</v>
       </c>
       <c r="I31" t="n">
-        <v>2.62</v>
+        <v>1.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="K31" t="n">
-        <v>3.35</v>
+        <v>6.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.49</v>
+        <v>1.21</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>3.05</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>1.44</v>
+        <v>1.11</v>
       </c>
       <c r="P31" t="n">
-        <v>1.71</v>
+        <v>3.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.3</v>
+        <v>1.36</v>
       </c>
       <c r="R31" t="n">
-        <v>1.26</v>
+        <v>2.04</v>
       </c>
       <c r="S31" t="n">
-        <v>4.4</v>
+        <v>1.92</v>
       </c>
       <c r="T31" t="n">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="U31" t="n">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="V31" t="n">
-        <v>1.62</v>
+        <v>3.5</v>
       </c>
       <c r="W31" t="n">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="X31" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="Y31" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Z31" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>40</v>
+        <v>14.5</v>
       </c>
       <c r="AB31" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD31" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD31" t="n">
+      <c r="AE31" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE31" t="n">
-        <v>34</v>
-      </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AG31" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AH31" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AI31" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="AJ31" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AK31" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AL31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM31" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AN31" t="n">
         <v>60</v>
       </c>
       <c r="AO31" t="n">
-        <v>36</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.36</v>
+        <v>3.05</v>
       </c>
       <c r="G32" t="n">
-        <v>2.52</v>
+        <v>3.45</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="I32" t="n">
-        <v>4.3</v>
+        <v>2.64</v>
       </c>
       <c r="J32" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="M32" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.22</v>
+        <v>3.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="P32" t="n">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.15</v>
+        <v>2.12</v>
       </c>
       <c r="R32" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="S32" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="U32" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V32" t="n">
         <v>1.61</v>
       </c>
-      <c r="V32" t="n">
-        <v>1.31</v>
-      </c>
       <c r="W32" t="n">
-        <v>1.66</v>
+        <v>1.42</v>
       </c>
       <c r="X32" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Albion FC</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="G33" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J33" t="n">
         <v>2.82</v>
       </c>
-      <c r="H33" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.8</v>
-      </c>
       <c r="K33" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="M33" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="N33" t="n">
-        <v>2.54</v>
+        <v>2.22</v>
       </c>
       <c r="O33" t="n">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="P33" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.4</v>
+        <v>3.15</v>
       </c>
       <c r="R33" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="S33" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="T33" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="U33" t="n">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="V33" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W33" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="X33" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB33" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF33" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AG33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,78 +4973,78 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Albion FC</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.52</v>
+        <v>2.24</v>
       </c>
       <c r="G34" t="n">
-        <v>1.81</v>
+        <v>2.84</v>
       </c>
       <c r="H34" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>9.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="K34" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>2.92</v>
+        <v>2.14</v>
       </c>
       <c r="O34" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.89</v>
+        <v>2.44</v>
       </c>
       <c r="R34" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="S34" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U34" t="n">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="V34" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="W34" t="n">
-        <v>2.24</v>
+        <v>1.54</v>
       </c>
       <c r="X34" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
         <v>1000</v>
@@ -5053,43 +5053,43 @@
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,120 +5113,255 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Juventud De Las Piedras</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="G35" t="n">
         <v>1.96</v>
       </c>
       <c r="H35" t="n">
-        <v>4.7</v>
+        <v>1.09</v>
       </c>
       <c r="I35" t="n">
-        <v>5.3</v>
+        <v>12</v>
       </c>
       <c r="J35" t="n">
-        <v>3.45</v>
+        <v>2.46</v>
       </c>
       <c r="K35" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="L35" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>3.15</v>
+        <v>2.56</v>
       </c>
       <c r="O35" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="P35" t="n">
-        <v>1.76</v>
+        <v>1.47</v>
       </c>
       <c r="Q35" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S35" t="n">
         <v>2.08</v>
       </c>
-      <c r="R35" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.9</v>
-      </c>
       <c r="T35" t="n">
-        <v>1.93</v>
+        <v>1.05</v>
       </c>
       <c r="U35" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="V35" t="n">
-        <v>1.23</v>
+        <v>1.09</v>
       </c>
       <c r="W35" t="n">
         <v>2.04</v>
       </c>
       <c r="X35" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Juventud De Las Piedras</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X36" t="n">
         <v>16</v>
       </c>
-      <c r="Z35" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC35" t="n">
+      <c r="Y36" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC36" t="n">
         <v>8.6</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AD36" t="n">
         <v>21</v>
       </c>
-      <c r="AE35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH35" t="n">
+      <c r="AE36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>23</v>
       </c>
-      <c r="AI35" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ35" t="n">
+      <c r="AK36" t="n">
         <v>23</v>
       </c>
-      <c r="AK35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO35" t="n">
+      <c r="AL36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO36" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.94</v>
+        <v>3.45</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
         <v>2.26</v>
       </c>
       <c r="I2" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="J2" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>1.1</v>
+        <v>2.64</v>
       </c>
       <c r="O2" t="n">
-        <v>1.09</v>
+        <v>1.48</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.43</v>
+        <v>2.42</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.59</v>
+        <v>4.5</v>
       </c>
       <c r="T2" t="n">
         <v>1.05</v>
@@ -715,64 +715,64 @@
         <v>1.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="G3" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="I3" t="n">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="Q3" t="n">
         <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S3" t="n">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -1072,31 +1072,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="I5" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="K5" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="M5" t="n">
         <v>1.18</v>
       </c>
       <c r="N5" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="O5" t="n">
         <v>1.8</v>
@@ -1105,37 +1105,37 @@
         <v>1.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="T5" t="n">
         <v>2.48</v>
       </c>
       <c r="U5" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="V5" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W5" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X5" t="n">
         <v>6.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB5" t="n">
         <v>9.6</v>
@@ -1156,7 +1156,7 @@
         <v>19.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>120</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.54</v>
+        <v>1.68</v>
       </c>
       <c r="G6" t="n">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="I6" t="n">
-        <v>8.6</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.66</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.52</v>
+        <v>2.96</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P6" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="W6" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -1345,61 +1345,61 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
         <v>1.85</v>
       </c>
       <c r="I7" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="J7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.7</v>
       </c>
-      <c r="K7" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
         <v>1.23</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="n">
         <v>10.5</v>
@@ -1408,46 +1408,46 @@
         <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF7" t="n">
         <v>38</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AK7" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM7" t="n">
         <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AO7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -1477,61 +1477,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G8" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M8" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="O8" t="n">
         <v>1.51</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
         <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="X8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y8" t="n">
         <v>13</v>
@@ -1543,22 +1543,22 @@
         <v>130</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
         <v>980</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G9" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
         <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J9" t="n">
         <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.47</v>
@@ -1636,16 +1636,16 @@
         <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O9" t="n">
         <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
         <v>1.25</v>
@@ -1657,13 +1657,13 @@
         <v>2.44</v>
       </c>
       <c r="U9" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="V9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="AC9" t="n">
         <v>13</v>
@@ -1687,7 +1687,7 @@
         <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AF9" t="n">
         <v>8.4</v>
@@ -1699,7 +1699,7 @@
         <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AJ9" t="n">
         <v>14.5</v>
@@ -1711,7 +1711,7 @@
         <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AN9" t="n">
         <v>10.5</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G10" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="H10" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="I10" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J10" t="n">
         <v>3.05</v>
@@ -1768,7 +1768,7 @@
         <v>1.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
         <v>2.92</v>
@@ -1777,7 +1777,7 @@
         <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q10" t="n">
         <v>2.08</v>
@@ -1786,25 +1786,25 @@
         <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
         <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V10" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="W10" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC10" t="n">
         <v>1000</v>
@@ -1885,109 +1885,109 @@
         <v>1.87</v>
       </c>
       <c r="G11" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>2.42</v>
+        <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
         <v>2.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="T11" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>1.05</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -2020,7 +2020,7 @@
         <v>1.04</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="H12" t="n">
         <v>1.04</v>
@@ -2041,7 +2041,7 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
@@ -2050,7 +2050,7 @@
         <v>1.24</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G13" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="H13" t="n">
         <v>4.8</v>
@@ -2164,10 +2164,10 @@
         <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.45</v>
@@ -2176,7 +2176,7 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
@@ -2185,16 +2185,16 @@
         <v>1.86</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R13" t="n">
         <v>1.33</v>
       </c>
       <c r="S13" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T13" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U13" t="n">
         <v>2</v>
@@ -2206,7 +2206,7 @@
         <v>2.04</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
         <v>16</v>
@@ -2218,7 +2218,7 @@
         <v>130</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
@@ -2296,7 +2296,7 @@
         <v>2.88</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.05</v>
@@ -2308,91 +2308,91 @@
         <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="O14" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q14" t="n">
         <v>2.28</v>
       </c>
       <c r="R14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="U14" t="n">
-        <v>1.05</v>
+        <v>1.94</v>
       </c>
       <c r="V14" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="W14" t="n">
         <v>1.52</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -2422,61 +2422,61 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="H15" t="n">
-        <v>2.52</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.34</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="R15" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.05</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="W15" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2491,7 +2491,7 @@
         <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2503,7 +2503,7 @@
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G16" t="n">
         <v>1.33</v>
@@ -2566,13 +2566,13 @@
         <v>14</v>
       </c>
       <c r="I16" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="J16" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K16" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L16" t="n">
         <v>1.28</v>
@@ -2581,19 +2581,19 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q16" t="n">
         <v>1.76</v>
       </c>
       <c r="R16" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S16" t="n">
         <v>2.96</v>
@@ -2602,10 +2602,10 @@
         <v>2.34</v>
       </c>
       <c r="U16" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W16" t="n">
         <v>4</v>
@@ -2632,7 +2632,7 @@
         <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="AF16" t="n">
         <v>7.4</v>
@@ -2644,7 +2644,7 @@
         <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AJ16" t="n">
         <v>9.800000000000001</v>
@@ -2656,7 +2656,7 @@
         <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AN16" t="n">
         <v>5.9</v>
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="G17" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>2.64</v>
       </c>
       <c r="J17" t="n">
-        <v>2.04</v>
+        <v>2.84</v>
       </c>
       <c r="K17" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N17" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="O17" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="P17" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="R17" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="S17" t="n">
-        <v>2.48</v>
+        <v>6.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="V17" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W17" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X17" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
         <v>32</v>
       </c>
-      <c r="AG17" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -2839,10 +2839,10 @@
         <v>3.85</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -2851,22 +2851,22 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="O18" t="n">
         <v>1.23</v>
       </c>
       <c r="P18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="R18" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S18" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T18" t="n">
         <v>1.64</v>
@@ -2881,7 +2881,7 @@
         <v>1.96</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y18" t="n">
         <v>18</v>
@@ -2890,13 +2890,13 @@
         <v>30</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD18" t="n">
         <v>15.5</v>
@@ -2908,7 +2908,7 @@
         <v>14.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>17</v>
@@ -2920,19 +2920,19 @@
         <v>24</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM18" t="n">
         <v>75</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -2962,109 +2962,109 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.04</v>
+        <v>3.45</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="H19" t="n">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="I19" t="n">
-        <v>110</v>
+        <v>2.26</v>
       </c>
       <c r="J19" t="n">
-        <v>1.1</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>60</v>
+        <v>4.1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="R19" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="S19" t="n">
-        <v>2.34</v>
+        <v>2.94</v>
       </c>
       <c r="T19" t="n">
-        <v>1.05</v>
+        <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>1.05</v>
+        <v>2.22</v>
       </c>
       <c r="V19" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="W19" t="n">
         <v>1.36</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
         <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="G20" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="H20" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I20" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="J20" t="n">
         <v>3.9</v>
@@ -3118,7 +3118,7 @@
         <v>1.21</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
         <v>6.2</v>
@@ -3127,28 +3127,28 @@
         <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="R20" t="n">
         <v>1.71</v>
       </c>
       <c r="S20" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="T20" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U20" t="n">
         <v>2.74</v>
       </c>
       <c r="V20" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W20" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="X20" t="n">
         <v>970</v>
@@ -3169,7 +3169,7 @@
         <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -3178,7 +3178,7 @@
         <v>30</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
         <v>17.5</v>
@@ -3202,7 +3202,7 @@
         <v>16.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="21">
@@ -3235,91 +3235,91 @@
         <v>5.4</v>
       </c>
       <c r="G21" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
         <v>1.54</v>
       </c>
       <c r="I21" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
         <v>5.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
         <v>1.37</v>
       </c>
       <c r="R21" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="T21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U21" t="n">
         <v>2.5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="W21" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z21" t="n">
         <v>15.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
         <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG21" t="n">
         <v>27</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
         <v>150</v>
@@ -3331,10 +3331,10 @@
         <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO21" t="n">
         <v>5.8</v>
@@ -3370,109 +3370,109 @@
         <v>2.36</v>
       </c>
       <c r="G22" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I22" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="J22" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>4.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="R22" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="T22" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.05</v>
+        <v>2.82</v>
       </c>
       <c r="V22" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W22" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y22" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI22" t="n">
         <v>29</v>
       </c>
-      <c r="Z22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM22" t="n">
         <v>48</v>
       </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>65</v>
-      </c>
       <c r="AN22" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G23" t="n">
         <v>3.15</v>
@@ -3511,13 +3511,13 @@
         <v>2.56</v>
       </c>
       <c r="I23" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
         <v>1.43</v>
@@ -3532,16 +3532,16 @@
         <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R23" t="n">
         <v>1.33</v>
       </c>
       <c r="S23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T23" t="n">
         <v>1.76</v>
@@ -3550,7 +3550,7 @@
         <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W23" t="n">
         <v>1.46</v>
@@ -3559,7 +3559,7 @@
         <v>16</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z23" t="n">
         <v>18.5</v>
@@ -3571,7 +3571,7 @@
         <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
         <v>13</v>
@@ -3589,7 +3589,7 @@
         <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ23" t="n">
         <v>55</v>
@@ -3598,10 +3598,10 @@
         <v>38</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN23" t="n">
         <v>34</v>
@@ -3628,70 +3628,70 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.35</v>
+        <v>1.7</v>
       </c>
       <c r="G24" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H24" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="I24" t="n">
-        <v>2.68</v>
+        <v>5.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.96</v>
+        <v>1.86</v>
       </c>
       <c r="K24" t="n">
-        <v>3.55</v>
+        <v>4.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>2.4</v>
+        <v>1.26</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P24" t="n">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
         <v>1.18</v>
       </c>
       <c r="S24" t="n">
-        <v>3.05</v>
+        <v>2.5</v>
       </c>
       <c r="T24" t="n">
         <v>1.05</v>
       </c>
       <c r="U24" t="n">
-        <v>1.65</v>
+        <v>1.05</v>
       </c>
       <c r="V24" t="n">
-        <v>1.66</v>
+        <v>1.22</v>
       </c>
       <c r="W24" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -3763,73 +3763,73 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.7</v>
+        <v>5.6</v>
       </c>
       <c r="G25" t="n">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="H25" t="n">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="I25" t="n">
-        <v>5.4</v>
+        <v>1.85</v>
       </c>
       <c r="J25" t="n">
-        <v>1.86</v>
+        <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>1.1</v>
+        <v>2.64</v>
       </c>
       <c r="O25" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.8</v>
+        <v>2.28</v>
       </c>
       <c r="R25" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S25" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.05</v>
+        <v>2.28</v>
       </c>
       <c r="U25" t="n">
-        <v>1.05</v>
+        <v>1.61</v>
       </c>
       <c r="V25" t="n">
-        <v>1.22</v>
+        <v>2.18</v>
       </c>
       <c r="W25" t="n">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="X25" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3898,67 +3898,67 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.94</v>
+        <v>3.35</v>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="H26" t="n">
-        <v>2.96</v>
+        <v>2.26</v>
       </c>
       <c r="I26" t="n">
-        <v>4.9</v>
+        <v>2.54</v>
       </c>
       <c r="J26" t="n">
-        <v>2.74</v>
+        <v>2.98</v>
       </c>
       <c r="K26" t="n">
-        <v>10.5</v>
+        <v>3.55</v>
       </c>
       <c r="L26" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>2.32</v>
+        <v>2.92</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S26" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.05</v>
+        <v>1.96</v>
       </c>
       <c r="U26" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>1.66</v>
       </c>
       <c r="W26" t="n">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4033,73 +4033,73 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.1</v>
+        <v>2.18</v>
       </c>
       <c r="G27" t="n">
-        <v>9.4</v>
+        <v>2.48</v>
       </c>
       <c r="H27" t="n">
-        <v>1.56</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>1.94</v>
+        <v>4.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.2</v>
+        <v>2.76</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="P27" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>2.66</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.05</v>
+        <v>1.96</v>
       </c>
       <c r="U27" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="V27" t="n">
-        <v>2.06</v>
+        <v>1.3</v>
       </c>
       <c r="W27" t="n">
-        <v>1.12</v>
+        <v>1.67</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
@@ -4108,13 +4108,13 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC27" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
@@ -4123,7 +4123,7 @@
         <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
         <v>1000</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
         <v>2.7</v>
       </c>
       <c r="I28" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="J28" t="n">
         <v>3.05</v>
@@ -4195,94 +4195,94 @@
         <v>3.25</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>2.18</v>
+        <v>2.76</v>
       </c>
       <c r="O28" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.51</v>
+        <v>2.46</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S28" t="n">
-        <v>1.51</v>
+        <v>5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="U28" t="n">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="V28" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W28" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29">
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G29" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I29" t="n">
         <v>4.2</v>
@@ -4339,7 +4339,7 @@
         <v>2.68</v>
       </c>
       <c r="O29" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P29" t="n">
         <v>1.55</v>
@@ -4363,7 +4363,7 @@
         <v>1.31</v>
       </c>
       <c r="W29" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X29" t="n">
         <v>8</v>
@@ -4387,7 +4387,7 @@
         <v>17.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF29" t="n">
         <v>12</v>
@@ -4450,16 +4450,16 @@
         <v>2.18</v>
       </c>
       <c r="G30" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="H30" t="n">
         <v>3.7</v>
       </c>
       <c r="I30" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="J30" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="K30" t="n">
         <v>3.2</v>
@@ -4474,7 +4474,7 @@
         <v>2.28</v>
       </c>
       <c r="O30" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="P30" t="n">
         <v>1.44</v>
@@ -4495,10 +4495,10 @@
         <v>1.65</v>
       </c>
       <c r="V30" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W30" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="X30" t="n">
         <v>8.6</v>
@@ -4516,7 +4516,7 @@
         <v>6.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD30" t="n">
         <v>23</v>
@@ -4525,7 +4525,7 @@
         <v>100</v>
       </c>
       <c r="AF30" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG30" t="n">
         <v>12.5</v>
@@ -4537,7 +4537,7 @@
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="n">
         <v>42</v>
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="H31" t="n">
         <v>1.38</v>
@@ -4597,7 +4597,7 @@
         <v>6.2</v>
       </c>
       <c r="K31" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.21</v>
@@ -4687,7 +4687,7 @@
         <v>60</v>
       </c>
       <c r="AO31" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="32">
@@ -4717,28 +4717,28 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G32" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H32" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="I32" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
         <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
         <v>3.1</v>
@@ -4747,82 +4747,82 @@
         <v>1.44</v>
       </c>
       <c r="P32" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="R32" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="U32" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="V32" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W32" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G33" t="n">
         <v>2.52</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
         <v>4.2</v>
@@ -4885,7 +4885,7 @@
         <v>1.38</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R33" t="n">
         <v>1.13</v>
@@ -4897,25 +4897,25 @@
         <v>2.36</v>
       </c>
       <c r="U33" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="V33" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W33" t="n">
         <v>1.66</v>
       </c>
       <c r="X33" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y33" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z33" t="n">
         <v>32</v>
       </c>
       <c r="AA33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB33" t="n">
         <v>6.8</v>
@@ -4927,7 +4927,7 @@
         <v>21</v>
       </c>
       <c r="AE33" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF33" t="n">
         <v>14</v>
@@ -4942,10 +4942,10 @@
         <v>150</v>
       </c>
       <c r="AJ33" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK33" t="n">
         <v>46</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>50</v>
       </c>
       <c r="AL33" t="n">
         <v>100</v>
@@ -4987,64 +4987,64 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G34" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="I34" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J34" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K34" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="L34" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.14</v>
+        <v>2.54</v>
       </c>
       <c r="O34" t="n">
-        <v>1.21</v>
+        <v>1.55</v>
       </c>
       <c r="P34" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="R34" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="U34" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="V34" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W34" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="X34" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
         <v>1000</v>
@@ -5053,22 +5053,22 @@
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH34" t="n">
         <v>1000</v>
@@ -5122,64 +5122,64 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="G35" t="n">
-        <v>1.96</v>
+        <v>1.68</v>
       </c>
       <c r="H35" t="n">
-        <v>1.09</v>
+        <v>7</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>2.46</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.42</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>2.56</v>
+        <v>3.25</v>
       </c>
       <c r="O35" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.47</v>
+        <v>1.78</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.68</v>
+        <v>2.04</v>
       </c>
       <c r="R35" t="n">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="S35" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T35" t="n">
         <v>2.08</v>
       </c>
-      <c r="T35" t="n">
-        <v>1.05</v>
-      </c>
       <c r="U35" t="n">
-        <v>1.05</v>
+        <v>1.74</v>
       </c>
       <c r="V35" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W35" t="n">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
@@ -5191,19 +5191,19 @@
         <v>8.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
         <v>32</v>
@@ -5212,13 +5212,13 @@
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
@@ -5257,52 +5257,52 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G36" t="n">
         <v>1.94</v>
       </c>
       <c r="H36" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="I36" t="n">
         <v>5.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O36" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P36" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="R36" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S36" t="n">
         <v>3.9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U36" t="n">
-        <v>1.05</v>
+        <v>1.88</v>
       </c>
       <c r="V36" t="n">
         <v>1.23</v>
@@ -5311,19 +5311,19 @@
         <v>2.06</v>
       </c>
       <c r="X36" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y36" t="n">
         <v>16</v>
       </c>
-      <c r="Y36" t="n">
-        <v>20</v>
-      </c>
       <c r="Z36" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC36" t="n">
         <v>8.6</v>
@@ -5335,13 +5335,13 @@
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
@@ -5353,13 +5353,13 @@
         <v>23</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -676,7 +676,7 @@
         <v>2.26</v>
       </c>
       <c r="I2" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J2" t="n">
         <v>2.92</v>
@@ -685,10 +685,10 @@
         <v>3.45</v>
       </c>
       <c r="L2" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
         <v>2.64</v>
@@ -697,7 +697,7 @@
         <v>1.48</v>
       </c>
       <c r="P2" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q2" t="n">
         <v>2.42</v>
@@ -709,10 +709,10 @@
         <v>4.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="V2" t="n">
         <v>1.64</v>
@@ -745,7 +745,7 @@
         <v>38</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G3" t="n">
         <v>8.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I3" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="J3" t="n">
         <v>3.35</v>
@@ -832,7 +832,7 @@
         <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" t="n">
         <v>2.04</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G5" t="n">
         <v>3.95</v>
       </c>
       <c r="H5" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I5" t="n">
         <v>2.8</v>
@@ -1090,7 +1090,7 @@
         <v>2.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="M5" t="n">
         <v>1.18</v>
@@ -1102,7 +1102,7 @@
         <v>1.8</v>
       </c>
       <c r="P5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q5" t="n">
         <v>3.45</v>
@@ -1114,10 +1114,10 @@
         <v>7.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V5" t="n">
         <v>1.56</v>
@@ -1126,22 +1126,22 @@
         <v>1.34</v>
       </c>
       <c r="X5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z5" t="n">
         <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>17</v>
@@ -1162,22 +1162,22 @@
         <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="n">
         <v>85</v>
       </c>
       <c r="AL5" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AM5" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="AN5" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AO5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1210,13 @@
         <v>1.68</v>
       </c>
       <c r="G6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H6" t="n">
         <v>5.7</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
@@ -1225,7 +1225,7 @@
         <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
         <v>1.09</v>
@@ -1240,13 +1240,13 @@
         <v>1.65</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R6" t="n">
         <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
         <v>2.08</v>
@@ -1258,7 +1258,7 @@
         <v>1.16</v>
       </c>
       <c r="W6" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="X6" t="n">
         <v>12.5</v>
@@ -1345,13 +1345,13 @@
         <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I7" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="J7" t="n">
         <v>3.55</v>
@@ -1360,7 +1360,7 @@
         <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
@@ -1372,7 +1372,7 @@
         <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q7" t="n">
         <v>2.28</v>
@@ -1390,7 +1390,7 @@
         <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W7" t="n">
         <v>1.23</v>
@@ -1432,7 +1432,7 @@
         <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
         <v>90</v>
@@ -1615,55 +1615,55 @@
         <v>1.42</v>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K9" t="n">
         <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
         <v>2.44</v>
       </c>
       <c r="U9" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="V9" t="n">
         <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
@@ -1678,16 +1678,16 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD9" t="n">
         <v>980</v>
       </c>
       <c r="AE9" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AF9" t="n">
         <v>8.4</v>
@@ -1696,22 +1696,22 @@
         <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="AN9" t="n">
         <v>10.5</v>
@@ -1750,28 +1750,28 @@
         <v>2.02</v>
       </c>
       <c r="G10" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="O10" t="n">
         <v>1.38</v>
@@ -1780,13 +1780,13 @@
         <v>1.76</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R10" t="n">
         <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T10" t="n">
         <v>1.89</v>
@@ -1795,10 +1795,10 @@
         <v>1.96</v>
       </c>
       <c r="V10" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
         <v>1000</v>
@@ -1918,13 +1918,13 @@
         <v>1.66</v>
       </c>
       <c r="R11" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="T11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="n">
         <v>2.3</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
@@ -1957,7 +1957,7 @@
         <v>19.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
         <v>16</v>
@@ -1966,7 +1966,7 @@
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>55</v>
@@ -1987,7 +1987,7 @@
         <v>11.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>1.45</v>
       </c>
       <c r="G12" t="n">
-        <v>990</v>
+        <v>1.56</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>6.6</v>
       </c>
       <c r="I12" t="n">
-        <v>990</v>
+        <v>12.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.02</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>950</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>1.25</v>
+        <v>2.78</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.34</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>1.34</v>
+        <v>3.45</v>
       </c>
       <c r="T12" t="n">
-        <v>1.05</v>
+        <v>2.26</v>
       </c>
       <c r="U12" t="n">
-        <v>1.05</v>
+        <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W12" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2083,10 +2083,10 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2095,7 +2095,7 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G13" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H13" t="n">
         <v>4.8</v>
@@ -2164,22 +2164,22 @@
         <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P13" t="n">
         <v>1.86</v>
@@ -2191,70 +2191,70 @@
         <v>1.33</v>
       </c>
       <c r="S13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V13" t="n">
         <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AF13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO13" t="n">
         <v>80</v>
@@ -2290,43 +2290,43 @@
         <v>2.66</v>
       </c>
       <c r="G14" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I14" t="n">
         <v>3.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>3.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R14" t="n">
         <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T14" t="n">
         <v>1.9</v>
@@ -2335,16 +2335,16 @@
         <v>1.94</v>
       </c>
       <c r="V14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X14" t="n">
         <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
         <v>23</v>
@@ -2359,10 +2359,10 @@
         <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF14" t="n">
         <v>21</v>
@@ -2374,7 +2374,7 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
         <v>55</v>
@@ -2422,13 +2422,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G15" t="n">
         <v>2.74</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="I15" t="n">
         <v>3.3</v>
@@ -2437,7 +2437,7 @@
         <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L15" t="n">
         <v>1.34</v>
@@ -2455,7 +2455,7 @@
         <v>1.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
         <v>1.33</v>
@@ -2464,7 +2464,7 @@
         <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U15" t="n">
         <v>2.1</v>
@@ -2476,7 +2476,7 @@
         <v>1.58</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
         <v>1000</v>
@@ -2503,7 +2503,7 @@
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AH15" t="n">
         <v>1000</v>
@@ -2566,10 +2566,10 @@
         <v>14</v>
       </c>
       <c r="I16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K16" t="n">
         <v>6.6</v>
@@ -2581,34 +2581,34 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="T16" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="U16" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="V16" t="n">
         <v>1.06</v>
       </c>
       <c r="W16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2626,13 +2626,13 @@
         <v>7.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD16" t="n">
         <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AF16" t="n">
         <v>7.4</v>
@@ -2644,7 +2644,7 @@
         <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ16" t="n">
         <v>9.800000000000001</v>
@@ -2656,7 +2656,7 @@
         <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AN16" t="n">
         <v>5.9</v>
@@ -2698,7 +2698,7 @@
         <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I17" t="n">
         <v>2.64</v>
@@ -2710,7 +2710,7 @@
         <v>3.05</v>
       </c>
       <c r="L17" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="M17" t="n">
         <v>1.15</v>
@@ -2734,10 +2734,10 @@
         <v>6.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="U17" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V17" t="n">
         <v>1.6</v>
@@ -2773,7 +2773,7 @@
         <v>25</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>32</v>
@@ -2791,7 +2791,7 @@
         <v>120</v>
       </c>
       <c r="AM17" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN17" t="n">
         <v>130</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>2.04</v>
@@ -2842,7 +2842,7 @@
         <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -2851,16 +2851,16 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
         <v>2.32</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
         <v>1.52</v>
@@ -2872,7 +2872,7 @@
         <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
         <v>1.35</v>
@@ -2881,7 +2881,7 @@
         <v>1.96</v>
       </c>
       <c r="X18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
         <v>18</v>
@@ -2893,10 +2893,10 @@
         <v>85</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD18" t="n">
         <v>15.5</v>
@@ -2989,7 +2989,7 @@
         <v>4.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
         <v>2.12</v>
@@ -3007,7 +3007,7 @@
         <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V19" t="n">
         <v>1.79</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G20" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H20" t="n">
         <v>2.34</v>
       </c>
       <c r="I20" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
         <v>4.6</v>
@@ -3124,31 +3124,31 @@
         <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="R20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="S20" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="T20" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="U20" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="V20" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W20" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X20" t="n">
         <v>970</v>
@@ -3238,19 +3238,19 @@
         <v>7</v>
       </c>
       <c r="H21" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I21" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="J21" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
@@ -3265,7 +3265,7 @@
         <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="R21" t="n">
         <v>1.81</v>
@@ -3280,19 +3280,19 @@
         <v>2.5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W21" t="n">
         <v>1.17</v>
       </c>
       <c r="X21" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="n">
         <v>17.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA21" t="n">
         <v>19</v>
@@ -3334,10 +3334,10 @@
         <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="22">
@@ -3370,7 +3370,7 @@
         <v>2.36</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H22" t="n">
         <v>2.72</v>
@@ -3385,7 +3385,7 @@
         <v>4.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -3418,7 +3418,7 @@
         <v>1.53</v>
       </c>
       <c r="W22" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X22" t="n">
         <v>36</v>
@@ -3460,7 +3460,7 @@
         <v>36</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL22" t="n">
         <v>27</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="G23" t="n">
         <v>3.15</v>
       </c>
       <c r="H23" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I23" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L23" t="n">
         <v>1.43</v>
@@ -3526,37 +3526,37 @@
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O23" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R23" t="n">
         <v>1.33</v>
       </c>
       <c r="S23" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T23" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U23" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="V23" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W23" t="n">
         <v>1.46</v>
       </c>
       <c r="X23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y23" t="n">
         <v>13</v>
@@ -3661,13 +3661,13 @@
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="O24" t="n">
         <v>1.43</v>
       </c>
       <c r="P24" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="Q24" t="n">
         <v>1.8</v>
@@ -3805,7 +3805,7 @@
         <v>1.54</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R25" t="n">
         <v>1.19</v>
@@ -3820,19 +3820,19 @@
         <v>1.61</v>
       </c>
       <c r="V25" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="W25" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
         <v>7</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3916,7 +3916,7 @@
         <v>2.26</v>
       </c>
       <c r="I26" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="J26" t="n">
         <v>2.98</v>
@@ -3955,7 +3955,7 @@
         <v>1.9</v>
       </c>
       <c r="V26" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W26" t="n">
         <v>1.37</v>
@@ -3964,7 +3964,7 @@
         <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z26" t="n">
         <v>1000</v>
@@ -4051,7 +4051,7 @@
         <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -4072,10 +4072,10 @@
         <v>1.45</v>
       </c>
       <c r="P27" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="R27" t="n">
         <v>1.22</v>
@@ -4090,7 +4090,7 @@
         <v>1.81</v>
       </c>
       <c r="V27" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W27" t="n">
         <v>1.67</v>
@@ -4114,13 +4114,13 @@
         <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG27" t="n">
         <v>13.5</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="G28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.2</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.25</v>
       </c>
       <c r="L28" t="n">
         <v>1.55</v>
@@ -4207,13 +4207,13 @@
         <v>1.5</v>
       </c>
       <c r="P28" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="R28" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4222,19 +4222,19 @@
         <v>2.02</v>
       </c>
       <c r="U28" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V28" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="W28" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X28" t="n">
         <v>10</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z28" t="n">
         <v>970</v>
@@ -4255,7 +4255,7 @@
         <v>40</v>
       </c>
       <c r="AF28" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AG28" t="n">
         <v>17</v>
@@ -4273,7 +4273,7 @@
         <v>55</v>
       </c>
       <c r="AL28" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="n">
         <v>190</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="G29" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
         <v>4.1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.2</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -4360,28 +4360,28 @@
         <v>1.79</v>
       </c>
       <c r="V29" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W29" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="X29" t="n">
         <v>8</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
         <v>25</v>
       </c>
       <c r="AA29" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB29" t="n">
         <v>7.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD29" t="n">
         <v>17.5</v>
@@ -4402,7 +4402,7 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK29" t="n">
         <v>32</v>
@@ -4414,10 +4414,10 @@
         <v>200</v>
       </c>
       <c r="AN29" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO29" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -4453,7 +4453,7 @@
         <v>2.38</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="I30" t="n">
         <v>4.7</v>
@@ -4465,31 +4465,31 @@
         <v>3.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="M30" t="n">
         <v>1.15</v>
       </c>
       <c r="N30" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="O30" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="P30" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="R30" t="n">
         <v>1.15</v>
       </c>
       <c r="S30" t="n">
-        <v>3.45</v>
+        <v>5.9</v>
       </c>
       <c r="T30" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U30" t="n">
         <v>1.65</v>
@@ -4504,7 +4504,7 @@
         <v>8.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4516,7 +4516,7 @@
         <v>6.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD30" t="n">
         <v>23</v>
@@ -4531,7 +4531,7 @@
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G31" t="n">
-        <v>8.4</v>
-      </c>
       <c r="H31" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I31" t="n">
         <v>1.4</v>
       </c>
       <c r="J31" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K31" t="n">
         <v>6.6</v>
@@ -4606,22 +4606,22 @@
         <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O31" t="n">
         <v>1.11</v>
       </c>
       <c r="P31" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q31" t="n">
         <v>1.36</v>
       </c>
       <c r="R31" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="S31" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="T31" t="n">
         <v>1.59</v>
@@ -4630,16 +4630,16 @@
         <v>2.6</v>
       </c>
       <c r="V31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="W31" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X31" t="n">
         <v>46</v>
       </c>
       <c r="Y31" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z31" t="n">
         <v>12.5</v>
@@ -4657,10 +4657,10 @@
         <v>10.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AG31" t="n">
         <v>32</v>
@@ -4726,7 +4726,7 @@
         <v>2.54</v>
       </c>
       <c r="I32" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J32" t="n">
         <v>3.2</v>
@@ -4735,7 +4735,7 @@
         <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
@@ -4747,7 +4747,7 @@
         <v>1.44</v>
       </c>
       <c r="P32" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q32" t="n">
         <v>2.3</v>
@@ -4768,7 +4768,7 @@
         <v>1.6</v>
       </c>
       <c r="W32" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X32" t="n">
         <v>11</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="G33" t="n">
         <v>2.52</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="L33" t="n">
         <v>1.7</v>
@@ -4900,49 +4900,49 @@
         <v>1.61</v>
       </c>
       <c r="V33" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W33" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X33" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z33" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA33" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB33" t="n">
         <v>6.8</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD33" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF33" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG33" t="n">
         <v>14</v>
       </c>
       <c r="AH33" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI33" t="n">
         <v>150</v>
       </c>
       <c r="AJ33" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK33" t="n">
         <v>46</v>
@@ -4951,13 +4951,13 @@
         <v>100</v>
       </c>
       <c r="AM33" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AN33" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO33" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34">
@@ -4990,19 +4990,19 @@
         <v>2.3</v>
       </c>
       <c r="G34" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="H34" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J34" t="n">
         <v>2.86</v>
       </c>
       <c r="K34" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L34" t="n">
         <v>1.57</v>
@@ -5020,25 +5020,25 @@
         <v>1.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R34" t="n">
         <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="T34" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U34" t="n">
         <v>1.73</v>
       </c>
       <c r="V34" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W34" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X34" t="n">
         <v>970</v>
@@ -5065,7 +5065,7 @@
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG34" t="n">
         <v>15</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G35" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H35" t="n">
         <v>7</v>
       </c>
       <c r="I35" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J35" t="n">
         <v>3.4</v>
@@ -5146,7 +5146,7 @@
         <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O35" t="n">
         <v>1.35</v>
@@ -5155,31 +5155,31 @@
         <v>1.78</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R35" t="n">
         <v>1.29</v>
       </c>
       <c r="S35" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T35" t="n">
         <v>2.08</v>
       </c>
       <c r="U35" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V35" t="n">
         <v>1.11</v>
       </c>
       <c r="W35" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="X35" t="n">
         <v>16</v>
       </c>
       <c r="Y35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="G36" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="H36" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I36" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="J36" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K36" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L36" t="n">
         <v>1.44</v>
@@ -5293,22 +5293,22 @@
         <v>2.12</v>
       </c>
       <c r="R36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S36" t="n">
         <v>3.9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U36" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="V36" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W36" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="X36" t="n">
         <v>13</v>
@@ -5317,22 +5317,22 @@
         <v>16</v>
       </c>
       <c r="Z36" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AC36" t="n">
         <v>8.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF36" t="n">
         <v>11.5</v>
@@ -5344,7 +5344,7 @@
         <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="n">
         <v>23</v>
@@ -5359,7 +5359,7 @@
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO36"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,10 +676,10 @@
         <v>2.26</v>
       </c>
       <c r="I2" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J2" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K2" t="n">
         <v>3.45</v>
@@ -697,7 +697,7 @@
         <v>1.48</v>
       </c>
       <c r="P2" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q2" t="n">
         <v>2.42</v>
@@ -721,7 +721,7 @@
         <v>1.32</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y2" t="n">
         <v>8.800000000000001</v>
@@ -736,7 +736,7 @@
         <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>14</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G3" t="n">
         <v>8.6</v>
@@ -814,37 +814,37 @@
         <v>1.73</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.39</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>3.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
         <v>1.79</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.04</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.02</v>
       </c>
       <c r="U3" t="n">
         <v>1.81</v>
@@ -1075,19 +1075,19 @@
         <v>3.5</v>
       </c>
       <c r="G5" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="H5" t="n">
         <v>2.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J5" t="n">
         <v>2.7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="L5" t="n">
         <v>1.73</v>
@@ -1120,10 +1120,10 @@
         <v>1.57</v>
       </c>
       <c r="V5" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W5" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X5" t="n">
         <v>6.4</v>
@@ -1162,10 +1162,10 @@
         <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="n">
         <v>140</v>
@@ -1207,70 +1207,70 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="H6" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="I6" t="n">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.47</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O6" t="n">
         <v>1.45</v>
       </c>
       <c r="P6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB6" t="n">
         <v>7.6</v>
@@ -1279,7 +1279,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>120</v>
@@ -1288,10 +1288,10 @@
         <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
         <v>130</v>
@@ -1300,7 +1300,7 @@
         <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL6" t="n">
         <v>60</v>
@@ -1312,7 +1312,7 @@
         <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
@@ -1348,10 +1348,10 @@
         <v>5.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I7" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J7" t="n">
         <v>3.55</v>
@@ -1360,7 +1360,7 @@
         <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
@@ -1423,22 +1423,22 @@
         <v>38</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
         <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK7" t="n">
         <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
         <v>180</v>
@@ -1486,7 +1486,7 @@
         <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
@@ -1495,10 +1495,10 @@
         <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
         <v>2.68</v>
@@ -1510,7 +1510,7 @@
         <v>1.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R8" t="n">
         <v>1.2</v>
@@ -1543,7 +1543,7 @@
         <v>130</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="I9" t="n">
         <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.45</v>
@@ -1636,10 +1636,10 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
         <v>1.73</v>
@@ -1654,16 +1654,16 @@
         <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="V9" t="n">
         <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
@@ -1672,7 +1672,7 @@
         <v>980</v>
       </c>
       <c r="Z9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1684,10 +1684,10 @@
         <v>12.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AE9" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AF9" t="n">
         <v>8.4</v>
@@ -1696,10 +1696,10 @@
         <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI9" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AJ9" t="n">
         <v>14</v>
@@ -1711,7 +1711,7 @@
         <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AN9" t="n">
         <v>10.5</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J10" t="n">
         <v>3.15</v>
@@ -1765,7 +1765,7 @@
         <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1774,7 +1774,7 @@
         <v>3.15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
         <v>1.76</v>
@@ -1798,13 +1798,13 @@
         <v>1.27</v>
       </c>
       <c r="W10" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="G11" t="n">
         <v>2.08</v>
@@ -1891,13 +1891,13 @@
         <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.28</v>
@@ -1909,7 +1909,7 @@
         <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
         <v>2.42</v>
@@ -1924,19 +1924,19 @@
         <v>2.62</v>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
         <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W11" t="n">
         <v>1.92</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="n">
         <v>22</v>
@@ -1954,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
         <v>50</v>
@@ -1966,7 +1966,7 @@
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
         <v>55</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="G12" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
@@ -2041,7 +2041,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.38</v>
@@ -2050,13 +2050,13 @@
         <v>1.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T12" t="n">
         <v>2.26</v>
@@ -2065,10 +2065,10 @@
         <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W12" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>7.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2152,109 +2152,109 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="U13" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB13" t="n">
         <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AE13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>80</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
         <v>80</v>
@@ -2290,13 +2290,13 @@
         <v>2.66</v>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="H14" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
@@ -2332,13 +2332,13 @@
         <v>1.9</v>
       </c>
       <c r="U14" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X14" t="n">
         <v>12.5</v>
@@ -2365,10 +2365,10 @@
         <v>48</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
@@ -2380,7 +2380,7 @@
         <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="n">
         <v>65</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G15" t="n">
         <v>2.74</v>
       </c>
       <c r="H15" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
         <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.34</v>
@@ -2449,7 +2449,7 @@
         <v>3.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
         <v>1.86</v>
@@ -2470,7 +2470,7 @@
         <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W15" t="n">
         <v>1.58</v>
@@ -2560,7 +2560,7 @@
         <v>1.27</v>
       </c>
       <c r="G16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
         <v>14</v>
@@ -2584,10 +2584,10 @@
         <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
         <v>1.75</v>
@@ -2602,13 +2602,13 @@
         <v>2.28</v>
       </c>
       <c r="U16" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V16" t="n">
         <v>1.06</v>
       </c>
       <c r="W16" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2626,7 +2626,7 @@
         <v>7.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AD16" t="n">
         <v>970</v>
@@ -2650,7 +2650,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>55</v>
@@ -2692,40 +2692,40 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I17" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="J17" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="K17" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="L17" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="M17" t="n">
         <v>1.15</v>
       </c>
       <c r="N17" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O17" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
         <v>1.43</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="R17" t="n">
         <v>1.14</v>
@@ -2734,49 +2734,49 @@
         <v>6.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U17" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="W17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X17" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA17" t="n">
         <v>48</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
         <v>48</v>
       </c>
       <c r="AF17" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
         <v>85</v>
@@ -2791,7 +2791,7 @@
         <v>120</v>
       </c>
       <c r="AM17" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN17" t="n">
         <v>130</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="G18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
         <v>3.85</v>
@@ -2857,7 +2857,7 @@
         <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q18" t="n">
         <v>1.67</v>
@@ -2869,16 +2869,16 @@
         <v>2.72</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V18" t="n">
         <v>1.35</v>
       </c>
       <c r="W18" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X18" t="n">
         <v>22</v>
@@ -2887,7 +2887,7 @@
         <v>18</v>
       </c>
       <c r="Z18" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
         <v>85</v>
@@ -2920,7 +2920,7 @@
         <v>24</v>
       </c>
       <c r="AK18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
         <v>30</v>
@@ -2965,16 +2965,16 @@
         <v>3.45</v>
       </c>
       <c r="G19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
         <v>2.12</v>
       </c>
       <c r="I19" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>4.1</v>
@@ -2989,7 +2989,7 @@
         <v>4.2</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
         <v>2.12</v>
@@ -2998,7 +2998,7 @@
         <v>1.77</v>
       </c>
       <c r="R19" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S19" t="n">
         <v>2.94</v>
@@ -3007,13 +3007,13 @@
         <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="V19" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
         <v>21</v>
@@ -3022,7 +3022,7 @@
         <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
         <v>980</v>
@@ -3034,7 +3034,7 @@
         <v>10</v>
       </c>
       <c r="AD19" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" t="n">
         <v>980</v>
@@ -3052,7 +3052,7 @@
         <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK19" t="n">
         <v>980</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="G20" t="n">
         <v>2.94</v>
       </c>
       <c r="H20" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I20" t="n">
         <v>2.6</v>
@@ -3112,7 +3112,7 @@
         <v>3.95</v>
       </c>
       <c r="K20" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
         <v>1.21</v>
@@ -3130,13 +3130,13 @@
         <v>2.76</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R20" t="n">
         <v>1.72</v>
       </c>
       <c r="S20" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="T20" t="n">
         <v>1.52</v>
@@ -3151,19 +3151,19 @@
         <v>1.52</v>
       </c>
       <c r="X20" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
         <v>42</v>
       </c>
       <c r="AB20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
         <v>13</v>
@@ -3175,10 +3175,10 @@
         <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH20" t="n">
         <v>17.5</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="H21" t="n">
         <v>1.55</v>
       </c>
       <c r="I21" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="J21" t="n">
         <v>4.8</v>
@@ -3256,7 +3256,7 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O21" t="n">
         <v>1.14</v>
@@ -3265,10 +3265,10 @@
         <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R21" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S21" t="n">
         <v>2.06</v>
@@ -3277,13 +3277,13 @@
         <v>1.62</v>
       </c>
       <c r="U21" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V21" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="W21" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X21" t="n">
         <v>40</v>
@@ -3334,7 +3334,7 @@
         <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AO21" t="n">
         <v>5.9</v>
@@ -3370,22 +3370,22 @@
         <v>2.36</v>
       </c>
       <c r="G22" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
         <v>2.72</v>
       </c>
       <c r="I22" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K22" t="n">
         <v>4.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -3397,16 +3397,16 @@
         <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Q22" t="n">
         <v>1.46</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S22" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="T22" t="n">
         <v>1.5</v>
@@ -3415,7 +3415,7 @@
         <v>2.82</v>
       </c>
       <c r="V22" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W22" t="n">
         <v>1.67</v>
@@ -3427,7 +3427,7 @@
         <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA22" t="n">
         <v>42</v>
@@ -3445,7 +3445,7 @@
         <v>26</v>
       </c>
       <c r="AF22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3460,7 +3460,7 @@
         <v>36</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL22" t="n">
         <v>27</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="G23" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="J23" t="n">
         <v>3.3</v>
@@ -3523,61 +3523,61 @@
         <v>1.43</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
         <v>1.33</v>
       </c>
       <c r="S23" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="U23" t="n">
         <v>2.14</v>
       </c>
       <c r="V23" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="W23" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AA23" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="n">
         <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD23" t="n">
         <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AF23" t="n">
         <v>22</v>
@@ -3592,10 +3592,10 @@
         <v>44</v>
       </c>
       <c r="AJ23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="n">
         <v>60</v>
@@ -3604,10 +3604,10 @@
         <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -3637,64 +3637,64 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.7</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I24" t="n">
         <v>3.6</v>
       </c>
-      <c r="H24" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.4</v>
-      </c>
       <c r="J24" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.86</v>
       </c>
-      <c r="K24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.05</v>
-      </c>
       <c r="V24" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="W24" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="X24" t="n">
         <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
@@ -3703,10 +3703,10 @@
         <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3820,7 +3820,7 @@
         <v>1.61</v>
       </c>
       <c r="V25" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="W25" t="n">
         <v>1.13</v>
@@ -3898,73 +3898,73 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>5.9</v>
       </c>
       <c r="H26" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="I26" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="J26" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="K26" t="n">
-        <v>3.55</v>
+        <v>5.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N26" t="n">
         <v>1.1</v>
       </c>
-      <c r="N26" t="n">
-        <v>2.92</v>
-      </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>1.66</v>
+        <v>1.43</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="R26" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>4.4</v>
+        <v>2.72</v>
       </c>
       <c r="T26" t="n">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
       <c r="U26" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="V26" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W26" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
         <v>1000</v>
@@ -4033,73 +4033,73 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.18</v>
+        <v>3.35</v>
       </c>
       <c r="G27" t="n">
-        <v>2.48</v>
+        <v>3.75</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>2.28</v>
       </c>
       <c r="I27" t="n">
-        <v>4.3</v>
+        <v>2.44</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="O27" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="R27" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U27" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="V27" t="n">
-        <v>1.32</v>
+        <v>1.69</v>
       </c>
       <c r="W27" t="n">
-        <v>1.67</v>
+        <v>1.37</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="Z27" t="n">
         <v>1000</v>
@@ -4108,22 +4108,22 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.05</v>
+        <v>2.18</v>
       </c>
       <c r="G28" t="n">
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="H28" t="n">
-        <v>2.62</v>
+        <v>3.55</v>
       </c>
       <c r="I28" t="n">
-        <v>2.78</v>
+        <v>4.3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
         <v>2.76</v>
       </c>
       <c r="O28" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="P28" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.44</v>
+        <v>2.56</v>
       </c>
       <c r="R28" t="n">
         <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U28" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V28" t="n">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="W28" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="X28" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH28" t="n">
         <v>25</v>
       </c>
-      <c r="AG28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>970</v>
-      </c>
       <c r="AI28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.36</v>
+        <v>3.1</v>
       </c>
       <c r="G29" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>2.66</v>
       </c>
       <c r="I29" t="n">
-        <v>4.1</v>
+        <v>2.76</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K29" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="M29" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="O29" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P29" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.78</v>
+        <v>2.46</v>
       </c>
       <c r="R29" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="T29" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="U29" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="V29" t="n">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="W29" t="n">
-        <v>1.72</v>
+        <v>1.45</v>
       </c>
       <c r="X29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="Z29" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AA29" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="AC29" t="n">
-        <v>6.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AE29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI29" t="n">
         <v>65</v>
       </c>
-      <c r="AF29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>95</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AL29" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM29" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN29" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AO29" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T30" t="n">
         <v>2.18</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.28</v>
-      </c>
       <c r="U30" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="W30" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="X30" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB30" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AF30" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ30" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK30" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AL30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO30" t="n">
         <v>90</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>2.18</v>
       </c>
       <c r="G31" t="n">
-        <v>8.199999999999999</v>
+        <v>2.36</v>
       </c>
       <c r="H31" t="n">
-        <v>1.39</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="J31" t="n">
-        <v>6.4</v>
+        <v>2.86</v>
       </c>
       <c r="K31" t="n">
-        <v>6.6</v>
+        <v>3.15</v>
       </c>
       <c r="L31" t="n">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>9.199999999999999</v>
+        <v>2.32</v>
       </c>
       <c r="O31" t="n">
-        <v>1.11</v>
+        <v>1.63</v>
       </c>
       <c r="P31" t="n">
-        <v>3.65</v>
+        <v>1.45</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.36</v>
+        <v>2.92</v>
       </c>
       <c r="R31" t="n">
-        <v>2.08</v>
+        <v>1.15</v>
       </c>
       <c r="S31" t="n">
-        <v>1.89</v>
+        <v>5.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.59</v>
+        <v>2.28</v>
       </c>
       <c r="U31" t="n">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="V31" t="n">
-        <v>3.55</v>
+        <v>1.27</v>
       </c>
       <c r="W31" t="n">
-        <v>1.14</v>
+        <v>1.73</v>
       </c>
       <c r="X31" t="n">
-        <v>46</v>
+        <v>8.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="AA31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF31" t="n">
         <v>14.5</v>
       </c>
-      <c r="AB31" t="n">
-        <v>48</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>85</v>
-      </c>
       <c r="AG31" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AI31" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>290</v>
+        <v>38</v>
       </c>
       <c r="AK31" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AL31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AO31" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.15</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>3.3</v>
+        <v>8.4</v>
       </c>
       <c r="H32" t="n">
-        <v>2.54</v>
+        <v>1.39</v>
       </c>
       <c r="I32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U32" t="n">
         <v>2.64</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V32" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="W32" t="n">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="X32" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>48</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD32" t="n">
         <v>11</v>
       </c>
-      <c r="Y32" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD32" t="n">
+      <c r="AE32" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE32" t="n">
-        <v>34</v>
-      </c>
       <c r="AF32" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="AG32" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="AH32" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AI32" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AJ32" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="AK32" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AL32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN32" t="n">
         <v>60</v>
       </c>
-      <c r="AM32" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>46</v>
-      </c>
       <c r="AO32" t="n">
-        <v>38</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.44</v>
+        <v>3.15</v>
       </c>
       <c r="G33" t="n">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>2.54</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>2.64</v>
       </c>
       <c r="J33" t="n">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="L33" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="M33" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.22</v>
+        <v>2.98</v>
       </c>
       <c r="O33" t="n">
-        <v>1.71</v>
+        <v>1.47</v>
       </c>
       <c r="P33" t="n">
-        <v>1.38</v>
+        <v>1.68</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="R33" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="S33" t="n">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="T33" t="n">
-        <v>2.36</v>
+        <v>1.97</v>
       </c>
       <c r="U33" t="n">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="V33" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="W33" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="X33" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>28</v>
+        <v>19.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AB33" t="n">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD33" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM33" t="n">
         <v>150</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>330</v>
-      </c>
       <c r="AN33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO33" t="n">
-        <v>150</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Albion FC</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="G34" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="H34" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J34" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K34" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="L34" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="N34" t="n">
-        <v>2.54</v>
+        <v>2.22</v>
       </c>
       <c r="O34" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="P34" t="n">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="S34" t="n">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.08</v>
+        <v>2.48</v>
       </c>
       <c r="U34" t="n">
-        <v>1.73</v>
+        <v>1.61</v>
       </c>
       <c r="V34" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W34" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="X34" t="n">
-        <v>970</v>
+        <v>6.8</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB34" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD34" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,78 +5108,78 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Albion FC</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.54</v>
+        <v>2.3</v>
       </c>
       <c r="G35" t="n">
-        <v>1.66</v>
+        <v>2.62</v>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>3.55</v>
       </c>
       <c r="I35" t="n">
-        <v>9.6</v>
+        <v>4.4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>2.86</v>
       </c>
       <c r="K35" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="M35" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>3.3</v>
+        <v>2.54</v>
       </c>
       <c r="O35" t="n">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="P35" t="n">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.02</v>
+        <v>2.58</v>
       </c>
       <c r="R35" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="T35" t="n">
         <v>2.08</v>
       </c>
       <c r="U35" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="V35" t="n">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="W35" t="n">
-        <v>2.52</v>
+        <v>1.62</v>
       </c>
       <c r="X35" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y35" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
@@ -5188,43 +5188,43 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC35" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,120 +5248,255 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Juventud De Las Piedras</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+      <c r="I36" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P36" t="n">
         <v>1.78</v>
       </c>
-      <c r="G36" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H36" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U36" t="n">
         <v>1.75</v>
       </c>
-      <c r="Q36" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.86</v>
-      </c>
       <c r="V36" t="n">
-        <v>1.21</v>
+        <v>1.11</v>
       </c>
       <c r="W36" t="n">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
       <c r="X36" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y36" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Z36" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AE36" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AI36" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AK36" t="n">
         <v>23</v>
       </c>
       <c r="AL36" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Juventud De Las Piedras</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="X37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
         <v>16.5</v>
       </c>
-      <c r="AO36" t="n">
+      <c r="AO37" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>2.26</v>
       </c>
       <c r="I2" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J2" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>3.45</v>
       </c>
       <c r="L2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="O2" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P2" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U2" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD2" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>14</v>
-      </c>
       <c r="AE2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AL2" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -802,37 +802,37 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="G3" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="I3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="Q3" t="n">
         <v>2.06</v>
@@ -841,16 +841,16 @@
         <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V3" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="W3" t="n">
         <v>1.14</v>
@@ -859,22 +859,22 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G5" t="n">
         <v>3.85</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="I5" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="K5" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="L5" t="n">
         <v>1.73</v>
@@ -1099,13 +1099,13 @@
         <v>2.12</v>
       </c>
       <c r="O5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P5" t="n">
         <v>1.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
@@ -1114,10 +1114,10 @@
         <v>7.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V5" t="n">
         <v>1.55</v>
@@ -1132,52 +1132,52 @@
         <v>6.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
         <v>17</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>450</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AJ5" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AK5" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="AL5" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AM5" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="AN5" t="n">
-        <v>140</v>
+        <v>500</v>
       </c>
       <c r="AO5" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
@@ -1210,22 +1210,22 @@
         <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I6" t="n">
         <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
         <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1261,37 +1261,37 @@
         <v>2.12</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Z6" t="n">
         <v>46</v>
       </c>
       <c r="AA6" t="n">
-        <v>210</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
         <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
         <v>130</v>
@@ -1303,10 +1303,10 @@
         <v>24</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
         <v>17</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="I7" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>1.48</v>
@@ -1366,19 +1366,19 @@
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="Q7" t="n">
         <v>2.28</v>
       </c>
       <c r="R7" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
         <v>4.5</v>
@@ -1387,10 +1387,10 @@
         <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="W7" t="n">
         <v>1.23</v>
@@ -1414,7 +1414,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
         <v>24</v>
@@ -1441,13 +1441,13 @@
         <v>100</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
         <v>130</v>
       </c>
       <c r="AO7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -1492,10 +1492,10 @@
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L8" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
         <v>1.12</v>
@@ -1525,7 +1525,7 @@
         <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
         <v>1.78</v>
@@ -1537,7 +1537,7 @@
         <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AA8" t="n">
         <v>130</v>
@@ -1552,31 +1552,31 @@
         <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>80</v>
+        <v>480</v>
       </c>
       <c r="AF8" t="n">
         <v>13.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="AJ8" t="n">
         <v>980</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AM8" t="n">
-        <v>210</v>
+        <v>580</v>
       </c>
       <c r="AN8" t="n">
         <v>980</v>
@@ -1612,43 +1612,43 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G9" t="n">
         <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
         <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S9" t="n">
         <v>4.1</v>
@@ -1657,19 +1657,19 @@
         <v>2.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="V9" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="Z9" t="n">
         <v>120</v>
@@ -1681,40 +1681,40 @@
         <v>6.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>50</v>
+        <v>240</v>
       </c>
       <c r="AE9" t="n">
         <v>310</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="AI9" t="n">
         <v>270</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="AM9" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,7 +1750,7 @@
         <v>2.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H10" t="n">
         <v>3.95</v>
@@ -1765,7 +1765,7 @@
         <v>3.65</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1801,7 +1801,7 @@
         <v>1.83</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y10" t="n">
         <v>15</v>
@@ -1816,7 +1816,7 @@
         <v>9.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1828,7 +1828,7 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
@@ -1840,7 +1840,7 @@
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
@@ -1930,64 +1930,64 @@
         <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W11" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X11" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>24</v>
       </c>
-      <c r="Y11" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AK11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO11" t="n">
         <v>38</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G12" t="n">
         <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I12" t="n">
         <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L12" t="n">
         <v>1.37</v>
@@ -2065,16 +2065,16 @@
         <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W12" t="n">
         <v>2.66</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2098,19 +2098,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
         <v>1000</v>
@@ -2119,7 +2119,7 @@
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2155,61 +2155,61 @@
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
         <v>4.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U13" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="V13" t="n">
         <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="X13" t="n">
         <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
         <v>32</v>
@@ -2218,13 +2218,13 @@
         <v>110</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC13" t="n">
         <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
         <v>65</v>
@@ -2233,31 +2233,31 @@
         <v>11.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
         <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="G14" t="n">
         <v>2.86</v>
@@ -2311,10 +2311,10 @@
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
         <v>1.68</v>
@@ -2329,7 +2329,7 @@
         <v>4.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
         <v>1.95</v>
@@ -2380,13 +2380,13 @@
         <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AL14" t="n">
         <v>65</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>44</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L15" t="n">
         <v>1.34</v>
@@ -2455,7 +2455,7 @@
         <v>1.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R15" t="n">
         <v>1.33</v>
@@ -2464,22 +2464,22 @@
         <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
         <v>1.46</v>
       </c>
       <c r="W15" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
@@ -2488,7 +2488,7 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC15" t="n">
         <v>9.6</v>
@@ -2500,19 +2500,19 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG15" t="n">
         <v>14.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
@@ -2557,109 +2557,109 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="H16" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="I16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J16" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="K16" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S16" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="T16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W16" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
         <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC16" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="AF16" t="n">
         <v>7.4</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="n">
         <v>280</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AM16" t="n">
         <v>310</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2695,22 +2695,22 @@
         <v>3.55</v>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I17" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J17" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K17" t="n">
         <v>2.96</v>
       </c>
       <c r="L17" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M17" t="n">
         <v>1.15</v>
@@ -2725,7 +2725,7 @@
         <v>1.43</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R17" t="n">
         <v>1.14</v>
@@ -2734,16 +2734,16 @@
         <v>6.6</v>
       </c>
       <c r="T17" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="U17" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="V17" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W17" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X17" t="n">
         <v>7.4</v>
@@ -2758,7 +2758,7 @@
         <v>48</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC17" t="n">
         <v>7.2</v>
@@ -2776,19 +2776,19 @@
         <v>16.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AI17" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AJ17" t="n">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="AK17" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AM17" t="n">
         <v>280</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G18" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="n">
         <v>4.3</v>
@@ -2851,49 +2851,49 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="R18" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="S18" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U18" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="V18" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
         <v>9.4</v>
@@ -2902,37 +2902,37 @@
         <v>15.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AF18" t="n">
         <v>14.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AM18" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2965,10 +2965,10 @@
         <v>3.45</v>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H19" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="I19" t="n">
         <v>2.24</v>
@@ -2995,7 +2995,7 @@
         <v>2.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R19" t="n">
         <v>1.43</v>
@@ -3004,10 +3004,10 @@
         <v>2.94</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U19" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
         <v>1.81</v>
@@ -3019,55 +3019,55 @@
         <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AA19" t="n">
         <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AF19" t="n">
         <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI19" t="n">
         <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>65</v>
+        <v>440</v>
       </c>
       <c r="AK19" t="n">
         <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
         <v>980</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="G20" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.21</v>
@@ -3121,22 +3121,22 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R20" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="T20" t="n">
         <v>1.52</v>
@@ -3148,7 +3148,7 @@
         <v>1.63</v>
       </c>
       <c r="W20" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X20" t="n">
         <v>36</v>
@@ -3160,19 +3160,19 @@
         <v>26</v>
       </c>
       <c r="AA20" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB20" t="n">
         <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
         <v>15.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF20" t="n">
         <v>29</v>
@@ -3181,28 +3181,28 @@
         <v>16</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AJ20" t="n">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="AK20" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AL20" t="n">
         <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AO20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -3235,13 +3235,13 @@
         <v>5.5</v>
       </c>
       <c r="G21" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H21" t="n">
         <v>1.55</v>
       </c>
       <c r="I21" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="J21" t="n">
         <v>4.8</v>
@@ -3265,7 +3265,7 @@
         <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R21" t="n">
         <v>1.82</v>
@@ -3280,7 +3280,7 @@
         <v>2.52</v>
       </c>
       <c r="V21" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="W21" t="n">
         <v>1.19</v>
@@ -3301,7 +3301,7 @@
         <v>38</v>
       </c>
       <c r="AC21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AD21" t="n">
         <v>13</v>
@@ -3325,13 +3325,13 @@
         <v>150</v>
       </c>
       <c r="AK21" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AL21" t="n">
         <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN21" t="n">
         <v>50</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="I22" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="J22" t="n">
         <v>4.1</v>
@@ -3397,10 +3397,10 @@
         <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R22" t="n">
         <v>1.74</v>
@@ -3412,25 +3412,25 @@
         <v>1.5</v>
       </c>
       <c r="U22" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="V22" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W22" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X22" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="n">
         <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AA22" t="n">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="AB22" t="n">
         <v>22</v>
@@ -3442,10 +3442,10 @@
         <v>14</v>
       </c>
       <c r="AE22" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="AF22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3454,25 +3454,25 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AM22" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="n">
         <v>11.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G23" t="n">
         <v>3.3</v>
@@ -3514,40 +3514,40 @@
         <v>2.56</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
         <v>3.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="n">
         <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R23" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S23" t="n">
         <v>3.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U23" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
         <v>1.64</v>
@@ -3556,10 +3556,10 @@
         <v>1.43</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z23" t="n">
         <v>17</v>
@@ -3574,10 +3574,10 @@
         <v>7.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AF23" t="n">
         <v>22</v>
@@ -3598,13 +3598,13 @@
         <v>40</v>
       </c>
       <c r="AL23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO23" t="n">
         <v>25</v>
@@ -3637,58 +3637,58 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="G24" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="H24" t="n">
         <v>3.15</v>
       </c>
       <c r="I24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
         <v>2.94</v>
       </c>
       <c r="K24" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>2.76</v>
+        <v>2.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="P24" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="R24" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S24" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="U24" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V24" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="X24" t="n">
         <v>17</v>
@@ -3706,19 +3706,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
@@ -3775,10 +3775,10 @@
         <v>5.6</v>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="I25" t="n">
         <v>1.85</v>
@@ -3787,13 +3787,13 @@
         <v>3.05</v>
       </c>
       <c r="K25" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
         <v>1.46</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
         <v>2.64</v>
@@ -3814,16 +3814,16 @@
         <v>4.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U25" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="V25" t="n">
         <v>2.18</v>
       </c>
       <c r="W25" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="X25" t="n">
         <v>11</v>
@@ -3835,19 +3835,19 @@
         <v>10.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF25" t="n">
         <v>1000</v>
@@ -3856,7 +3856,7 @@
         <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3877,7 +3877,7 @@
         <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -3910,19 +3910,19 @@
         <v>3.55</v>
       </c>
       <c r="G26" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="I26" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J26" t="n">
         <v>2.88</v>
       </c>
       <c r="K26" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3940,22 +3940,22 @@
         <v>1.43</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.02</v>
+        <v>1.75</v>
       </c>
       <c r="R26" t="n">
         <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T26" t="n">
         <v>1.05</v>
       </c>
       <c r="U26" t="n">
-        <v>1.05</v>
+        <v>1.65</v>
       </c>
       <c r="V26" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W26" t="n">
         <v>1.2</v>
@@ -3976,7 +3976,7 @@
         <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AD26" t="n">
         <v>1000</v>
@@ -4042,79 +4042,79 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G27" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H27" t="n">
         <v>2.28</v>
       </c>
       <c r="I27" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R27" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.94</v>
       </c>
-      <c r="U27" t="n">
-        <v>1.9</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W27" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="n">
         <v>9.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB27" t="n">
         <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
@@ -4195,10 +4195,10 @@
         <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
         <v>2.76</v>
@@ -4222,7 +4222,7 @@
         <v>1.97</v>
       </c>
       <c r="U28" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V28" t="n">
         <v>1.32</v>
@@ -4231,10 +4231,10 @@
         <v>1.67</v>
       </c>
       <c r="X28" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
@@ -4243,31 +4243,31 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC28" t="n">
         <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AH28" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK28" t="n">
         <v>1000</v>
@@ -4315,28 +4315,28 @@
         <v>3.1</v>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
         <v>2.66</v>
       </c>
       <c r="I29" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
         <v>3.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
         <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O29" t="n">
         <v>1.5</v>
@@ -4357,46 +4357,46 @@
         <v>2.02</v>
       </c>
       <c r="U29" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V29" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W29" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X29" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AA29" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AB29" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
         <v>65</v>
@@ -4405,19 +4405,19 @@
         <v>60</v>
       </c>
       <c r="AK29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL29" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AM29" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN29" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO29" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
@@ -4459,58 +4459,58 @@
         <v>3.9</v>
       </c>
       <c r="J30" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K30" t="n">
         <v>3</v>
       </c>
-      <c r="K30" t="n">
-        <v>3.05</v>
-      </c>
       <c r="L30" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M30" t="n">
         <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="O30" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P30" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="R30" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="T30" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V30" t="n">
         <v>1.34</v>
       </c>
       <c r="W30" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X30" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA30" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB30" t="n">
         <v>7.4</v>
@@ -4519,16 +4519,16 @@
         <v>6.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF30" t="n">
         <v>13</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
@@ -4543,13 +4543,13 @@
         <v>34</v>
       </c>
       <c r="AL30" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM30" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN30" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO30" t="n">
         <v>90</v>
@@ -4636,7 +4636,7 @@
         <v>1.73</v>
       </c>
       <c r="X31" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="Y31" t="n">
         <v>11</v>
@@ -4645,7 +4645,7 @@
         <v>30</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB31" t="n">
         <v>7.4</v>
@@ -4657,7 +4657,7 @@
         <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
         <v>14.5</v>
@@ -4723,16 +4723,16 @@
         <v>8.4</v>
       </c>
       <c r="H32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I32" t="n">
         <v>1.39</v>
       </c>
-      <c r="I32" t="n">
-        <v>1.4</v>
-      </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K32" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="L32" t="n">
         <v>1.21</v>
@@ -4741,73 +4741,73 @@
         <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P32" t="n">
         <v>3.65</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R32" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="S32" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T32" t="n">
         <v>1.59</v>
       </c>
       <c r="U32" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="V32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="W32" t="n">
         <v>1.13</v>
       </c>
       <c r="X32" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Y32" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB32" t="n">
         <v>48</v>
       </c>
       <c r="AC32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE32" t="n">
         <v>12.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG32" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH32" t="n">
         <v>20</v>
       </c>
       <c r="AI32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ32" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="AK32" t="n">
         <v>85</v>
@@ -4816,13 +4816,13 @@
         <v>65</v>
       </c>
       <c r="AM32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN32" t="n">
         <v>70</v>
       </c>
-      <c r="AN32" t="n">
-        <v>60</v>
-      </c>
       <c r="AO32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="33">
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G33" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J33" t="n">
         <v>3.25</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.3</v>
       </c>
       <c r="K33" t="n">
         <v>3.35</v>
@@ -4876,10 +4876,10 @@
         <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="P33" t="n">
         <v>1.68</v>
@@ -4891,43 +4891,43 @@
         <v>1.25</v>
       </c>
       <c r="S33" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T33" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U33" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V33" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W33" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y33" t="n">
         <v>10.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AA33" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB33" t="n">
         <v>10.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD33" t="n">
         <v>12.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AF33" t="n">
         <v>21</v>
@@ -4942,19 +4942,19 @@
         <v>55</v>
       </c>
       <c r="AJ33" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK33" t="n">
         <v>55</v>
       </c>
       <c r="AL33" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM33" t="n">
-        <v>150</v>
+        <v>500</v>
       </c>
       <c r="AN33" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO33" t="n">
         <v>38</v>
@@ -4999,19 +4999,19 @@
         <v>4.1</v>
       </c>
       <c r="J34" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K34" t="n">
         <v>2.88</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.92</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N34" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="O34" t="n">
         <v>1.74</v>
@@ -5029,22 +5029,22 @@
         <v>7.4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U34" t="n">
         <v>1.61</v>
       </c>
       <c r="V34" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W34" t="n">
         <v>1.65</v>
       </c>
       <c r="X34" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z34" t="n">
         <v>25</v>
@@ -5056,16 +5056,16 @@
         <v>6.6</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD34" t="n">
         <v>19.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF34" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG34" t="n">
         <v>14</v>
@@ -5080,10 +5080,10 @@
         <v>40</v>
       </c>
       <c r="AK34" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AL34" t="n">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="AM34" t="n">
         <v>320</v>
@@ -5125,16 +5125,16 @@
         <v>2.3</v>
       </c>
       <c r="G35" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="H35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
         <v>4.4</v>
       </c>
       <c r="J35" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="K35" t="n">
         <v>3.25</v>
@@ -5164,7 +5164,7 @@
         <v>4.8</v>
       </c>
       <c r="T35" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U35" t="n">
         <v>1.73</v>
@@ -5173,16 +5173,16 @@
         <v>1.31</v>
       </c>
       <c r="W35" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X35" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
@@ -5191,7 +5191,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD35" t="n">
         <v>20</v>
@@ -5200,22 +5200,22 @@
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG35" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL35" t="n">
         <v>1000</v>
@@ -5260,7 +5260,7 @@
         <v>1.54</v>
       </c>
       <c r="G36" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="H36" t="n">
         <v>7</v>
@@ -5308,7 +5308,7 @@
         <v>1.11</v>
       </c>
       <c r="W36" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="X36" t="n">
         <v>16</v>
@@ -5401,7 +5401,7 @@
         <v>5.1</v>
       </c>
       <c r="I37" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J37" t="n">
         <v>3.55</v>
@@ -5422,7 +5422,7 @@
         <v>1.38</v>
       </c>
       <c r="P37" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q37" t="n">
         <v>2.12</v>
@@ -5431,7 +5431,7 @@
         <v>1.28</v>
       </c>
       <c r="S37" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T37" t="n">
         <v>1.95</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -667,64 +667,64 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I2" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O2" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P2" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T2" t="n">
         <v>1.95</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V2" t="n">
         <v>1.63</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X2" t="n">
         <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z2" t="n">
         <v>15</v>
@@ -748,7 +748,7 @@
         <v>26</v>
       </c>
       <c r="AG2" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH2" t="n">
         <v>22</v>
@@ -757,7 +757,7 @@
         <v>60</v>
       </c>
       <c r="AJ2" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="AK2" t="n">
         <v>150</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO2" t="n">
         <v>34</v>
@@ -805,22 +805,22 @@
         <v>6.2</v>
       </c>
       <c r="G3" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H3" t="n">
         <v>1.56</v>
       </c>
       <c r="I3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -829,28 +829,28 @@
         <v>3.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="T3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="W3" t="n">
         <v>1.14</v>
@@ -859,7 +859,7 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
         <v>40</v>
@@ -871,10 +871,10 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H5" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I5" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J5" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="K5" t="n">
         <v>2.94</v>
       </c>
       <c r="L5" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="M5" t="n">
         <v>1.18</v>
       </c>
       <c r="N5" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="O5" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="P5" t="n">
         <v>1.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="U5" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="V5" t="n">
         <v>1.55</v>
       </c>
       <c r="W5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X5" t="n">
         <v>6.4</v>
@@ -1135,28 +1135,28 @@
         <v>16</v>
       </c>
       <c r="AA5" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC5" t="n">
         <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AE5" t="n">
         <v>450</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>500</v>
@@ -1210,7 +1210,7 @@
         <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
         <v>5.6</v>
@@ -1219,19 +1219,19 @@
         <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
         <v>1.45</v>
@@ -1258,7 +1258,7 @@
         <v>1.19</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1267,7 +1267,7 @@
         <v>16</v>
       </c>
       <c r="Z6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
@@ -1279,7 +1279,7 @@
         <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>290</v>
@@ -1309,10 +1309,10 @@
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
@@ -1345,10 +1345,10 @@
         <v>4.9</v>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I7" t="n">
         <v>1.89</v>
@@ -1357,22 +1357,22 @@
         <v>3.6</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q7" t="n">
         <v>2.28</v>
@@ -1402,22 +1402,22 @@
         <v>7</v>
       </c>
       <c r="Z7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
         <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF7" t="n">
         <v>38</v>
@@ -1435,16 +1435,16 @@
         <v>140</v>
       </c>
       <c r="AK7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO7" t="n">
         <v>17</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G8" t="n">
         <v>2.28</v>
@@ -1486,7 +1486,7 @@
         <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
@@ -1495,7 +1495,7 @@
         <v>3.35</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M8" t="n">
         <v>1.12</v>
@@ -1516,52 +1516,52 @@
         <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T8" t="n">
         <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
         <v>1.78</v>
       </c>
       <c r="X8" t="n">
-        <v>9.6</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AB8" t="n">
         <v>6.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AE8" t="n">
         <v>480</v>
       </c>
       <c r="AF8" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AG8" t="n">
         <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H9" t="n">
         <v>10.5</v>
       </c>
       <c r="I9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
         <v>4.2</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.46</v>
@@ -1642,7 +1642,7 @@
         <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q9" t="n">
         <v>2.14</v>
@@ -1657,13 +1657,13 @@
         <v>2.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="V9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1672,7 +1672,7 @@
         <v>65</v>
       </c>
       <c r="Z9" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1687,13 +1687,13 @@
         <v>240</v>
       </c>
       <c r="AE9" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AF9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
         <v>85</v>
@@ -1702,19 +1702,19 @@
         <v>270</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="n">
         <v>350</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,28 +1750,28 @@
         <v>2.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H10" t="n">
         <v>3.95</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="O10" t="n">
         <v>1.39</v>
@@ -1795,10 +1795,10 @@
         <v>1.96</v>
       </c>
       <c r="V10" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="X10" t="n">
         <v>25</v>
@@ -1840,7 +1840,7 @@
         <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1888,19 +1888,19 @@
         <v>2.06</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -1912,25 +1912,25 @@
         <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
         <v>1.66</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T11" t="n">
         <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V11" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W11" t="n">
         <v>1.94</v>
@@ -1939,19 +1939,19 @@
         <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AA11" t="n">
         <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
         <v>17</v>
@@ -1984,7 +1984,7 @@
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO11" t="n">
         <v>38</v>
@@ -2023,13 +2023,13 @@
         <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
         <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
         <v>4.5</v>
@@ -2062,7 +2062,7 @@
         <v>2.26</v>
       </c>
       <c r="U12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V12" t="n">
         <v>1.11</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J13" t="n">
         <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.47</v>
@@ -2176,7 +2176,7 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.37</v>
@@ -2188,31 +2188,31 @@
         <v>2.14</v>
       </c>
       <c r="R13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S13" t="n">
         <v>3.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="U13" t="n">
         <v>1.99</v>
       </c>
       <c r="V13" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
         <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="n">
         <v>110</v>
@@ -2221,43 +2221,43 @@
         <v>8.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE13" t="n">
         <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
         <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14">
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G14" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H14" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="I14" t="n">
         <v>3.15</v>
@@ -2314,13 +2314,13 @@
         <v>3.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
         <v>1.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
         <v>1.25</v>
@@ -2335,64 +2335,64 @@
         <v>1.95</v>
       </c>
       <c r="V14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W14" t="n">
         <v>1.54</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ14" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK14" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AO14" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
@@ -2425,19 +2425,19 @@
         <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
         <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
         <v>1.34</v>
@@ -2452,7 +2452,7 @@
         <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="Q15" t="n">
         <v>1.96</v>
@@ -2464,16 +2464,16 @@
         <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U15" t="n">
         <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W15" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X15" t="n">
         <v>27</v>
@@ -2485,13 +2485,13 @@
         <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB15" t="n">
         <v>22</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2500,16 +2500,16 @@
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
         <v>980</v>
@@ -2563,10 +2563,10 @@
         <v>1.28</v>
       </c>
       <c r="H16" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="I16" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="J16" t="n">
         <v>6.2</v>
@@ -2590,16 +2590,16 @@
         <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U16" t="n">
         <v>1.64</v>
@@ -2617,7 +2617,7 @@
         <v>980</v>
       </c>
       <c r="Z16" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
@@ -2632,7 +2632,7 @@
         <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="AF16" t="n">
         <v>7.4</v>
@@ -2641,25 +2641,25 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>44</v>
+        <v>150</v>
       </c>
       <c r="AI16" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL16" t="n">
         <v>250</v>
       </c>
       <c r="AM16" t="n">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G17" t="n">
         <v>3.7</v>
       </c>
       <c r="H17" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="J17" t="n">
         <v>2.8</v>
@@ -2710,7 +2710,7 @@
         <v>2.96</v>
       </c>
       <c r="L17" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M17" t="n">
         <v>1.15</v>
@@ -2719,7 +2719,7 @@
         <v>2.34</v>
       </c>
       <c r="O17" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="P17" t="n">
         <v>1.43</v>
@@ -2731,43 +2731,43 @@
         <v>1.14</v>
       </c>
       <c r="S17" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="T17" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="U17" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="V17" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
         <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
-        <v>48</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
         <v>9</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD17" t="n">
         <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AF17" t="n">
         <v>22</v>
@@ -2788,16 +2788,16 @@
         <v>190</v>
       </c>
       <c r="AL17" t="n">
+        <v>340</v>
+      </c>
+      <c r="AM17" t="n">
         <v>290</v>
       </c>
-      <c r="AM17" t="n">
-        <v>280</v>
-      </c>
       <c r="AN17" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AO17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2854,19 +2854,19 @@
         <v>5.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R18" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="T18" t="n">
         <v>1.64</v>
@@ -2881,13 +2881,13 @@
         <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA18" t="n">
         <v>80</v>
@@ -2905,34 +2905,34 @@
         <v>40</v>
       </c>
       <c r="AF18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH18" t="n">
         <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
         <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL18" t="n">
         <v>27</v>
       </c>
       <c r="AM18" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="AN18" t="n">
         <v>10.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2968,16 +2968,16 @@
         <v>3.75</v>
       </c>
       <c r="H19" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="I19" t="n">
         <v>2.24</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
         <v>1.31</v>
@@ -2998,25 +2998,25 @@
         <v>1.78</v>
       </c>
       <c r="R19" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="T19" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
         <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="Y19" t="n">
         <v>12</v>
@@ -3031,7 +3031,7 @@
         <v>30</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
         <v>17</v>
@@ -3067,7 +3067,7 @@
         <v>980</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="H20" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="I20" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
         <v>4.5</v>
@@ -3121,88 +3121,88 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
         <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R20" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="S20" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="T20" t="n">
         <v>1.52</v>
       </c>
       <c r="U20" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="V20" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W20" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X20" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA20" t="n">
         <v>36</v>
       </c>
-      <c r="Y20" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>40</v>
-      </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AC20" t="n">
         <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AF20" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>900</v>
+        <v>290</v>
       </c>
       <c r="AK20" t="n">
         <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="G21" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H21" t="n">
         <v>1.55</v>
@@ -3280,46 +3280,46 @@
         <v>2.52</v>
       </c>
       <c r="V21" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="W21" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X21" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="Y21" t="n">
-        <v>17.5</v>
+        <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB21" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AC21" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AG21" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AJ21" t="n">
         <v>150</v>
@@ -3328,16 +3328,16 @@
         <v>170</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AM21" t="n">
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO21" t="n">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="22">
@@ -3367,58 +3367,58 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
         <v>2.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="J22" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O22" t="n">
         <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="Q22" t="n">
         <v>1.45</v>
       </c>
       <c r="R22" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S22" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="U22" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="V22" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X22" t="n">
         <v>80</v>
@@ -3433,10 +3433,10 @@
         <v>290</v>
       </c>
       <c r="AB22" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AC22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
         <v>14</v>
@@ -3451,13 +3451,13 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI22" t="n">
         <v>65</v>
       </c>
       <c r="AJ22" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AK22" t="n">
         <v>42</v>
@@ -3466,7 +3466,7 @@
         <v>48</v>
       </c>
       <c r="AM22" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
         <v>11.5</v>
@@ -3511,7 +3511,7 @@
         <v>2.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J23" t="n">
         <v>3.35</v>
@@ -3520,7 +3520,7 @@
         <v>3.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
@@ -3532,10 +3532,10 @@
         <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
         <v>1.32</v>
@@ -3547,7 +3547,7 @@
         <v>1.83</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V23" t="n">
         <v>1.64</v>
@@ -3556,7 +3556,7 @@
         <v>1.43</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
         <v>10.5</v>
@@ -3580,16 +3580,16 @@
         <v>30</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ23" t="n">
         <v>60</v>
@@ -3604,10 +3604,10 @@
         <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -3649,34 +3649,34 @@
         <v>3.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K24" t="n">
         <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="O24" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q24" t="n">
         <v>2.32</v>
       </c>
       <c r="R24" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T24" t="n">
         <v>1.93</v>
@@ -3694,31 +3694,31 @@
         <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
         <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
@@ -3727,7 +3727,7 @@
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK24" t="n">
         <v>1000</v>
@@ -3772,73 +3772,73 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="H25" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="I25" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M25" t="n">
         <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="O25" t="n">
         <v>1.51</v>
       </c>
       <c r="P25" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R25" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S25" t="n">
         <v>4.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="U25" t="n">
         <v>1.63</v>
       </c>
       <c r="V25" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="W25" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="AB25" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
         <v>15.5</v>
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="G26" t="n">
         <v>5.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="I26" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="J26" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="K26" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M26" t="n">
         <v>1.01</v>
@@ -3937,10 +3937,10 @@
         <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="R26" t="n">
         <v>1.18</v>
@@ -3952,13 +3952,13 @@
         <v>1.05</v>
       </c>
       <c r="U26" t="n">
-        <v>1.65</v>
+        <v>1.05</v>
       </c>
       <c r="V26" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="W26" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4048,16 +4048,16 @@
         <v>3.8</v>
       </c>
       <c r="H27" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I27" t="n">
         <v>2.46</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L27" t="n">
         <v>1.41</v>
@@ -4066,16 +4066,16 @@
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
       </c>
       <c r="P27" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R27" t="n">
         <v>1.25</v>
@@ -4087,7 +4087,7 @@
         <v>1.92</v>
       </c>
       <c r="U27" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V27" t="n">
         <v>1.68</v>
@@ -4099,10 +4099,10 @@
         <v>20</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
         <v>900</v>
@@ -4114,10 +4114,10 @@
         <v>19</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AF27" t="n">
         <v>1000</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G28" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H28" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L28" t="n">
         <v>1.51</v>
@@ -4201,40 +4201,40 @@
         <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="O28" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P28" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S28" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U28" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V28" t="n">
         <v>1.32</v>
       </c>
       <c r="W28" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X28" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Y28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
@@ -4243,10 +4243,10 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD28" t="n">
         <v>34</v>
@@ -4255,7 +4255,7 @@
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AG28" t="n">
         <v>23</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H29" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="I29" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
@@ -4330,7 +4330,7 @@
         <v>3.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
         <v>1.11</v>
@@ -4339,10 +4339,10 @@
         <v>2.78</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P29" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q29" t="n">
         <v>2.46</v>
@@ -4360,7 +4360,7 @@
         <v>1.86</v>
       </c>
       <c r="V29" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W29" t="n">
         <v>1.43</v>
@@ -4372,52 +4372,52 @@
         <v>15.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AE29" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AI29" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AJ29" t="n">
         <v>60</v>
       </c>
       <c r="AK29" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="n">
         <v>380</v>
       </c>
       <c r="AM29" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN29" t="n">
         <v>60</v>
       </c>
       <c r="AO29" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G30" t="n">
         <v>2.44</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.46</v>
-      </c>
       <c r="H30" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J30" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L30" t="n">
         <v>1.63</v>
@@ -4471,7 +4471,7 @@
         <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O30" t="n">
         <v>1.6</v>
@@ -4480,7 +4480,7 @@
         <v>1.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="R30" t="n">
         <v>1.19</v>
@@ -4495,10 +4495,10 @@
         <v>1.78</v>
       </c>
       <c r="V30" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W30" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X30" t="n">
         <v>7.8</v>
@@ -4510,10 +4510,10 @@
         <v>24</v>
       </c>
       <c r="AA30" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC30" t="n">
         <v>6.8</v>
@@ -4549,7 +4549,7 @@
         <v>200</v>
       </c>
       <c r="AN30" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO30" t="n">
         <v>90</v>
@@ -4594,19 +4594,19 @@
         <v>4.7</v>
       </c>
       <c r="J31" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K31" t="n">
         <v>3.15</v>
       </c>
       <c r="L31" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
         <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O31" t="n">
         <v>1.63</v>
@@ -4615,7 +4615,7 @@
         <v>1.45</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="R31" t="n">
         <v>1.15</v>
@@ -4645,25 +4645,25 @@
         <v>30</v>
       </c>
       <c r="AA31" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC31" t="n">
         <v>7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
         <v>28</v>
@@ -4672,19 +4672,19 @@
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AK31" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="G32" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="H32" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I32" t="n">
         <v>1.38</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.39</v>
       </c>
       <c r="J32" t="n">
         <v>6.2</v>
       </c>
       <c r="K32" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.21</v>
@@ -4753,19 +4753,19 @@
         <v>1.36</v>
       </c>
       <c r="R32" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="S32" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T32" t="n">
         <v>1.59</v>
       </c>
       <c r="U32" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="W32" t="n">
         <v>1.13</v>
@@ -4777,13 +4777,13 @@
         <v>16</v>
       </c>
       <c r="Z32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA32" t="n">
         <v>14</v>
       </c>
       <c r="AB32" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AC32" t="n">
         <v>15</v>
@@ -4792,25 +4792,25 @@
         <v>10.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
         <v>90</v>
       </c>
       <c r="AG32" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH32" t="n">
         <v>20</v>
       </c>
       <c r="AI32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ32" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AK32" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL32" t="n">
         <v>65</v>
@@ -4819,7 +4819,7 @@
         <v>65</v>
       </c>
       <c r="AN32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO32" t="n">
         <v>3.75</v>
@@ -4858,10 +4858,10 @@
         <v>3.35</v>
       </c>
       <c r="H33" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J33" t="n">
         <v>3.25</v>
@@ -4876,7 +4876,7 @@
         <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O33" t="n">
         <v>1.46</v>
@@ -4891,16 +4891,16 @@
         <v>1.25</v>
       </c>
       <c r="S33" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T33" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V33" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W33" t="n">
         <v>1.42</v>
@@ -4909,13 +4909,13 @@
         <v>10.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA33" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB33" t="n">
         <v>10.5</v>
@@ -4924,40 +4924,40 @@
         <v>7.2</v>
       </c>
       <c r="AD33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE33" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF33" t="n">
         <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI33" t="n">
         <v>55</v>
       </c>
       <c r="AJ33" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK33" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL33" t="n">
         <v>65</v>
       </c>
       <c r="AM33" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN33" t="n">
         <v>55</v>
       </c>
       <c r="AO33" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="G34" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I34" t="n">
         <v>3.9</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.1</v>
       </c>
       <c r="J34" t="n">
         <v>2.86</v>
       </c>
       <c r="K34" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5011,7 +5011,7 @@
         <v>1.18</v>
       </c>
       <c r="N34" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="O34" t="n">
         <v>1.74</v>
@@ -5029,22 +5029,22 @@
         <v>7.4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="U34" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V34" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W34" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X34" t="n">
         <v>6.6</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
         <v>25</v>
@@ -5059,10 +5059,10 @@
         <v>7</v>
       </c>
       <c r="AD34" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE34" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AF34" t="n">
         <v>13.5</v>
@@ -5071,10 +5071,10 @@
         <v>14</v>
       </c>
       <c r="AH34" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ34" t="n">
         <v>40</v>
@@ -5083,16 +5083,16 @@
         <v>100</v>
       </c>
       <c r="AL34" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AM34" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AN34" t="n">
         <v>55</v>
       </c>
       <c r="AO34" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
@@ -5125,28 +5125,28 @@
         <v>2.3</v>
       </c>
       <c r="G35" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I35" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K35" t="n">
         <v>3.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M35" t="n">
         <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="O35" t="n">
         <v>1.55</v>
@@ -5155,7 +5155,7 @@
         <v>1.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.58</v>
+        <v>2.42</v>
       </c>
       <c r="R35" t="n">
         <v>1.18</v>
@@ -5164,22 +5164,22 @@
         <v>4.8</v>
       </c>
       <c r="T35" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U35" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V35" t="n">
         <v>1.31</v>
       </c>
       <c r="W35" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="X35" t="n">
         <v>15.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
         <v>500</v>
@@ -5188,13 +5188,13 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
@@ -5206,16 +5206,16 @@
         <v>23</v>
       </c>
       <c r="AH35" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>900</v>
+        <v>220</v>
       </c>
       <c r="AK35" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="AL35" t="n">
         <v>1000</v>
@@ -5260,7 +5260,7 @@
         <v>1.54</v>
       </c>
       <c r="G36" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="H36" t="n">
         <v>7</v>
@@ -5269,13 +5269,13 @@
         <v>9.6</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="K36" t="n">
         <v>4.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
@@ -5287,7 +5287,7 @@
         <v>1.35</v>
       </c>
       <c r="P36" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q36" t="n">
         <v>2.02</v>
@@ -5296,7 +5296,7 @@
         <v>1.29</v>
       </c>
       <c r="S36" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="T36" t="n">
         <v>2.06</v>
@@ -5308,13 +5308,13 @@
         <v>1.11</v>
       </c>
       <c r="W36" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="X36" t="n">
         <v>16</v>
       </c>
       <c r="Y36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -5329,7 +5329,7 @@
         <v>11.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
@@ -5341,7 +5341,7 @@
         <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="G37" t="n">
         <v>1.87</v>
@@ -5407,7 +5407,7 @@
         <v>3.55</v>
       </c>
       <c r="K37" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L37" t="n">
         <v>1.44</v>
@@ -5416,7 +5416,7 @@
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O37" t="n">
         <v>1.38</v>
@@ -5431,10 +5431,10 @@
         <v>1.28</v>
       </c>
       <c r="S37" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U37" t="n">
         <v>1.86</v>
@@ -5446,13 +5446,13 @@
         <v>2.14</v>
       </c>
       <c r="X37" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
@@ -5461,31 +5461,31 @@
         <v>7.8</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE37" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF37" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG37" t="n">
         <v>11</v>
       </c>
       <c r="AH37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI37" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="n">
         <v>23</v>
       </c>
       <c r="AK37" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL37" t="n">
         <v>44</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L2" t="n">
         <v>1.51</v>
@@ -700,13 +700,13 @@
         <v>1.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R2" t="n">
         <v>1.22</v>
       </c>
       <c r="S2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T2" t="n">
         <v>1.95</v>
@@ -718,13 +718,13 @@
         <v>1.63</v>
       </c>
       <c r="W2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
         <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z2" t="n">
         <v>15</v>
@@ -754,10 +754,10 @@
         <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AJ2" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="n">
         <v>150</v>
@@ -802,28 +802,28 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G3" t="n">
         <v>8.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="I3" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
         <v>3.3</v>
@@ -832,25 +832,25 @@
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="W3" t="n">
         <v>1.14</v>
@@ -862,7 +862,7 @@
         <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>900</v>
@@ -871,10 +871,10 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -1072,49 +1072,49 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H5" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="J5" t="n">
         <v>2.76</v>
       </c>
       <c r="K5" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="L5" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M5" t="n">
         <v>1.18</v>
       </c>
       <c r="N5" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O5" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="P5" t="n">
         <v>1.35</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="T5" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
         <v>1.56</v>
@@ -1123,7 +1123,7 @@
         <v>1.55</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X5" t="n">
         <v>6.4</v>
@@ -1132,7 +1132,7 @@
         <v>6.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA5" t="n">
         <v>130</v>
@@ -1174,10 +1174,10 @@
         <v>500</v>
       </c>
       <c r="AN5" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AO5" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1222,7 +1222,7 @@
         <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.48</v>
@@ -1231,7 +1231,7 @@
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O6" t="n">
         <v>1.45</v>
@@ -1246,7 +1246,7 @@
         <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T6" t="n">
         <v>2.12</v>
@@ -1312,7 +1312,7 @@
         <v>17.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7">
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>5.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="I7" t="n">
         <v>1.89</v>
@@ -1360,22 +1360,22 @@
         <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
         <v>1.25</v>
@@ -1387,7 +1387,7 @@
         <v>2.06</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
         <v>2.12</v>
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH7" t="n">
         <v>25</v>
@@ -1435,13 +1435,13 @@
         <v>140</v>
       </c>
       <c r="AK7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="n">
         <v>95</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN7" t="n">
         <v>120</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
         <v>2.28</v>
@@ -1492,10 +1492,10 @@
         <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M8" t="n">
         <v>1.12</v>
@@ -1510,7 +1510,7 @@
         <v>1.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R8" t="n">
         <v>1.2</v>
@@ -1519,13 +1519,13 @@
         <v>5.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U8" t="n">
         <v>1.76</v>
       </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
         <v>1.78</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G9" t="n">
         <v>1.47</v>
@@ -1624,10 +1624,10 @@
         <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
         <v>1.46</v>
@@ -1642,7 +1642,7 @@
         <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
         <v>2.14</v>
@@ -1657,7 +1657,7 @@
         <v>2.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="V9" t="n">
         <v>1.09</v>
@@ -1678,7 +1678,7 @@
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC9" t="n">
         <v>10.5</v>
@@ -1687,7 +1687,7 @@
         <v>240</v>
       </c>
       <c r="AE9" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AF9" t="n">
         <v>7.8</v>
@@ -1753,25 +1753,25 @@
         <v>2.18</v>
       </c>
       <c r="H10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
         <v>4.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
         <v>3.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.39</v>
@@ -1783,10 +1783,10 @@
         <v>2.12</v>
       </c>
       <c r="R10" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S10" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
         <v>1.89</v>
@@ -1924,7 +1924,7 @@
         <v>2.68</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U11" t="n">
         <v>2.32</v>
@@ -1942,7 +1942,7 @@
         <v>19</v>
       </c>
       <c r="Z11" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>900</v>
@@ -2041,7 +2041,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O12" t="n">
         <v>1.38</v>
@@ -2056,7 +2056,7 @@
         <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>3.55</v>
+        <v>2.66</v>
       </c>
       <c r="T12" t="n">
         <v>2.26</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G13" t="n">
         <v>1.99</v>
@@ -2182,7 +2182,7 @@
         <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q13" t="n">
         <v>2.14</v>
@@ -2191,13 +2191,13 @@
         <v>1.31</v>
       </c>
       <c r="S13" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>1.25</v>
@@ -2206,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
         <v>16</v>
@@ -2215,7 +2215,7 @@
         <v>80</v>
       </c>
       <c r="AA13" t="n">
-        <v>110</v>
+        <v>700</v>
       </c>
       <c r="AB13" t="n">
         <v>8.4</v>
@@ -2227,7 +2227,7 @@
         <v>18.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
@@ -2239,7 +2239,7 @@
         <v>38</v>
       </c>
       <c r="AI13" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="n">
         <v>22</v>
@@ -2254,10 +2254,10 @@
         <v>130</v>
       </c>
       <c r="AN13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
-        <v>260</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G14" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H14" t="n">
         <v>2.92</v>
       </c>
       <c r="I14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
@@ -2320,7 +2320,7 @@
         <v>1.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R14" t="n">
         <v>1.25</v>
@@ -2350,7 +2350,7 @@
         <v>19.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AB14" t="n">
         <v>9.4</v>
@@ -2383,16 +2383,16 @@
         <v>85</v>
       </c>
       <c r="AL14" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AO14" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H15" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
         <v>3.2</v>
@@ -2440,7 +2440,7 @@
         <v>3.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2449,7 +2449,7 @@
         <v>3.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P15" t="n">
         <v>1.85</v>
@@ -2488,7 +2488,7 @@
         <v>900</v>
       </c>
       <c r="AB15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
         <v>14</v>
@@ -2563,7 +2563,7 @@
         <v>1.28</v>
       </c>
       <c r="H16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I16" t="n">
         <v>19.5</v>
@@ -2575,7 +2575,7 @@
         <v>7.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2584,13 +2584,13 @@
         <v>4.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P16" t="n">
         <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R16" t="n">
         <v>1.46</v>
@@ -2599,7 +2599,7 @@
         <v>2.84</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U16" t="n">
         <v>1.64</v>
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AI16" t="n">
         <v>300</v>
@@ -2695,22 +2695,22 @@
         <v>3.5</v>
       </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H17" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I17" t="n">
-        <v>2.74</v>
+        <v>2.66</v>
       </c>
       <c r="J17" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="K17" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="M17" t="n">
         <v>1.15</v>
@@ -2719,7 +2719,7 @@
         <v>2.34</v>
       </c>
       <c r="O17" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="P17" t="n">
         <v>1.43</v>
@@ -2734,13 +2734,13 @@
         <v>7</v>
       </c>
       <c r="T17" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U17" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W17" t="n">
         <v>1.37</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G18" t="n">
         <v>1.99</v>
@@ -2836,7 +2836,7 @@
         <v>3.85</v>
       </c>
       <c r="I18" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
         <v>4.1</v>
@@ -2851,22 +2851,22 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
         <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="T18" t="n">
         <v>1.64</v>
@@ -2884,7 +2884,7 @@
         <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="n">
         <v>30</v>
@@ -2893,7 +2893,7 @@
         <v>80</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
         <v>9.4</v>
@@ -2968,10 +2968,10 @@
         <v>3.75</v>
       </c>
       <c r="H19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I19" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
@@ -2992,10 +2992,10 @@
         <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="R19" t="n">
         <v>1.44</v>
@@ -3010,10 +3010,10 @@
         <v>2.32</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X19" t="n">
         <v>90</v>
@@ -3067,7 +3067,7 @@
         <v>980</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -3100,10 +3100,10 @@
         <v>2.72</v>
       </c>
       <c r="G20" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="H20" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="I20" t="n">
         <v>2.58</v>
@@ -3115,7 +3115,7 @@
         <v>4.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -3124,13 +3124,13 @@
         <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
         <v>2.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R20" t="n">
         <v>1.69</v>
@@ -3139,16 +3139,16 @@
         <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="U20" t="n">
         <v>2.72</v>
       </c>
       <c r="V20" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W20" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X20" t="n">
         <v>85</v>
@@ -3172,10 +3172,10 @@
         <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AF20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG20" t="n">
         <v>14</v>
@@ -3196,7 +3196,7 @@
         <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="n">
         <v>14.5</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G21" t="n">
         <v>6.2</v>
       </c>
       <c r="H21" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I21" t="n">
         <v>1.59</v>
@@ -3247,7 +3247,7 @@
         <v>4.8</v>
       </c>
       <c r="K21" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L21" t="n">
         <v>1.2</v>
@@ -3322,13 +3322,13 @@
         <v>25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="AK21" t="n">
-        <v>170</v>
+        <v>700</v>
       </c>
       <c r="AL21" t="n">
-        <v>150</v>
+        <v>700</v>
       </c>
       <c r="AM21" t="n">
         <v>580</v>
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="G22" t="n">
         <v>2.6</v>
       </c>
       <c r="H22" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I22" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J22" t="n">
         <v>3.95</v>
       </c>
       <c r="K22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -3403,13 +3403,13 @@
         <v>1.45</v>
       </c>
       <c r="R22" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="S22" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T22" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U22" t="n">
         <v>2.86</v>
@@ -3508,19 +3508,19 @@
         <v>3.3</v>
       </c>
       <c r="H23" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I23" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
         <v>3.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
@@ -3535,19 +3535,19 @@
         <v>1.86</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R23" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S23" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T23" t="n">
         <v>1.83</v>
       </c>
       <c r="U23" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
         <v>1.64</v>
@@ -3640,7 +3640,7 @@
         <v>2.48</v>
       </c>
       <c r="G24" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>3.15</v>
@@ -3655,7 +3655,7 @@
         <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.49</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
@@ -3676,7 +3676,7 @@
         <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T24" t="n">
         <v>1.93</v>
@@ -3727,7 +3727,7 @@
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>900</v>
+        <v>170</v>
       </c>
       <c r="AK24" t="n">
         <v>1000</v>
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="G25" t="n">
         <v>8.6</v>
       </c>
       <c r="H25" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I25" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="J25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M25" t="n">
         <v>1.11</v>
@@ -3802,10 +3802,10 @@
         <v>1.51</v>
       </c>
       <c r="P25" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="R25" t="n">
         <v>1.2</v>
@@ -3820,16 +3820,16 @@
         <v>1.63</v>
       </c>
       <c r="V25" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="W25" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X25" t="n">
         <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
         <v>40</v>
@@ -3907,94 +3907,94 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="G26" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="I26" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="J26" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>4.4</v>
+        <v>3.35</v>
       </c>
       <c r="L26" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N26" t="n">
-        <v>1.1</v>
+        <v>2.54</v>
       </c>
       <c r="O26" t="n">
         <v>1.53</v>
       </c>
       <c r="P26" t="n">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.79</v>
+        <v>2.58</v>
       </c>
       <c r="R26" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S26" t="n">
-        <v>2.74</v>
+        <v>4.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.05</v>
+        <v>2.14</v>
       </c>
       <c r="U26" t="n">
-        <v>1.05</v>
+        <v>1.74</v>
       </c>
       <c r="V26" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W26" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>500</v>
+        <v>10.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -4012,7 +4012,7 @@
         <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
@@ -4048,7 +4048,7 @@
         <v>3.8</v>
       </c>
       <c r="H27" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I27" t="n">
         <v>2.46</v>
@@ -4066,7 +4066,7 @@
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -4075,7 +4075,7 @@
         <v>1.68</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R27" t="n">
         <v>1.25</v>
@@ -4087,7 +4087,7 @@
         <v>1.92</v>
       </c>
       <c r="U27" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V27" t="n">
         <v>1.68</v>
@@ -4249,7 +4249,7 @@
         <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
@@ -4321,7 +4321,7 @@
         <v>2.6</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
@@ -4330,13 +4330,13 @@
         <v>3.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
         <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O29" t="n">
         <v>1.52</v>
@@ -4351,7 +4351,7 @@
         <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T29" t="n">
         <v>2.02</v>
@@ -4360,7 +4360,7 @@
         <v>1.86</v>
       </c>
       <c r="V29" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W29" t="n">
         <v>1.43</v>
@@ -4369,7 +4369,7 @@
         <v>9.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z29" t="n">
         <v>15.5</v>
@@ -4378,13 +4378,13 @@
         <v>42</v>
       </c>
       <c r="AB29" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
         <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>95</v>
@@ -4417,7 +4417,7 @@
         <v>60</v>
       </c>
       <c r="AO29" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -4477,10 +4477,10 @@
         <v>1.6</v>
       </c>
       <c r="P30" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="R30" t="n">
         <v>1.19</v>
@@ -4495,7 +4495,7 @@
         <v>1.78</v>
       </c>
       <c r="V30" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W30" t="n">
         <v>1.69</v>
@@ -4600,7 +4600,7 @@
         <v>3.15</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="M31" t="n">
         <v>1.15</v>
@@ -4615,7 +4615,7 @@
         <v>1.45</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="R31" t="n">
         <v>1.15</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="G32" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H32" t="n">
         <v>1.37</v>
@@ -4747,7 +4747,7 @@
         <v>1.12</v>
       </c>
       <c r="P32" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q32" t="n">
         <v>1.36</v>
@@ -4762,13 +4762,13 @@
         <v>1.59</v>
       </c>
       <c r="U32" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="V32" t="n">
         <v>3.6</v>
       </c>
       <c r="W32" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X32" t="n">
         <v>46</v>
@@ -4786,16 +4786,16 @@
         <v>50</v>
       </c>
       <c r="AC32" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD32" t="n">
         <v>10.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AG32" t="n">
         <v>32</v>
@@ -4807,7 +4807,7 @@
         <v>22</v>
       </c>
       <c r="AJ32" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AK32" t="n">
         <v>90</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I33" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="J33" t="n">
         <v>3.25</v>
@@ -4870,7 +4870,7 @@
         <v>3.35</v>
       </c>
       <c r="L33" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M33" t="n">
         <v>1.1</v>
@@ -4891,31 +4891,31 @@
         <v>1.25</v>
       </c>
       <c r="S33" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T33" t="n">
         <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V33" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="W33" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X33" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y33" t="n">
         <v>8.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AB33" t="n">
         <v>10.5</v>
@@ -4927,16 +4927,16 @@
         <v>12</v>
       </c>
       <c r="AE33" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF33" t="n">
         <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
         <v>55</v>
@@ -4945,19 +4945,19 @@
         <v>65</v>
       </c>
       <c r="AK33" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL33" t="n">
         <v>65</v>
       </c>
       <c r="AM33" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN33" t="n">
         <v>55</v>
       </c>
       <c r="AO33" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="G34" t="n">
         <v>2.56</v>
@@ -5005,16 +5005,16 @@
         <v>2.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="M34" t="n">
         <v>1.18</v>
       </c>
       <c r="N34" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="O34" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="P34" t="n">
         <v>1.39</v>
@@ -5026,13 +5026,13 @@
         <v>1.13</v>
       </c>
       <c r="S34" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="T34" t="n">
         <v>2.44</v>
       </c>
       <c r="U34" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V34" t="n">
         <v>1.34</v>
@@ -5083,7 +5083,7 @@
         <v>100</v>
       </c>
       <c r="AL34" t="n">
-        <v>220</v>
+        <v>460</v>
       </c>
       <c r="AM34" t="n">
         <v>310</v>
@@ -5140,7 +5140,7 @@
         <v>3.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.11</v>
@@ -5152,7 +5152,7 @@
         <v>1.55</v>
       </c>
       <c r="P35" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q35" t="n">
         <v>2.42</v>
@@ -5161,7 +5161,7 @@
         <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="T35" t="n">
         <v>2.08</v>
@@ -5188,7 +5188,7 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC35" t="n">
         <v>13.5</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="G36" t="n">
         <v>1.68</v>
@@ -5296,7 +5296,7 @@
         <v>1.29</v>
       </c>
       <c r="S36" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="T36" t="n">
         <v>2.06</v>
@@ -5395,7 +5395,7 @@
         <v>1.8</v>
       </c>
       <c r="G37" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="H37" t="n">
         <v>5.1</v>
@@ -5410,31 +5410,31 @@
         <v>3.9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R37" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T37" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U37" t="n">
         <v>1.86</v>
@@ -5443,7 +5443,7 @@
         <v>1.21</v>
       </c>
       <c r="W37" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X37" t="n">
         <v>14.5</v>
@@ -5452,7 +5452,7 @@
         <v>16.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
@@ -5464,10 +5464,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE37" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF37" t="n">
         <v>12</v>
@@ -5479,13 +5479,13 @@
         <v>26</v>
       </c>
       <c r="AI37" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ37" t="n">
         <v>23</v>
       </c>
       <c r="AK37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL37" t="n">
         <v>44</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -667,82 +667,82 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H2" t="n">
         <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="O2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="P2" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
         <v>1.22</v>
       </c>
       <c r="S2" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V2" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="W2" t="n">
         <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
         <v>26</v>
@@ -757,22 +757,22 @@
         <v>150</v>
       </c>
       <c r="AJ2" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AK2" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G3" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="I3" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="W3" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -1075,76 +1075,76 @@
         <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="I5" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K5" t="n">
         <v>2.86</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.88</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="M5" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N5" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="O5" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P5" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="U5" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="V5" t="n">
         <v>1.55</v>
       </c>
       <c r="W5" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X5" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="Y5" t="n">
         <v>6.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA5" t="n">
         <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>450</v>
@@ -1177,7 +1177,7 @@
         <v>600</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
@@ -1210,55 +1210,55 @@
         <v>1.8</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I6" t="n">
         <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
         <v>3.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="n">
         <v>1.45</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T6" t="n">
         <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
@@ -1279,7 +1279,7 @@
         <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>290</v>
@@ -1291,7 +1291,7 @@
         <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>130</v>
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G7" t="n">
         <v>5.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="I7" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="J7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.6</v>
       </c>
-      <c r="K7" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R7" t="n">
         <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U7" t="n">
         <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="W7" t="n">
         <v>1.23</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
         <v>7</v>
@@ -1411,34 +1411,34 @@
         <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="n">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="AM7" t="n">
         <v>170</v>
@@ -1447,7 +1447,7 @@
         <v>120</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="8">
@@ -1480,13 +1480,13 @@
         <v>2.16</v>
       </c>
       <c r="G8" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.1</v>
@@ -1495,40 +1495,40 @@
         <v>3.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M8" t="n">
         <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="O8" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P8" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="R8" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V8" t="n">
         <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
@@ -1561,7 +1561,7 @@
         <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
@@ -1582,7 +1582,7 @@
         <v>980</v>
       </c>
       <c r="AO8" t="n">
-        <v>130</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
@@ -1612,67 +1612,67 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="G9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L9" t="n">
         <v>1.47</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T9" t="n">
         <v>2.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y9" t="n">
         <v>65</v>
       </c>
       <c r="Z9" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
@@ -1684,10 +1684,10 @@
         <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="AE9" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="AF9" t="n">
         <v>7.8</v>
@@ -1699,22 +1699,22 @@
         <v>85</v>
       </c>
       <c r="AI9" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AJ9" t="n">
         <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
         <v>150</v>
       </c>
       <c r="AM9" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>4.4</v>
@@ -1762,7 +1762,7 @@
         <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
         <v>1.46</v>
@@ -1771,7 +1771,7 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
         <v>1.39</v>
@@ -1780,13 +1780,13 @@
         <v>1.76</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
         <v>1.89</v>
@@ -1798,13 +1798,13 @@
         <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="X10" t="n">
         <v>25</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
         <v>4.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -1912,37 +1912,37 @@
         <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.66</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.61</v>
-      </c>
       <c r="U11" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V11" t="n">
         <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="AA11" t="n">
         <v>900</v>
@@ -1960,10 +1960,10 @@
         <v>200</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -1972,13 +1972,13 @@
         <v>160</v>
       </c>
       <c r="AJ11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
         <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
@@ -2029,65 +2029,65 @@
         <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
         <v>4.5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="O12" t="n">
         <v>1.38</v>
       </c>
       <c r="P12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>2.66</v>
+        <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V12" t="n">
         <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="X12" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC12" t="n">
         <v>21</v>
       </c>
-      <c r="Y12" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD12" t="n">
         <v>1000</v>
       </c>
@@ -2095,13 +2095,13 @@
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.199999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
         <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="G13" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>4.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
@@ -2179,55 +2179,55 @@
         <v>3.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P13" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R13" t="n">
         <v>1.31</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U13" t="n">
         <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W13" t="n">
         <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>700</v>
+        <v>110</v>
       </c>
       <c r="AB13" t="n">
         <v>8.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
         <v>18.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>320</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
         <v>11</v>
@@ -2239,7 +2239,7 @@
         <v>38</v>
       </c>
       <c r="AI13" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AJ13" t="n">
         <v>22</v>
@@ -2257,7 +2257,7 @@
         <v>16</v>
       </c>
       <c r="AO13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G14" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="I14" t="n">
         <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.51</v>
@@ -2317,37 +2317,37 @@
         <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
         <v>1.47</v>
       </c>
       <c r="W14" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
         <v>160</v>
@@ -2356,7 +2356,7 @@
         <v>9.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
         <v>13.5</v>
@@ -2371,7 +2371,7 @@
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>170</v>
@@ -2389,7 +2389,7 @@
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO14" t="n">
         <v>44</v>
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="G15" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="H15" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="I15" t="n">
         <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
         <v>3.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O15" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S15" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
         <v>1.45</v>
       </c>
       <c r="W15" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="X15" t="n">
         <v>27</v>
@@ -2557,25 +2557,25 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="G16" t="n">
         <v>1.28</v>
       </c>
       <c r="H16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="I16" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="J16" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="K16" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2584,58 +2584,58 @@
         <v>4.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="R16" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S16" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="T16" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="U16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W16" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="Z16" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AB16" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AE16" t="n">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -2644,25 +2644,25 @@
         <v>44</v>
       </c>
       <c r="AI16" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AK16" t="n">
         <v>15.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17">
@@ -2692,67 +2692,67 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G17" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I17" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J17" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L17" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="M17" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N17" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="O17" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="P17" t="n">
         <v>1.43</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="R17" t="n">
         <v>1.14</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="T17" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U17" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="V17" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
         <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA17" t="n">
         <v>900</v>
@@ -2767,7 +2767,7 @@
         <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>120</v>
+        <v>970</v>
       </c>
       <c r="AF17" t="n">
         <v>22</v>
@@ -2830,7 +2830,7 @@
         <v>1.98</v>
       </c>
       <c r="G18" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>3.85</v>
@@ -2842,7 +2842,7 @@
         <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.33</v>
@@ -2851,22 +2851,22 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="R18" t="n">
         <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="T18" t="n">
         <v>1.64</v>
@@ -2881,22 +2881,22 @@
         <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="n">
         <v>30</v>
       </c>
       <c r="AA18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD18" t="n">
         <v>15.5</v>
@@ -2914,7 +2914,7 @@
         <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ18" t="n">
         <v>23</v>
@@ -2923,7 +2923,7 @@
         <v>18.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM18" t="n">
         <v>70</v>
@@ -2962,64 +2962,64 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
         <v>2.14</v>
       </c>
       <c r="I19" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="n">
         <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M19" t="n">
         <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S19" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="T19" t="n">
         <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
         <v>90</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="Z19" t="n">
         <v>34</v>
@@ -3058,7 +3058,7 @@
         <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>160</v>
+        <v>970</v>
       </c>
       <c r="AM19" t="n">
         <v>580</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G20" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="H20" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I20" t="n">
         <v>2.58</v>
@@ -3112,43 +3112,43 @@
         <v>3.95</v>
       </c>
       <c r="K20" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O20" t="n">
         <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="R20" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="S20" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="T20" t="n">
         <v>1.51</v>
       </c>
       <c r="U20" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="V20" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W20" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X20" t="n">
         <v>85</v>
@@ -3160,13 +3160,13 @@
         <v>46</v>
       </c>
       <c r="AA20" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AB20" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD20" t="n">
         <v>13</v>
@@ -3178,7 +3178,7 @@
         <v>70</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
         <v>15</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="G21" t="n">
         <v>6.2</v>
@@ -3250,7 +3250,7 @@
         <v>5.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
@@ -3259,49 +3259,49 @@
         <v>7.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R21" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="T21" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="U21" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V21" t="n">
         <v>2.68</v>
       </c>
       <c r="W21" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X21" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="Y21" t="n">
         <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="n">
-        <v>95</v>
+        <v>970</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
         <v>11</v>
@@ -3319,7 +3319,7 @@
         <v>36</v>
       </c>
       <c r="AI21" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
         <v>700</v>
@@ -3367,70 +3367,70 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H22" t="n">
         <v>2.64</v>
       </c>
       <c r="I22" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="J22" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K22" t="n">
         <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P22" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="R22" t="n">
         <v>1.74</v>
       </c>
       <c r="S22" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="T22" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U22" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="V22" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="W22" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X22" t="n">
         <v>80</v>
       </c>
       <c r="Y22" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Z22" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AA22" t="n">
-        <v>290</v>
+        <v>970</v>
       </c>
       <c r="AB22" t="n">
         <v>40</v>
@@ -3445,7 +3445,7 @@
         <v>70</v>
       </c>
       <c r="AF22" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
@@ -3466,13 +3466,13 @@
         <v>48</v>
       </c>
       <c r="AM22" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="23">
@@ -3505,34 +3505,34 @@
         <v>3.15</v>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H23" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I23" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
         <v>3.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.42</v>
+        <v>1.46</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q23" t="n">
         <v>2.12</v>
@@ -3553,16 +3553,16 @@
         <v>1.64</v>
       </c>
       <c r="W23" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y23" t="n">
         <v>10.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA23" t="n">
         <v>38</v>
@@ -3604,7 +3604,7 @@
         <v>110</v>
       </c>
       <c r="AN23" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AO23" t="n">
         <v>26</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H24" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
         <v>3.5</v>
@@ -3655,25 +3655,25 @@
         <v>3.35</v>
       </c>
       <c r="L24" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q24" t="n">
         <v>2.32</v>
       </c>
       <c r="R24" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S24" t="n">
         <v>4.6</v>
@@ -3688,7 +3688,7 @@
         <v>1.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X24" t="n">
         <v>17</v>
@@ -3727,7 +3727,7 @@
         <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>170</v>
+        <v>900</v>
       </c>
       <c r="AK24" t="n">
         <v>1000</v>
@@ -3772,46 +3772,46 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G25" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="I25" t="n">
         <v>1.74</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L25" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="M25" t="n">
         <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O25" t="n">
         <v>1.51</v>
       </c>
       <c r="P25" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.44</v>
+        <v>2.58</v>
       </c>
       <c r="R25" t="n">
         <v>1.2</v>
       </c>
       <c r="S25" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="T25" t="n">
         <v>2.3</v>
@@ -3823,7 +3823,7 @@
         <v>2.34</v>
       </c>
       <c r="W25" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="X25" t="n">
         <v>20</v>
@@ -3907,31 +3907,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G26" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H26" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I26" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K26" t="n">
         <v>3.35</v>
       </c>
       <c r="L26" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="M26" t="n">
         <v>1.12</v>
       </c>
       <c r="N26" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="O26" t="n">
         <v>1.53</v>
@@ -3940,13 +3940,13 @@
         <v>1.54</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="R26" t="n">
         <v>1.19</v>
       </c>
       <c r="S26" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="T26" t="n">
         <v>2.14</v>
@@ -3955,7 +3955,7 @@
         <v>1.74</v>
       </c>
       <c r="V26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W26" t="n">
         <v>1.27</v>
@@ -4042,31 +4042,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G27" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="I27" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
         <v>3.35</v>
       </c>
       <c r="L27" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M27" t="n">
         <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -4075,25 +4075,25 @@
         <v>1.68</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="R27" t="n">
         <v>1.25</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="T27" t="n">
         <v>1.92</v>
       </c>
       <c r="U27" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V27" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W27" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="X27" t="n">
         <v>20</v>
@@ -4105,7 +4105,7 @@
         <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB27" t="n">
         <v>1000</v>
@@ -4177,58 +4177,58 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="G28" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="H28" t="n">
         <v>3.6</v>
       </c>
       <c r="I28" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M28" t="n">
         <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="O28" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P28" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="R28" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
         <v>1.81</v>
       </c>
       <c r="V28" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W28" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="X28" t="n">
         <v>18</v>
@@ -4270,7 +4270,7 @@
         <v>900</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL28" t="n">
         <v>1000</v>
@@ -4312,73 +4312,73 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J29" t="n">
         <v>3.15</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.1</v>
       </c>
       <c r="K29" t="n">
         <v>3.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N29" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O29" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P29" t="n">
         <v>1.61</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S29" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T29" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U29" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V29" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W29" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X29" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB29" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>10.5</v>
       </c>
       <c r="AC29" t="n">
         <v>7.2</v>
@@ -4387,25 +4387,25 @@
         <v>23</v>
       </c>
       <c r="AE29" t="n">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="AF29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
         <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="AJ29" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="AK29" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AL29" t="n">
         <v>380</v>
@@ -4459,10 +4459,10 @@
         <v>3.95</v>
       </c>
       <c r="J30" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K30" t="n">
         <v>3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.05</v>
       </c>
       <c r="L30" t="n">
         <v>1.63</v>
@@ -4477,31 +4477,31 @@
         <v>1.6</v>
       </c>
       <c r="P30" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="R30" t="n">
         <v>1.19</v>
       </c>
       <c r="S30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="T30" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U30" t="n">
         <v>1.78</v>
       </c>
       <c r="V30" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W30" t="n">
         <v>1.69</v>
       </c>
       <c r="X30" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -4510,10 +4510,10 @@
         <v>24</v>
       </c>
       <c r="AA30" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC30" t="n">
         <v>6.8</v>
@@ -4525,13 +4525,13 @@
         <v>65</v>
       </c>
       <c r="AF30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG30" t="n">
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
         <v>90</v>
@@ -4552,7 +4552,7 @@
         <v>36</v>
       </c>
       <c r="AO30" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -4582,100 +4582,100 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="G31" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="H31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I31" t="n">
         <v>4.1</v>
       </c>
-      <c r="I31" t="n">
-        <v>4.7</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K31" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="M31" t="n">
         <v>1.15</v>
       </c>
       <c r="N31" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="O31" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="P31" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S31" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="U31" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="V31" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="W31" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="X31" t="n">
         <v>7.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z31" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AF31" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AJ31" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AK31" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="n">
         <v>210</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G32" t="n">
         <v>8.6</v>
       </c>
-      <c r="G32" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="H32" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="I32" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="J32" t="n">
         <v>6.2</v>
@@ -4741,13 +4741,13 @@
         <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O32" t="n">
         <v>1.12</v>
       </c>
       <c r="P32" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q32" t="n">
         <v>1.36</v>
@@ -4756,19 +4756,19 @@
         <v>2.08</v>
       </c>
       <c r="S32" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T32" t="n">
         <v>1.59</v>
       </c>
       <c r="U32" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="V32" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="W32" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X32" t="n">
         <v>46</v>
@@ -4786,16 +4786,16 @@
         <v>50</v>
       </c>
       <c r="AC32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD32" t="n">
         <v>10.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AG32" t="n">
         <v>32</v>
@@ -4807,7 +4807,7 @@
         <v>22</v>
       </c>
       <c r="AJ32" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AK32" t="n">
         <v>90</v>
@@ -4819,7 +4819,7 @@
         <v>65</v>
       </c>
       <c r="AN32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO32" t="n">
         <v>3.75</v>
@@ -4858,7 +4858,7 @@
         <v>3.4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="I33" t="n">
         <v>2.54</v>
@@ -4867,16 +4867,16 @@
         <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M33" t="n">
         <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O33" t="n">
         <v>1.46</v>
@@ -4885,7 +4885,7 @@
         <v>1.68</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R33" t="n">
         <v>1.25</v>
@@ -4897,16 +4897,16 @@
         <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V33" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W33" t="n">
         <v>1.41</v>
       </c>
       <c r="X33" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y33" t="n">
         <v>8.6</v>
@@ -4918,7 +4918,7 @@
         <v>36</v>
       </c>
       <c r="AB33" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
         <v>7.2</v>
@@ -4948,7 +4948,7 @@
         <v>46</v>
       </c>
       <c r="AL33" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AM33" t="n">
         <v>140</v>
@@ -4990,22 +4990,22 @@
         <v>2.5</v>
       </c>
       <c r="G34" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H34" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I34" t="n">
         <v>3.9</v>
       </c>
       <c r="J34" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K34" t="n">
         <v>2.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="M34" t="n">
         <v>1.18</v>
@@ -5014,13 +5014,13 @@
         <v>2.28</v>
       </c>
       <c r="O34" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P34" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="R34" t="n">
         <v>1.13</v>
@@ -5032,22 +5032,22 @@
         <v>2.44</v>
       </c>
       <c r="U34" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V34" t="n">
         <v>1.34</v>
       </c>
       <c r="W34" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X34" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA34" t="n">
         <v>110</v>
@@ -5059,10 +5059,10 @@
         <v>7</v>
       </c>
       <c r="AD34" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF34" t="n">
         <v>13.5</v>
@@ -5083,10 +5083,10 @@
         <v>100</v>
       </c>
       <c r="AL34" t="n">
-        <v>460</v>
+        <v>95</v>
       </c>
       <c r="AM34" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AN34" t="n">
         <v>55</v>
@@ -5122,58 +5122,58 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G35" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
         <v>4.2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
         <v>3.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="M35" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="O35" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P35" t="n">
         <v>1.52</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="R35" t="n">
         <v>1.18</v>
       </c>
       <c r="S35" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="T35" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="U35" t="n">
         <v>1.72</v>
       </c>
       <c r="V35" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W35" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="X35" t="n">
         <v>15.5</v>
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="G36" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="H36" t="n">
         <v>7</v>
@@ -5275,43 +5275,43 @@
         <v>4.5</v>
       </c>
       <c r="L36" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S36" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="T36" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U36" t="n">
         <v>1.75</v>
       </c>
       <c r="V36" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W36" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="X36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y36" t="n">
         <v>24</v>
@@ -5404,31 +5404,31 @@
         <v>5.6</v>
       </c>
       <c r="J37" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K37" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L37" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R37" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S37" t="n">
         <v>3.9</v>
@@ -5440,7 +5440,7 @@
         <v>1.86</v>
       </c>
       <c r="V37" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W37" t="n">
         <v>2.16</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -670,70 +670,70 @@
         <v>3.6</v>
       </c>
       <c r="G2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
         <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P2" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="R2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S2" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="V2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
         <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
         <v>7.4</v>
@@ -745,26 +745,26 @@
         <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
         <v>16.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>150</v>
       </c>
       <c r="AJ2" t="n">
+        <v>250</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL2" t="n">
         <v>190</v>
       </c>
-      <c r="AK2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="I3" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="J3" t="n">
         <v>3.8</v>
@@ -820,7 +820,7 @@
         <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -829,43 +829,43 @@
         <v>3.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T3" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="W3" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y3" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
@@ -874,10 +874,10 @@
         <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -889,7 +889,7 @@
         <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -1075,13 +1075,13 @@
         <v>3.4</v>
       </c>
       <c r="G5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H5" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="J5" t="n">
         <v>2.74</v>
@@ -1090,73 +1090,73 @@
         <v>2.86</v>
       </c>
       <c r="L5" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="M5" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="N5" t="n">
         <v>2.12</v>
       </c>
       <c r="O5" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="P5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="R5" t="n">
         <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="T5" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="U5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.54</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.55</v>
       </c>
       <c r="W5" t="n">
         <v>1.37</v>
       </c>
       <c r="X5" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AB5" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>450</v>
+        <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>500</v>
@@ -1177,7 +1177,7 @@
         <v>600</v>
       </c>
       <c r="AO5" t="n">
-        <v>230</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1207,31 +1207,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H6" t="n">
         <v>5.5</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
         <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
         <v>1.45</v>
@@ -1240,7 +1240,7 @@
         <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
@@ -1249,10 +1249,10 @@
         <v>4.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V6" t="n">
         <v>1.2</v>
@@ -1267,7 +1267,7 @@
         <v>16</v>
       </c>
       <c r="Z6" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
@@ -1294,7 +1294,7 @@
         <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>700</v>
       </c>
       <c r="AJ6" t="n">
         <v>21</v>
@@ -1309,7 +1309,7 @@
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
         <v>700</v>
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="I7" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="J7" t="n">
         <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1369,7 +1369,7 @@
         <v>3.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
         <v>1.69</v>
@@ -1381,16 +1381,16 @@
         <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U7" t="n">
         <v>1.84</v>
       </c>
       <c r="V7" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W7" t="n">
         <v>1.23</v>
@@ -1402,7 +1402,7 @@
         <v>7</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>22</v>
@@ -1411,7 +1411,7 @@
         <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
         <v>10.5</v>
@@ -1429,16 +1429,16 @@
         <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
         <v>85</v>
       </c>
       <c r="AL7" t="n">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AM7" t="n">
         <v>170</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G8" t="n">
         <v>2.26</v>
@@ -1501,76 +1501,76 @@
         <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O8" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P8" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q8" t="n">
         <v>2.62</v>
       </c>
       <c r="R8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S8" t="n">
         <v>5.3</v>
       </c>
       <c r="T8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U8" t="n">
         <v>1.79</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
         <v>1.79</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AA8" t="n">
         <v>290</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="n">
         <v>480</v>
       </c>
       <c r="AF8" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AK8" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="n">
         <v>380</v>
@@ -1579,7 +1579,7 @@
         <v>580</v>
       </c>
       <c r="AN8" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO8" t="n">
         <v>600</v>
@@ -1624,7 +1624,7 @@
         <v>11.5</v>
       </c>
       <c r="J9" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
         <v>4.9</v>
@@ -1639,10 +1639,10 @@
         <v>3.35</v>
       </c>
       <c r="O9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
         <v>2.2</v>
@@ -1654,7 +1654,7 @@
         <v>4.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
         <v>1.64</v>
@@ -1663,7 +1663,7 @@
         <v>1.1</v>
       </c>
       <c r="W9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="X9" t="n">
         <v>13.5</v>
@@ -1693,7 +1693,7 @@
         <v>7.8</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
         <v>85</v>
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G10" t="n">
         <v>2.16</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I10" t="n">
         <v>4.4</v>
       </c>
       <c r="J10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N10" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.25</v>
       </c>
       <c r="O10" t="n">
         <v>1.39</v>
@@ -1783,7 +1783,7 @@
         <v>2.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
         <v>4</v>
@@ -1795,13 +1795,13 @@
         <v>1.96</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W10" t="n">
         <v>1.87</v>
       </c>
       <c r="X10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>1000</v>
@@ -1813,7 +1813,7 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
         <v>14</v>
@@ -1837,10 +1837,10 @@
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G11" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.9</v>
@@ -1906,31 +1906,31 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="T11" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W11" t="n">
         <v>2</v>
@@ -1939,7 +1939,7 @@
         <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z11" t="n">
         <v>95</v>
@@ -1987,7 +1987,7 @@
         <v>10.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -2017,49 +2017,49 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I12" t="n">
         <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R12" t="n">
         <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="U12" t="n">
         <v>1.66</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
         <v>21</v>
@@ -2113,7 +2113,7 @@
         <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2155,7 +2155,7 @@
         <v>1.99</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
         <v>4.7</v>
@@ -2167,7 +2167,7 @@
         <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.48</v>
@@ -2176,25 +2176,25 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="R13" t="n">
         <v>1.31</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U13" t="n">
         <v>2</v>
@@ -2203,13 +2203,13 @@
         <v>1.26</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
         <v>34</v>
@@ -2221,7 +2221,7 @@
         <v>8.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
         <v>18.5</v>
@@ -2236,7 +2236,7 @@
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>330</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G14" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
         <v>2.96</v>
@@ -2299,10 +2299,10 @@
         <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
         <v>1.51</v>
@@ -2311,7 +2311,7 @@
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2329,31 +2329,31 @@
         <v>4.5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>1.47</v>
       </c>
       <c r="W14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X14" t="n">
         <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA14" t="n">
         <v>160</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
         <v>7.2</v>
@@ -2374,10 +2374,10 @@
         <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="AK14" t="n">
         <v>85</v>
@@ -2392,7 +2392,7 @@
         <v>36</v>
       </c>
       <c r="AO14" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G15" t="n">
         <v>2.54</v>
       </c>
-      <c r="G15" t="n">
-        <v>2.64</v>
-      </c>
       <c r="H15" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J15" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>3.6</v>
@@ -2446,13 +2446,13 @@
         <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q15" t="n">
         <v>2.02</v>
@@ -2464,31 +2464,31 @@
         <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W15" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="X15" t="n">
         <v>27</v>
       </c>
       <c r="Y15" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
         <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC15" t="n">
         <v>14</v>
@@ -2503,7 +2503,7 @@
         <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
         <v>60</v>
@@ -2512,7 +2512,7 @@
         <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AK15" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="G16" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="H16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="I16" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="J16" t="n">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="K16" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.36</v>
@@ -2581,10 +2581,10 @@
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P16" t="n">
         <v>2.16</v>
@@ -2593,76 +2593,76 @@
         <v>1.81</v>
       </c>
       <c r="R16" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S16" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="U16" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="V16" t="n">
         <v>1.06</v>
       </c>
       <c r="W16" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y16" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z16" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AA16" t="n">
-        <v>990</v>
+        <v>770</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC16" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
         <v>65</v>
       </c>
       <c r="AE16" t="n">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="AF16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AI16" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AJ16" t="n">
         <v>9.4</v>
       </c>
       <c r="AK16" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL16" t="n">
         <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AO16" t="n">
-        <v>690</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I17" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J17" t="n">
         <v>2.84</v>
@@ -2716,16 +2716,16 @@
         <v>1.17</v>
       </c>
       <c r="N17" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="O17" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="P17" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="R17" t="n">
         <v>1.14</v>
@@ -2740,10 +2740,10 @@
         <v>1.66</v>
       </c>
       <c r="V17" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W17" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X17" t="n">
         <v>7.4</v>
@@ -2752,7 +2752,7 @@
         <v>7.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
         <v>900</v>
@@ -2773,7 +2773,7 @@
         <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
         <v>65</v>
@@ -2794,7 +2794,7 @@
         <v>290</v>
       </c>
       <c r="AN17" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
       <c r="AO17" t="n">
         <v>55</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -2854,19 +2854,19 @@
         <v>5.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
         <v>2.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="R18" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S18" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="T18" t="n">
         <v>1.64</v>
@@ -2881,13 +2881,13 @@
         <v>2</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="n">
         <v>75</v>
@@ -2896,7 +2896,7 @@
         <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD18" t="n">
         <v>15.5</v>
@@ -2914,22 +2914,22 @@
         <v>16</v>
       </c>
       <c r="AI18" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
         <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM18" t="n">
         <v>70</v>
       </c>
       <c r="AN18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
         <v>32</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H19" t="n">
         <v>2.14</v>
@@ -3004,16 +3004,16 @@
         <v>3.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U19" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X19" t="n">
         <v>90</v>
@@ -3031,7 +3031,7 @@
         <v>30</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>17</v>
@@ -3064,7 +3064,7 @@
         <v>580</v>
       </c>
       <c r="AN19" t="n">
-        <v>980</v>
+        <v>600</v>
       </c>
       <c r="AO19" t="n">
         <v>55</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G20" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="H20" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I20" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J20" t="n">
         <v>3.95</v>
@@ -3124,49 +3124,49 @@
         <v>6.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="S20" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="T20" t="n">
         <v>1.51</v>
       </c>
       <c r="U20" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="V20" t="n">
         <v>1.64</v>
       </c>
       <c r="W20" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X20" t="n">
         <v>85</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
         <v>46</v>
       </c>
       <c r="AA20" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AB20" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AC20" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AD20" t="n">
         <v>13</v>
@@ -3178,16 +3178,16 @@
         <v>70</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
         <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>290</v>
+        <v>970</v>
       </c>
       <c r="AK20" t="n">
         <v>70</v>
@@ -3196,13 +3196,13 @@
         <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="21">
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="G21" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H21" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="I21" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="J21" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="K21" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.25</v>
@@ -3259,13 +3259,13 @@
         <v>7.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="R21" t="n">
         <v>1.83</v>
@@ -3274,40 +3274,40 @@
         <v>2.14</v>
       </c>
       <c r="T21" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U21" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="V21" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="W21" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X21" t="n">
         <v>95</v>
       </c>
       <c r="Y21" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Z21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AB21" t="n">
         <v>970</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF21" t="n">
         <v>160</v>
@@ -3316,7 +3316,7 @@
         <v>970</v>
       </c>
       <c r="AH21" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
         <v>65</v>
@@ -3337,7 +3337,7 @@
         <v>48</v>
       </c>
       <c r="AO21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="22">
@@ -3367,25 +3367,25 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G22" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H22" t="n">
         <v>2.64</v>
       </c>
       <c r="I22" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="J22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K22" t="n">
         <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -3406,19 +3406,19 @@
         <v>1.74</v>
       </c>
       <c r="S22" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T22" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U22" t="n">
         <v>2.82</v>
       </c>
       <c r="V22" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X22" t="n">
         <v>80</v>
@@ -3430,16 +3430,16 @@
         <v>65</v>
       </c>
       <c r="AA22" t="n">
-        <v>970</v>
+        <v>290</v>
       </c>
       <c r="AB22" t="n">
         <v>40</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>70</v>
@@ -3451,7 +3451,7 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>65</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G23" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J23" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
         <v>3.4</v>
@@ -3529,10 +3529,10 @@
         <v>3.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q23" t="n">
         <v>2.12</v>
@@ -3547,7 +3547,7 @@
         <v>1.83</v>
       </c>
       <c r="U23" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
         <v>1.64</v>
@@ -3556,7 +3556,7 @@
         <v>1.44</v>
       </c>
       <c r="X23" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y23" t="n">
         <v>10.5</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J24" t="n">
         <v>3.05</v>
       </c>
       <c r="K24" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L24" t="n">
         <v>1.5</v>
@@ -3673,7 +3673,7 @@
         <v>2.32</v>
       </c>
       <c r="R24" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S24" t="n">
         <v>4.6</v>
@@ -3691,7 +3691,7 @@
         <v>1.59</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
         <v>1000</v>
@@ -3706,7 +3706,7 @@
         <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD24" t="n">
         <v>1000</v>
@@ -3796,34 +3796,34 @@
         <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="O25" t="n">
         <v>1.51</v>
       </c>
       <c r="P25" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R25" t="n">
         <v>1.2</v>
       </c>
       <c r="S25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T25" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="U25" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="V25" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="W25" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="X25" t="n">
         <v>20</v>
@@ -3841,7 +3841,7 @@
         <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AD25" t="n">
         <v>28</v>
@@ -3940,13 +3940,13 @@
         <v>1.54</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="R26" t="n">
         <v>1.19</v>
       </c>
       <c r="S26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="T26" t="n">
         <v>2.14</v>
@@ -3961,43 +3961,43 @@
         <v>1.27</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AB26" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AE26" t="n">
         <v>110</v>
       </c>
       <c r="AF26" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AH26" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK26" t="n">
         <v>1000</v>
@@ -4012,7 +4012,7 @@
         <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,16 +4042,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H27" t="n">
         <v>2.36</v>
       </c>
       <c r="I27" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="J27" t="n">
         <v>3.2</v>
@@ -4075,13 +4075,13 @@
         <v>1.68</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R27" t="n">
         <v>1.25</v>
       </c>
       <c r="S27" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T27" t="n">
         <v>1.92</v>
@@ -4090,7 +4090,7 @@
         <v>1.93</v>
       </c>
       <c r="V27" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W27" t="n">
         <v>1.39</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G28" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H28" t="n">
         <v>3.6</v>
@@ -4189,10 +4189,10 @@
         <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L28" t="n">
         <v>1.53</v>
@@ -4201,7 +4201,7 @@
         <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O28" t="n">
         <v>1.47</v>
@@ -4216,19 +4216,19 @@
         <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U28" t="n">
         <v>1.81</v>
       </c>
       <c r="V28" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W28" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X28" t="n">
         <v>18</v>
@@ -4249,7 +4249,7 @@
         <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
@@ -4321,7 +4321,7 @@
         <v>2.56</v>
       </c>
       <c r="I29" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J29" t="n">
         <v>3.15</v>
@@ -4336,7 +4336,7 @@
         <v>1.12</v>
       </c>
       <c r="N29" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O29" t="n">
         <v>1.51</v>
@@ -4348,28 +4348,28 @@
         <v>2.58</v>
       </c>
       <c r="R29" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
         <v>5.3</v>
       </c>
       <c r="T29" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U29" t="n">
         <v>1.84</v>
       </c>
       <c r="V29" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W29" t="n">
         <v>1.42</v>
       </c>
       <c r="X29" t="n">
-        <v>13.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="Z29" t="n">
         <v>15</v>
@@ -4378,7 +4378,7 @@
         <v>38</v>
       </c>
       <c r="AB29" t="n">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="AC29" t="n">
         <v>7.2</v>
@@ -4387,7 +4387,7 @@
         <v>23</v>
       </c>
       <c r="AE29" t="n">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="AF29" t="n">
         <v>22</v>
@@ -4402,7 +4402,7 @@
         <v>150</v>
       </c>
       <c r="AJ29" t="n">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="AK29" t="n">
         <v>48</v>
@@ -4417,7 +4417,7 @@
         <v>60</v>
       </c>
       <c r="AO29" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G30" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H30" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I30" t="n">
         <v>3.9</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.95</v>
       </c>
       <c r="J30" t="n">
         <v>2.98</v>
@@ -4471,7 +4471,7 @@
         <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="O30" t="n">
         <v>1.6</v>
@@ -4480,7 +4480,7 @@
         <v>1.52</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="R30" t="n">
         <v>1.19</v>
@@ -4489,19 +4489,19 @@
         <v>6</v>
       </c>
       <c r="T30" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U30" t="n">
         <v>1.78</v>
       </c>
       <c r="V30" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W30" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X30" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -4513,7 +4513,7 @@
         <v>90</v>
       </c>
       <c r="AB30" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC30" t="n">
         <v>6.8</v>
@@ -4525,16 +4525,16 @@
         <v>65</v>
       </c>
       <c r="AF30" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG30" t="n">
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ30" t="n">
         <v>34</v>
@@ -4549,7 +4549,7 @@
         <v>200</v>
       </c>
       <c r="AN30" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO30" t="n">
         <v>95</v>
@@ -4582,25 +4582,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="G31" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="J31" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="K31" t="n">
         <v>3.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="M31" t="n">
         <v>1.15</v>
@@ -4609,13 +4609,13 @@
         <v>2.38</v>
       </c>
       <c r="O31" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P31" t="n">
         <v>1.46</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R31" t="n">
         <v>1.16</v>
@@ -4627,67 +4627,67 @@
         <v>2.22</v>
       </c>
       <c r="U31" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V31" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="W31" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="X31" t="n">
         <v>7.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA31" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="AF31" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AK31" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AL31" t="n">
-        <v>210</v>
+        <v>500</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -4744,7 +4744,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P32" t="n">
         <v>3.65</v>
@@ -4753,7 +4753,7 @@
         <v>1.36</v>
       </c>
       <c r="R32" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="S32" t="n">
         <v>1.91</v>
@@ -4762,7 +4762,7 @@
         <v>1.59</v>
       </c>
       <c r="U32" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="V32" t="n">
         <v>3.55</v>
@@ -4774,13 +4774,13 @@
         <v>46</v>
       </c>
       <c r="Y32" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z32" t="n">
         <v>12.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB32" t="n">
         <v>50</v>
@@ -4804,7 +4804,7 @@
         <v>20</v>
       </c>
       <c r="AI32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ32" t="n">
         <v>250</v>
@@ -4816,13 +4816,13 @@
         <v>65</v>
       </c>
       <c r="AM32" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN32" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AO32" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="33">
@@ -4858,10 +4858,10 @@
         <v>3.4</v>
       </c>
       <c r="H33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I33" t="n">
         <v>2.52</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.54</v>
       </c>
       <c r="J33" t="n">
         <v>3.25</v>
@@ -4870,37 +4870,37 @@
         <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M33" t="n">
         <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P33" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="R33" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S33" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U33" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V33" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="W33" t="n">
         <v>1.41</v>
@@ -4909,7 +4909,7 @@
         <v>10.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z33" t="n">
         <v>14.5</v>
@@ -4936,19 +4936,19 @@
         <v>14.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ33" t="n">
         <v>65</v>
       </c>
       <c r="AK33" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL33" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AM33" t="n">
         <v>140</v>
@@ -4957,7 +4957,7 @@
         <v>55</v>
       </c>
       <c r="AO33" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -4990,28 +4990,28 @@
         <v>2.5</v>
       </c>
       <c r="G34" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="H34" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I34" t="n">
         <v>3.9</v>
       </c>
       <c r="J34" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K34" t="n">
         <v>2.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="M34" t="n">
         <v>1.18</v>
       </c>
       <c r="N34" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="O34" t="n">
         <v>1.75</v>
@@ -5020,25 +5020,25 @@
         <v>1.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R34" t="n">
         <v>1.13</v>
       </c>
       <c r="S34" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="T34" t="n">
         <v>2.44</v>
       </c>
       <c r="U34" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V34" t="n">
         <v>1.34</v>
       </c>
       <c r="W34" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X34" t="n">
         <v>6.4</v>
@@ -5047,10 +5047,10 @@
         <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA34" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB34" t="n">
         <v>6.6</v>
@@ -5071,7 +5071,7 @@
         <v>14</v>
       </c>
       <c r="AH34" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AI34" t="n">
         <v>130</v>
@@ -5080,7 +5080,7 @@
         <v>40</v>
       </c>
       <c r="AK34" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AL34" t="n">
         <v>95</v>
@@ -5089,7 +5089,7 @@
         <v>300</v>
       </c>
       <c r="AN34" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AO34" t="n">
         <v>140</v>
@@ -5164,7 +5164,7 @@
         <v>5.7</v>
       </c>
       <c r="T35" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="U35" t="n">
         <v>1.72</v>
@@ -5302,10 +5302,10 @@
         <v>2.08</v>
       </c>
       <c r="U36" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V36" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W36" t="n">
         <v>2.52</v>
@@ -5314,7 +5314,7 @@
         <v>15.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z36" t="n">
         <v>1000</v>
@@ -5407,7 +5407,7 @@
         <v>3.6</v>
       </c>
       <c r="K37" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L37" t="n">
         <v>1.46</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,103 +667,103 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="I2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J2" t="n">
         <v>3.05</v>
       </c>
       <c r="K2" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N2" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="O2" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="P2" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="R2" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="T2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U2" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X2" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.8</v>
+        <v>500</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5</v>
+        <v>960</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>900</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
         <v>32</v>
       </c>
-      <c r="AF2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>960</v>
       </c>
       <c r="AI2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>250</v>
+        <v>960</v>
       </c>
       <c r="AK2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="I3" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="O3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.35</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S3" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
         <v>1.98</v>
       </c>
       <c r="U3" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="W3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X3" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA3" t="n">
-        <v>180</v>
+        <v>14.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>19</v>
       </c>
       <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
         <v>65</v>
       </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>970</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="I5" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>2.74</v>
       </c>
       <c r="K5" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="L5" t="n">
         <v>1.79</v>
@@ -1096,10 +1096,10 @@
         <v>1.2</v>
       </c>
       <c r="N5" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="P5" t="n">
         <v>1.33</v>
@@ -1111,19 +1111,19 @@
         <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T5" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="U5" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="V5" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="W5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>980</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1159,7 +1159,7 @@
         <v>980</v>
       </c>
       <c r="AI5" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>500</v>
@@ -1168,7 +1168,7 @@
         <v>500</v>
       </c>
       <c r="AL5" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>500</v>
@@ -1210,16 +1210,16 @@
         <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>3.65</v>
@@ -1231,16 +1231,16 @@
         <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
         <v>1.68</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R6" t="n">
         <v>1.25</v>
@@ -1252,55 +1252,55 @@
         <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="V6" t="n">
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
         <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>290</v>
+        <v>700</v>
       </c>
       <c r="AF6" t="n">
         <v>10.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>700</v>
+        <v>290</v>
       </c>
       <c r="AJ6" t="n">
         <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AL6" t="n">
         <v>55</v>
@@ -1309,7 +1309,7 @@
         <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
         <v>700</v>
@@ -1342,34 +1342,34 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G7" t="n">
         <v>5.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="I7" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
         <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P7" t="n">
         <v>1.69</v>
@@ -1384,19 +1384,19 @@
         <v>4.6</v>
       </c>
       <c r="T7" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="W7" t="n">
         <v>1.23</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
         <v>7</v>
@@ -1405,13 +1405,13 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB7" t="n">
         <v>14.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD7" t="n">
         <v>10.5</v>
@@ -1420,7 +1420,7 @@
         <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG7" t="n">
         <v>21</v>
@@ -1429,25 +1429,25 @@
         <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
         <v>900</v>
       </c>
       <c r="AK7" t="n">
-        <v>85</v>
+        <v>480</v>
       </c>
       <c r="AL7" t="n">
         <v>100</v>
       </c>
       <c r="AM7" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AN7" t="n">
         <v>120</v>
       </c>
       <c r="AO7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G8" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
         <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L8" t="n">
         <v>1.57</v>
@@ -1510,76 +1510,76 @@
         <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
         <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="X8" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD8" t="n">
         <v>22</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>38</v>
       </c>
       <c r="AE8" t="n">
         <v>480</v>
       </c>
       <c r="AF8" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="n">
         <v>500</v>
       </c>
       <c r="AJ8" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AK8" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL8" t="n">
         <v>380</v>
       </c>
       <c r="AM8" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN8" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="AO8" t="n">
         <v>600</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,118 +1603,118 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.43</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>2.16</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R9" t="n">
         <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>1.94</v>
       </c>
       <c r="U9" t="n">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="V9" t="n">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>3.15</v>
+        <v>1.87</v>
       </c>
       <c r="X9" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN9" t="n">
         <v>65</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>280</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,73 +1738,73 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.04</v>
+        <v>1.43</v>
       </c>
       <c r="G10" t="n">
-        <v>2.16</v>
+        <v>1.45</v>
       </c>
       <c r="H10" t="n">
-        <v>3.95</v>
+        <v>10.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.47</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
         <v>3.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
         <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="V10" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="W10" t="n">
-        <v>1.87</v>
+        <v>3.2</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1813,43 +1813,43 @@
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AJ10" t="n">
-        <v>900</v>
+        <v>12</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>18.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>9.6</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
         <v>1.32</v>
@@ -1906,25 +1906,25 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
         <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="n">
         <v>2.4</v>
@@ -1933,22 +1933,22 @@
         <v>1.31</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X11" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="n">
         <v>21</v>
       </c>
-      <c r="Y11" t="n">
-        <v>19.5</v>
-      </c>
       <c r="Z11" t="n">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
         <v>9.6</v>
@@ -1957,10 +1957,10 @@
         <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1969,25 +1969,25 @@
         <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK11" t="n">
         <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -2017,58 +2017,58 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G12" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
         <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T12" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U12" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V12" t="n">
         <v>1.11</v>
       </c>
       <c r="W12" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="X12" t="n">
         <v>26</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
         <v>21</v>
@@ -2107,7 +2107,7 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="AK12" t="n">
         <v>65</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H13" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2170,94 +2170,94 @@
         <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T13" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="G14" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="J14" t="n">
         <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L14" t="n">
         <v>1.51</v>
@@ -2314,7 +2314,7 @@
         <v>3.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
         <v>1.69</v>
@@ -2323,37 +2323,37 @@
         <v>2.36</v>
       </c>
       <c r="R14" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="W14" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X14" t="n">
         <v>10.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>340</v>
+      </c>
+      <c r="AB14" t="n">
         <v>10</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
         <v>7.2</v>
@@ -2362,43 +2362,43 @@
         <v>13.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
         <v>19</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AJ14" t="n">
         <v>230</v>
       </c>
       <c r="AK14" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AO14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="R15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.35</v>
       </c>
-      <c r="S15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.43</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="X15" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL15" t="n">
         <v>60</v>
       </c>
-      <c r="AI15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.3</v>
+        <v>3.55</v>
       </c>
       <c r="G16" t="n">
-        <v>1.32</v>
+        <v>3.75</v>
       </c>
       <c r="H16" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z16" t="n">
         <v>16</v>
       </c>
-      <c r="I16" t="n">
-        <v>19</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W16" t="n">
-        <v>4</v>
-      </c>
-      <c r="X16" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>160</v>
-      </c>
       <c r="AA16" t="n">
-        <v>770</v>
+        <v>900</v>
       </c>
       <c r="AB16" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>190</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>340</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO16" t="n">
         <v>65</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>340</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>260</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>310</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>3.6</v>
       </c>
       <c r="G17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
-        <v>2.54</v>
+        <v>2.14</v>
       </c>
       <c r="I17" t="n">
-        <v>2.66</v>
+        <v>2.18</v>
       </c>
       <c r="J17" t="n">
-        <v>2.84</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>2.98</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="M17" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>2.34</v>
+        <v>4.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.69</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.14</v>
-      </c>
       <c r="S17" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="T17" t="n">
-        <v>2.34</v>
+        <v>1.65</v>
       </c>
       <c r="U17" t="n">
-        <v>1.66</v>
+        <v>2.28</v>
       </c>
       <c r="V17" t="n">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="W17" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>7.4</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.2</v>
+        <v>11.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AB17" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AG17" t="n">
         <v>16</v>
       </c>
       <c r="AH17" t="n">
-        <v>65</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="AJ17" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="AK17" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AL17" t="n">
-        <v>340</v>
+        <v>970</v>
       </c>
       <c r="AM17" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="AN17" t="n">
-        <v>600</v>
+        <v>38</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>2.54</v>
       </c>
       <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
         <v>3.85</v>
       </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="O18" t="n">
         <v>1.33</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.21</v>
-      </c>
       <c r="P18" t="n">
-        <v>2.42</v>
+        <v>1.94</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
-        <v>1.56</v>
+        <v>1.36</v>
       </c>
       <c r="S18" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="W18" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="X18" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB18" t="n">
         <v>22</v>
       </c>
-      <c r="Y18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="AK18" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,40 +2953,40 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="G19" t="n">
-        <v>3.75</v>
+        <v>1.31</v>
       </c>
       <c r="H19" t="n">
-        <v>2.14</v>
+        <v>16</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>5.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.26</v>
@@ -2995,79 +2995,79 @@
         <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R19" t="n">
         <v>1.45</v>
       </c>
       <c r="S19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.64</v>
+        <v>2.42</v>
       </c>
       <c r="U19" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="V19" t="n">
-        <v>1.84</v>
+        <v>1.06</v>
       </c>
       <c r="W19" t="n">
-        <v>1.36</v>
+        <v>4.2</v>
       </c>
       <c r="X19" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="Y19" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="Z19" t="n">
-        <v>34</v>
+        <v>160</v>
       </c>
       <c r="AA19" t="n">
-        <v>980</v>
+        <v>820</v>
       </c>
       <c r="AB19" t="n">
-        <v>30</v>
+        <v>7.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AE19" t="n">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>290</v>
       </c>
       <c r="AJ19" t="n">
-        <v>440</v>
+        <v>9.4</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
       <c r="AN19" t="n">
-        <v>600</v>
+        <v>5.7</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="G20" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="J20" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.27</v>
@@ -3127,61 +3127,61 @@
         <v>1.16</v>
       </c>
       <c r="P20" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R20" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="S20" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T20" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="U20" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="V20" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="W20" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X20" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="Y20" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AA20" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AB20" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AC20" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
         <v>60</v>
       </c>
       <c r="AF20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AI20" t="n">
         <v>65</v>
@@ -3193,16 +3193,16 @@
         <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AM20" t="n">
         <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO20" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="G21" t="n">
         <v>6.4</v>
@@ -3247,10 +3247,10 @@
         <v>5.1</v>
       </c>
       <c r="K21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M21" t="n">
         <v>1.02</v>
@@ -3262,37 +3262,37 @@
         <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S21" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T21" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U21" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V21" t="n">
         <v>2.74</v>
       </c>
       <c r="W21" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X21" t="n">
         <v>95</v>
       </c>
       <c r="Y21" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA21" t="n">
         <v>16</v>
@@ -3301,7 +3301,7 @@
         <v>970</v>
       </c>
       <c r="AC21" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AD21" t="n">
         <v>10.5</v>
@@ -3316,10 +3316,10 @@
         <v>970</v>
       </c>
       <c r="AH21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI21" t="n">
         <v>970</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>65</v>
       </c>
       <c r="AJ21" t="n">
         <v>700</v>
@@ -3334,10 +3334,10 @@
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -3370,7 +3370,7 @@
         <v>2.5</v>
       </c>
       <c r="G22" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H22" t="n">
         <v>2.64</v>
@@ -3379,7 +3379,7 @@
         <v>2.76</v>
       </c>
       <c r="J22" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>4.4</v>
@@ -3388,7 +3388,7 @@
         <v>1.27</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N22" t="n">
         <v>6.4</v>
@@ -3403,34 +3403,34 @@
         <v>1.49</v>
       </c>
       <c r="R22" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
         <v>2.28</v>
       </c>
       <c r="T22" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U22" t="n">
         <v>2.82</v>
       </c>
       <c r="V22" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W22" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X22" t="n">
         <v>80</v>
       </c>
       <c r="Y22" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AA22" t="n">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="AB22" t="n">
         <v>40</v>
@@ -3439,7 +3439,7 @@
         <v>10.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
         <v>70</v>
@@ -3463,7 +3463,7 @@
         <v>42</v>
       </c>
       <c r="AL22" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
         <v>200</v>
@@ -3472,13 +3472,13 @@
         <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J23" t="n">
         <v>3.2</v>
       </c>
-      <c r="G23" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K23" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L23" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="R23" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="S23" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.83</v>
+        <v>1.05</v>
       </c>
       <c r="U23" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W23" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="X23" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.5</v>
+        <v>500</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AE23" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3628,109 +3628,109 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.52</v>
+        <v>4.3</v>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>4.9</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>2.08</v>
       </c>
       <c r="I24" t="n">
-        <v>3.55</v>
+        <v>2.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N24" t="n">
-        <v>3.05</v>
+        <v>2.68</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="P24" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.32</v>
+        <v>2.66</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="S24" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.93</v>
+        <v>1.05</v>
       </c>
       <c r="U24" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="V24" t="n">
-        <v>1.4</v>
+        <v>1.84</v>
       </c>
       <c r="W24" t="n">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="X24" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA24" t="n">
-        <v>900</v>
+        <v>130</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>14</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AJ24" t="n">
         <v>900</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AL24" t="n">
         <v>1000</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25">
@@ -3763,109 +3763,109 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6.8</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>8.199999999999999</v>
+        <v>2.48</v>
       </c>
       <c r="H25" t="n">
-        <v>1.67</v>
+        <v>3.45</v>
       </c>
       <c r="I25" t="n">
-        <v>1.74</v>
+        <v>3.95</v>
       </c>
       <c r="J25" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="L25" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="M25" t="n">
         <v>1.11</v>
       </c>
       <c r="N25" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="P25" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="R25" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S25" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="T25" t="n">
-        <v>2.36</v>
+        <v>1.99</v>
       </c>
       <c r="U25" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="V25" t="n">
-        <v>2.44</v>
+        <v>1.34</v>
       </c>
       <c r="W25" t="n">
-        <v>1.13</v>
+        <v>1.67</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG25" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH25" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
@@ -3874,10 +3874,10 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO25" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3898,106 +3898,106 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.3</v>
+        <v>2.44</v>
       </c>
       <c r="G26" t="n">
-        <v>4.9</v>
+        <v>2.54</v>
       </c>
       <c r="H26" t="n">
-        <v>2.08</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.68</v>
+        <v>2.34</v>
       </c>
       <c r="R26" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S26" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="T26" t="n">
-        <v>2.14</v>
+        <v>1.9</v>
       </c>
       <c r="U26" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="V26" t="n">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="W26" t="n">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="X26" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="AB26" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="AE26" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AG26" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AH26" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AI26" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="AK26" t="n">
         <v>1000</v>
@@ -4033,98 +4033,98 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.35</v>
+        <v>6.8</v>
       </c>
       <c r="G27" t="n">
-        <v>3.65</v>
+        <v>8</v>
       </c>
       <c r="H27" t="n">
-        <v>2.36</v>
+        <v>1.63</v>
       </c>
       <c r="I27" t="n">
-        <v>2.48</v>
+        <v>1.7</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O27" t="n">
         <v>1.51</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.44</v>
-      </c>
       <c r="P27" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="R27" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S27" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.92</v>
+        <v>2.32</v>
       </c>
       <c r="U27" t="n">
-        <v>1.93</v>
+        <v>1.59</v>
       </c>
       <c r="V27" t="n">
-        <v>1.68</v>
+        <v>2.4</v>
       </c>
       <c r="W27" t="n">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="X27" t="n">
         <v>20</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA27" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG27" t="n">
         <v>500</v>
       </c>
-      <c r="AB27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH27" t="n">
         <v>1000</v>
       </c>
@@ -4147,13 +4147,13 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.26</v>
+        <v>3.15</v>
       </c>
       <c r="G28" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>2.54</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K28" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="O28" t="n">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="S28" t="n">
-        <v>4.8</v>
+        <v>3.85</v>
       </c>
       <c r="T28" t="n">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="U28" t="n">
-        <v>1.81</v>
+        <v>2.12</v>
       </c>
       <c r="V28" t="n">
-        <v>1.34</v>
+        <v>1.63</v>
       </c>
       <c r="W28" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AC28" t="n">
         <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>34</v>
+        <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF28" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AG28" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>60</v>
+        <v>17.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ28" t="n">
-        <v>900</v>
+        <v>55</v>
       </c>
       <c r="AK28" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.3</v>
+        <v>2.48</v>
       </c>
       <c r="G29" t="n">
-        <v>3.35</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
-        <v>2.56</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="K29" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="M29" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N29" t="n">
-        <v>2.86</v>
+        <v>2.64</v>
       </c>
       <c r="O29" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="P29" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.58</v>
+        <v>2.84</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="S29" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="T29" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="U29" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="V29" t="n">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="W29" t="n">
-        <v>1.42</v>
+        <v>1.66</v>
       </c>
       <c r="X29" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z29" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AA29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN29" t="n">
         <v>38</v>
       </c>
-      <c r="AB29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>380</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>60</v>
-      </c>
       <c r="AO29" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.44</v>
+        <v>3.35</v>
       </c>
       <c r="G30" t="n">
-        <v>2.46</v>
+        <v>3.4</v>
       </c>
       <c r="H30" t="n">
-        <v>3.85</v>
+        <v>2.56</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>2.62</v>
       </c>
       <c r="J30" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="L30" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="M30" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="O30" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="P30" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.84</v>
+        <v>2.6</v>
       </c>
       <c r="R30" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="T30" t="n">
-        <v>2.24</v>
+        <v>1.86</v>
       </c>
       <c r="U30" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="V30" t="n">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="W30" t="n">
-        <v>1.68</v>
+        <v>1.41</v>
       </c>
       <c r="X30" t="n">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>380</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>65</v>
       </c>
-      <c r="AF30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>34</v>
-      </c>
       <c r="AK30" t="n">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="AL30" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM30" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
       <c r="AO30" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera B Metropolitana</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Comunicaciones B Aires</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Argentino de Merlo</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K31" t="n">
+        <v>110</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Q31" t="n">
         <v>2.56</v>
       </c>
-      <c r="G31" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M31" t="n">
+      <c r="R31" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V31" t="n">
         <v>1.15</v>
       </c>
-      <c r="N31" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S31" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.37</v>
-      </c>
       <c r="W31" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="X31" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8.4</v>
+        <v>2.64</v>
       </c>
       <c r="G32" t="n">
-        <v>8.6</v>
+        <v>2.86</v>
       </c>
       <c r="H32" t="n">
-        <v>1.38</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>1.39</v>
+        <v>3.6</v>
       </c>
       <c r="J32" t="n">
-        <v>6.2</v>
+        <v>2.82</v>
       </c>
       <c r="K32" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="L32" t="n">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.15</v>
       </c>
       <c r="N32" t="n">
-        <v>9.199999999999999</v>
+        <v>2.36</v>
       </c>
       <c r="O32" t="n">
-        <v>1.11</v>
+        <v>1.66</v>
       </c>
       <c r="P32" t="n">
-        <v>3.65</v>
+        <v>1.44</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.36</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>2.06</v>
+        <v>1.14</v>
       </c>
       <c r="S32" t="n">
-        <v>1.91</v>
+        <v>6.6</v>
       </c>
       <c r="T32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U32" t="n">
         <v>1.59</v>
       </c>
-      <c r="U32" t="n">
-        <v>2.64</v>
-      </c>
       <c r="V32" t="n">
-        <v>3.55</v>
+        <v>1.4</v>
       </c>
       <c r="W32" t="n">
-        <v>1.13</v>
+        <v>1.54</v>
       </c>
       <c r="X32" t="n">
-        <v>46</v>
+        <v>7.6</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z32" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AA32" t="n">
-        <v>14.5</v>
+        <v>300</v>
       </c>
       <c r="AB32" t="n">
-        <v>50</v>
+        <v>7.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AD32" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="AF32" t="n">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="AG32" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AI32" t="n">
-        <v>21</v>
+        <v>420</v>
       </c>
       <c r="AJ32" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AK32" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AL32" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AM32" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="AO32" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>8.4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.5</v>
+        <v>1.39</v>
       </c>
       <c r="I33" t="n">
-        <v>2.52</v>
+        <v>1.4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="K33" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.52</v>
+        <v>1.21</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N33" t="n">
-        <v>3.15</v>
+        <v>9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.45</v>
+        <v>1.11</v>
       </c>
       <c r="P33" t="n">
-        <v>1.72</v>
+        <v>3.7</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.34</v>
+        <v>1.36</v>
       </c>
       <c r="R33" t="n">
-        <v>1.26</v>
+        <v>2.08</v>
       </c>
       <c r="S33" t="n">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="T33" t="n">
-        <v>1.96</v>
+        <v>1.59</v>
       </c>
       <c r="U33" t="n">
-        <v>1.97</v>
+        <v>2.66</v>
       </c>
       <c r="V33" t="n">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="W33" t="n">
-        <v>1.41</v>
+        <v>1.13</v>
       </c>
       <c r="X33" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD33" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD33" t="n">
+      <c r="AE33" t="n">
         <v>12</v>
       </c>
-      <c r="AE33" t="n">
-        <v>32</v>
-      </c>
       <c r="AF33" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="AG33" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="AH33" t="n">
         <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AJ33" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="AK33" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AL33" t="n">
         <v>65</v>
       </c>
       <c r="AM33" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AN33" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AO33" t="n">
-        <v>30</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.5</v>
+        <v>3.35</v>
       </c>
       <c r="G34" t="n">
-        <v>2.56</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.8</v>
+        <v>2.48</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>2.52</v>
       </c>
       <c r="J34" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="M34" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="N34" t="n">
-        <v>2.26</v>
+        <v>3.15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="P34" t="n">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.4</v>
+        <v>2.34</v>
       </c>
       <c r="R34" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="S34" t="n">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="T34" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="U34" t="n">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="V34" t="n">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="W34" t="n">
-        <v>1.64</v>
+        <v>1.41</v>
       </c>
       <c r="X34" t="n">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z34" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AB34" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="AC34" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD34" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AF34" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AG34" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AI34" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AJ34" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="n">
         <v>46</v>
       </c>
       <c r="AL34" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AM34" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO34" t="n">
-        <v>140</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Albion FC</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="H35" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="L35" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U35" t="n">
         <v>1.6</v>
       </c>
-      <c r="M35" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V35" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W35" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="X35" t="n">
-        <v>15.5</v>
+        <v>6.2</v>
       </c>
       <c r="Y35" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Z35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>280</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM35" t="n">
         <v>500</v>
       </c>
-      <c r="AA35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK35" t="n">
+      <c r="AN35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO35" t="n">
         <v>140</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,123 +5243,123 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Albion FC</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.58</v>
+        <v>2.28</v>
       </c>
       <c r="G36" t="n">
-        <v>1.65</v>
+        <v>2.36</v>
       </c>
       <c r="H36" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="I36" t="n">
-        <v>9.6</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L36" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N36" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="P36" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.1</v>
+        <v>2.74</v>
       </c>
       <c r="R36" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="S36" t="n">
-        <v>3.85</v>
+        <v>5.7</v>
       </c>
       <c r="T36" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U36" t="n">
         <v>1.74</v>
       </c>
       <c r="V36" t="n">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="W36" t="n">
-        <v>2.52</v>
+        <v>1.73</v>
       </c>
       <c r="X36" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y36" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA36" t="n">
         <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC36" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>10.5</v>
+        <v>38</v>
       </c>
       <c r="AG36" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AH36" t="n">
-        <v>29</v>
+        <v>500</v>
       </c>
       <c r="AI36" t="n">
         <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="AK36" t="n">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="AL36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
         <v>1000</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,34 +5383,34 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Juventud De Las Piedras</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="G37" t="n">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="H37" t="n">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="I37" t="n">
-        <v>5.6</v>
+        <v>10.5</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K37" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
@@ -5419,85 +5419,220 @@
         <v>3.4</v>
       </c>
       <c r="O37" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P37" t="n">
         <v>1.8</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
         <v>1.3</v>
       </c>
       <c r="S37" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Juventud De Las Piedras</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S38" t="n">
         <v>3.9</v>
       </c>
-      <c r="T37" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U37" t="n">
+      <c r="T38" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U38" t="n">
         <v>1.86</v>
       </c>
-      <c r="V37" t="n">
+      <c r="V38" t="n">
         <v>1.22</v>
       </c>
-      <c r="W37" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="X37" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG37" t="n">
+      <c r="W38" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X38" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
         <v>11</v>
       </c>
-      <c r="AH37" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ37" t="n">
+      <c r="AG38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH38" t="n">
         <v>23</v>
       </c>
-      <c r="AK37" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL37" t="n">
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL38" t="n">
         <v>44</v>
       </c>
-      <c r="AM37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>1000</v>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AO39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,7 +653,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>07:30:34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -667,97 +667,97 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.95</v>
+        <v>5.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.34</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>2.44</v>
+        <v>3.05</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>2.06</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>2.14</v>
       </c>
       <c r="L2" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="S2" t="n">
+        <v>85</v>
+      </c>
+      <c r="T2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.12</v>
       </c>
-      <c r="N2" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.77</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="W2" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>10.5</v>
+        <v>2.78</v>
       </c>
       <c r="Y2" t="n">
-        <v>500</v>
+        <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>900</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AH2" t="n">
-        <v>960</v>
+        <v>510</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FK Qabala</t>
+          <t>FK Borac Cacak</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>FK Jedinstvo Ub</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>1.86</v>
       </c>
       <c r="G3" t="n">
-        <v>8.4</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>1.54</v>
+        <v>5.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>5.8</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="K3" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="P3" t="n">
-        <v>1.94</v>
+        <v>1.67</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>2.44</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="U3" t="n">
         <v>1.81</v>
       </c>
       <c r="V3" t="n">
-        <v>2.68</v>
+        <v>1.21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.14</v>
+        <v>2.08</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.800000000000001</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="n">
-        <v>14.5</v>
+        <v>230</v>
       </c>
       <c r="AB3" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF3" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>65</v>
-      </c>
       <c r="AG3" t="n">
-        <v>75</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="AK3" t="n">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AN3" t="n">
-        <v>160</v>
+        <v>17.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.800000000000001</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,127 +928,127 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Septemvri</t>
+          <t>FK Qabala</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>7.6</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>1.55</v>
       </c>
       <c r="J4" t="n">
-        <v>1.09</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>980</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.02</v>
+        <v>3.95</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.25</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Septemvri</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>2.74</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>2.92</v>
       </c>
       <c r="H5" t="n">
-        <v>2.76</v>
+        <v>2.92</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="N5" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.87</v>
+        <v>1.46</v>
       </c>
       <c r="P5" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.75</v>
+        <v>2.46</v>
       </c>
       <c r="R5" t="n">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>8.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>2.46</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.52</v>
       </c>
-      <c r="W5" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.81</v>
+        <v>3.35</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>5.4</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>5.9</v>
+        <v>2.94</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>2.8</v>
       </c>
       <c r="L6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.52</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W6" t="n">
-        <v>2.14</v>
+        <v>1.4</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>900</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>700</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI6" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AK6" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>18</v>
+        <v>600</v>
       </c>
       <c r="AO6" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S7" t="n">
         <v>5.1</v>
       </c>
-      <c r="G7" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.6</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U7" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>2.12</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.23</v>
+        <v>2.18</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>7</v>
+        <v>16.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN7" t="n">
         <v>21</v>
       </c>
-      <c r="AB7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>480</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>120</v>
-      </c>
       <c r="AO7" t="n">
-        <v>17.5</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.16</v>
+        <v>5.1</v>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>1.89</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>1.91</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="M8" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="O8" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="R8" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="U8" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="V8" t="n">
-        <v>1.29</v>
+        <v>2.08</v>
       </c>
       <c r="W8" t="n">
-        <v>1.77</v>
+        <v>1.23</v>
       </c>
       <c r="X8" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>6.8</v>
       </c>
       <c r="Z8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF8" t="n">
         <v>36</v>
       </c>
-      <c r="AA8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>480</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AJ8" t="n">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AL8" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="AM8" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="AN8" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="G9" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="H9" t="n">
         <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="L9" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>2.74</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="P9" t="n">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W9" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>480</v>
       </c>
       <c r="AF9" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AJ9" t="n">
-        <v>900</v>
+        <v>65</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN9" t="n">
-        <v>65</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G10" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H10" t="n">
         <v>10.5</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
         <v>1.47</v>
@@ -1774,7 +1774,7 @@
         <v>3.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
         <v>1.79</v>
@@ -1789,16 +1789,16 @@
         <v>4.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>2.44</v>
       </c>
       <c r="U10" t="n">
         <v>1.6</v>
       </c>
       <c r="V10" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -1807,25 +1807,25 @@
         <v>28</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC10" t="n">
         <v>11</v>
       </c>
       <c r="AD10" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE10" t="n">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
@@ -1837,28 +1837,28 @@
         <v>270</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
         <v>60</v>
       </c>
       <c r="AM10" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="AN10" t="n">
         <v>9.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NK Aluminij</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="G11" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>5.1</v>
+        <v>3.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>2.4</v>
+        <v>1.76</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="S11" t="n">
-        <v>2.62</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="W11" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="X11" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG11" t="n">
         <v>23</v>
       </c>
-      <c r="Y11" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>24</v>
+        <v>900</v>
       </c>
       <c r="AK11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Zeljeznicar</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rudar Prijedor</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.52</v>
+        <v>1.93</v>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>5.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66</v>
+        <v>2.52</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>2.56</v>
       </c>
       <c r="T12" t="n">
-        <v>2.22</v>
+        <v>1.54</v>
       </c>
       <c r="U12" t="n">
-        <v>1.64</v>
+        <v>2.52</v>
       </c>
       <c r="V12" t="n">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="W12" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="X12" t="n">
         <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
         <v>16.5</v>
       </c>
-      <c r="AG12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ12" t="n">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="AK12" t="n">
-        <v>65</v>
+        <v>19.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fatih Karagumruk Istanbul</t>
+          <t>Rudar Prijedor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.02</v>
+        <v>1.56</v>
       </c>
       <c r="G13" t="n">
-        <v>2.06</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="I13" t="n">
-        <v>4.6</v>
+        <v>32</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="P13" t="n">
-        <v>1.86</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="R13" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="V13" t="n">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="W13" t="n">
-        <v>1.94</v>
+        <v>2.42</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>21</v>
       </c>
       <c r="AD13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
         <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Fatih Karagumruk Istanbul</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2.04</v>
       </c>
       <c r="H14" t="n">
-        <v>2.82</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>2.94</v>
+        <v>4.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="S14" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>1.96</v>
       </c>
       <c r="X14" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG14" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>340</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>290</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL14" t="n">
         <v>40</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>60</v>
       </c>
       <c r="AM14" t="n">
         <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>42</v>
+        <v>16.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>2.04</v>
+        <v>2.74</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>2.4</v>
+        <v>1.69</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.69</v>
+        <v>2.36</v>
       </c>
       <c r="R15" t="n">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>2.76</v>
+        <v>4.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.94</v>
       </c>
       <c r="U15" t="n">
-        <v>2.48</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="W15" t="n">
-        <v>1.97</v>
+        <v>1.57</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG15" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>42</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>24</v>
-      </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AO15" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.55</v>
+        <v>2.4</v>
       </c>
       <c r="G16" t="n">
-        <v>3.75</v>
+        <v>2.54</v>
       </c>
       <c r="H16" t="n">
-        <v>2.58</v>
+        <v>3.15</v>
       </c>
       <c r="I16" t="n">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="J16" t="n">
-        <v>2.86</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.98</v>
+        <v>3.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="M16" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>2.32</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.71</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.42</v>
+        <v>1.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="T16" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="U16" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
       <c r="X16" t="n">
-        <v>7.4</v>
+        <v>27</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.4</v>
+        <v>22</v>
       </c>
       <c r="Z16" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
         <v>900</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG16" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>500</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>900</v>
-      </c>
       <c r="AK16" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
         <v>600</v>
       </c>
       <c r="AO16" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>1.31</v>
       </c>
       <c r="H17" t="n">
-        <v>2.14</v>
+        <v>14.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.18</v>
+        <v>17</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>5.9</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>6.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R17" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.65</v>
+        <v>2.36</v>
       </c>
       <c r="U17" t="n">
-        <v>2.28</v>
+        <v>1.63</v>
       </c>
       <c r="V17" t="n">
-        <v>1.84</v>
+        <v>1.06</v>
       </c>
       <c r="W17" t="n">
-        <v>1.37</v>
+        <v>4.1</v>
       </c>
       <c r="X17" t="n">
         <v>19</v>
       </c>
       <c r="Y17" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>870</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>420</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG17" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>16</v>
-      </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>38</v>
       </c>
       <c r="AI17" t="n">
-        <v>36</v>
+        <v>310</v>
       </c>
       <c r="AJ17" t="n">
-        <v>160</v>
+        <v>9.4</v>
       </c>
       <c r="AK17" t="n">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="AL17" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AM17" t="n">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="AN17" t="n">
-        <v>38</v>
+        <v>5.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,100 +2818,100 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.44</v>
+        <v>3.6</v>
       </c>
       <c r="G18" t="n">
-        <v>2.54</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="I18" t="n">
-        <v>3.15</v>
+        <v>2.64</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>2.84</v>
       </c>
       <c r="K18" t="n">
-        <v>3.7</v>
+        <v>2.86</v>
       </c>
       <c r="L18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P18" t="n">
         <v>1.43</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.94</v>
-      </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>3.2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>7.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>2.28</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>1.46</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="X18" t="n">
-        <v>27</v>
+        <v>7.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>23</v>
+        <v>7.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
         <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>22</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2920,25 +2920,25 @@
         <v>900</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="G19" t="n">
-        <v>1.31</v>
+        <v>2.02</v>
       </c>
       <c r="H19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X19" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH19" t="n">
         <v>16</v>
       </c>
-      <c r="I19" t="n">
-        <v>18</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N19" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X19" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>820</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AI19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM19" t="n">
         <v>65</v>
       </c>
-      <c r="AE19" t="n">
-        <v>400</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>280</v>
-      </c>
       <c r="AN19" t="n">
-        <v>5.7</v>
+        <v>10.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.66</v>
+        <v>3.5</v>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.66</v>
+        <v>2.22</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
         <v>4.4</v>
       </c>
-      <c r="L20" t="n">
+      <c r="O20" t="n">
         <v>1.27</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.16</v>
-      </c>
       <c r="P20" t="n">
-        <v>2.76</v>
+        <v>2.16</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.51</v>
+        <v>1.82</v>
       </c>
       <c r="R20" t="n">
-        <v>1.72</v>
+        <v>1.46</v>
       </c>
       <c r="S20" t="n">
-        <v>2.26</v>
+        <v>3.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="U20" t="n">
-        <v>2.78</v>
+        <v>2.32</v>
       </c>
       <c r="V20" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
-        <v>1.55</v>
+        <v>1.38</v>
       </c>
       <c r="X20" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>55</v>
+        <v>15.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AB20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>230</v>
+      </c>
+      <c r="AK20" t="n">
         <v>42</v>
       </c>
-      <c r="AC20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>70</v>
-      </c>
       <c r="AL20" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN20" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="AO20" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.7</v>
+        <v>2.68</v>
       </c>
       <c r="G21" t="n">
-        <v>6.4</v>
+        <v>2.88</v>
       </c>
       <c r="H21" t="n">
-        <v>1.54</v>
+        <v>2.44</v>
       </c>
       <c r="I21" t="n">
-        <v>1.57</v>
+        <v>2.56</v>
       </c>
       <c r="J21" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P21" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="S21" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="T21" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="U21" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="V21" t="n">
-        <v>2.74</v>
+        <v>1.64</v>
       </c>
       <c r="W21" t="n">
-        <v>1.19</v>
+        <v>1.53</v>
       </c>
       <c r="X21" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="Z21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG21" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>160</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>970</v>
-      </c>
       <c r="AH21" t="n">
-        <v>36</v>
+        <v>15.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>970</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="n">
-        <v>700</v>
+        <v>290</v>
       </c>
       <c r="AK21" t="n">
-        <v>700</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="n">
-        <v>700</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="G22" t="n">
-        <v>2.62</v>
+        <v>6.2</v>
       </c>
       <c r="H22" t="n">
-        <v>2.64</v>
+        <v>1.53</v>
       </c>
       <c r="I22" t="n">
-        <v>2.76</v>
+        <v>1.57</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="n">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="U22" t="n">
-        <v>2.82</v>
+        <v>2.52</v>
       </c>
       <c r="V22" t="n">
-        <v>1.58</v>
+        <v>2.74</v>
       </c>
       <c r="W22" t="n">
-        <v>1.61</v>
+        <v>1.19</v>
       </c>
       <c r="X22" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Y22" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>44</v>
+        <v>13.5</v>
       </c>
       <c r="AA22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB22" t="n">
         <v>95</v>
       </c>
-      <c r="AB22" t="n">
-        <v>40</v>
-      </c>
       <c r="AC22" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
-        <v>70</v>
+        <v>14.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AI22" t="n">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="AJ22" t="n">
-        <v>130</v>
+        <v>700</v>
       </c>
       <c r="AK22" t="n">
-        <v>42</v>
+        <v>700</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>700</v>
       </c>
       <c r="AM22" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>14</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.35</v>
+        <v>2.42</v>
       </c>
       <c r="G23" t="n">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>2.36</v>
+        <v>2.78</v>
       </c>
       <c r="I23" t="n">
-        <v>2.5</v>
+        <v>2.84</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>3.05</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="P23" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.38</v>
-      </c>
       <c r="X23" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO23" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.3</v>
+        <v>3.15</v>
       </c>
       <c r="G24" t="n">
-        <v>4.9</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
-        <v>2.08</v>
+        <v>2.54</v>
       </c>
       <c r="I24" t="n">
-        <v>2.2</v>
+        <v>2.58</v>
       </c>
       <c r="J24" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
         <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="M24" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>2.68</v>
+        <v>3.55</v>
       </c>
       <c r="O24" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>1.54</v>
+        <v>1.86</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.66</v>
+        <v>2.14</v>
       </c>
       <c r="R24" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="U24" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="V24" t="n">
-        <v>1.84</v>
+        <v>1.63</v>
       </c>
       <c r="W24" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="X24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
         <v>11.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>110</v>
+        <v>970</v>
       </c>
       <c r="AF24" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
-        <v>65</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>460</v>
+        <v>44</v>
       </c>
       <c r="AJ24" t="n">
-        <v>900</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="n">
-        <v>500</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO24" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
     </row>
     <row r="25">
@@ -3763,97 +3763,97 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G25" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="H25" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P25" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="R25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="U25" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="V25" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="W25" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="X25" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.6</v>
+        <v>42</v>
       </c>
       <c r="AD25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG25" t="n">
         <v>26</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
         <v>60</v>
@@ -3862,10 +3862,10 @@
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AK25" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
         <v>1000</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3898,106 +3898,106 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.44</v>
+        <v>6.6</v>
       </c>
       <c r="G26" t="n">
-        <v>2.54</v>
+        <v>8</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>1.66</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>1.71</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="L26" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="O26" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="P26" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="R26" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="U26" t="n">
-        <v>1.94</v>
+        <v>1.64</v>
       </c>
       <c r="V26" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="W26" t="n">
-        <v>1.64</v>
+        <v>1.15</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="AB26" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF26" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AG26" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="AH26" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
         <v>1000</v>
@@ -4012,7 +4012,7 @@
         <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -4033,100 +4033,100 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>6.8</v>
+        <v>3.75</v>
       </c>
       <c r="G27" t="n">
-        <v>8</v>
+        <v>4.3</v>
       </c>
       <c r="H27" t="n">
-        <v>1.63</v>
+        <v>2.28</v>
       </c>
       <c r="I27" t="n">
-        <v>1.7</v>
+        <v>2.42</v>
       </c>
       <c r="J27" t="n">
-        <v>3.6</v>
+        <v>2.98</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N27" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="O27" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="P27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="R27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.32</v>
+        <v>1.05</v>
       </c>
       <c r="U27" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="V27" t="n">
-        <v>2.4</v>
+        <v>1.71</v>
       </c>
       <c r="W27" t="n">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="X27" t="n">
-        <v>20</v>
+        <v>8.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AA27" t="n">
-        <v>900</v>
+        <v>50</v>
       </c>
       <c r="AB27" t="n">
-        <v>38</v>
+        <v>10.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG27" t="n">
-        <v>500</v>
+        <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
@@ -4135,10 +4135,10 @@
         <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
@@ -4147,13 +4147,13 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G28" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I28" t="n">
         <v>2.54</v>
       </c>
-      <c r="I28" t="n">
-        <v>2.6</v>
-      </c>
       <c r="J28" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L28" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="R28" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="S28" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="U28" t="n">
-        <v>2.12</v>
+        <v>1.92</v>
       </c>
       <c r="V28" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W28" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X28" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AA28" t="n">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="AB28" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.6</v>
+        <v>13.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AG28" t="n">
-        <v>13.5</v>
+        <v>500</v>
       </c>
       <c r="AH28" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AI28" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,126 +4298,126 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="H29" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="L29" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="M29" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N29" t="n">
-        <v>2.64</v>
+        <v>2.9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="P29" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.84</v>
+        <v>2.44</v>
       </c>
       <c r="R29" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="T29" t="n">
-        <v>2.24</v>
+        <v>1.99</v>
       </c>
       <c r="U29" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="V29" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W29" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="X29" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AA29" t="n">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="AB29" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AE29" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AG29" t="n">
         <v>12.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AI29" t="n">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="AJ29" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AL29" t="n">
-        <v>70</v>
+        <v>290</v>
       </c>
       <c r="AM29" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>95</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30">
@@ -4447,64 +4447,64 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I30" t="n">
         <v>2.56</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.62</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M30" t="n">
         <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="O30" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P30" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R30" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S30" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.86</v>
       </c>
-      <c r="U30" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W30" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y30" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
         <v>15</v>
@@ -4516,10 +4516,10 @@
         <v>13</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
         <v>34</v>
@@ -4528,37 +4528,37 @@
         <v>22</v>
       </c>
       <c r="AG30" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
         <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="AJ30" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK30" t="n">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="AL30" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="AO30" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Argentinian Primera B Metropolitana</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Comunicaciones B Aires</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Argentino de Merlo</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.37</v>
+        <v>2.48</v>
       </c>
       <c r="G31" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="J31" t="n">
-        <v>1.84</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>110</v>
+        <v>3.05</v>
       </c>
       <c r="L31" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N31" t="n">
-        <v>1.32</v>
+        <v>2.6</v>
       </c>
       <c r="O31" t="n">
         <v>1.6</v>
       </c>
       <c r="P31" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="R31" t="n">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>2.56</v>
+        <v>6.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V31" t="n">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="W31" t="n">
-        <v>1.47</v>
+        <v>1.66</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera B Metropolitana</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,118 +4708,118 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Comunicaciones B Aires</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Argentino de Merlo</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.64</v>
+        <v>2.28</v>
       </c>
       <c r="G32" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="I32" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="J32" t="n">
-        <v>2.82</v>
+        <v>2.58</v>
       </c>
       <c r="K32" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="M32" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N32" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="O32" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="P32" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="Q32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S32" t="n">
         <v>3</v>
       </c>
-      <c r="R32" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S32" t="n">
-        <v>6.6</v>
-      </c>
       <c r="T32" t="n">
-        <v>2.02</v>
+        <v>1.05</v>
       </c>
       <c r="U32" t="n">
-        <v>1.59</v>
+        <v>1.05</v>
       </c>
       <c r="V32" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="W32" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="X32" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>8.199999999999999</v>
+        <v>2.66</v>
       </c>
       <c r="G33" t="n">
-        <v>8.4</v>
+        <v>2.94</v>
       </c>
       <c r="H33" t="n">
-        <v>1.39</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="J33" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S33" t="n">
         <v>6.2</v>
       </c>
-      <c r="K33" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N33" t="n">
-        <v>9</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R33" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.91</v>
-      </c>
       <c r="T33" t="n">
-        <v>1.59</v>
+        <v>2.18</v>
       </c>
       <c r="U33" t="n">
-        <v>2.66</v>
+        <v>1.72</v>
       </c>
       <c r="V33" t="n">
-        <v>3.5</v>
+        <v>1.42</v>
       </c>
       <c r="W33" t="n">
-        <v>1.13</v>
+        <v>1.52</v>
       </c>
       <c r="X33" t="n">
-        <v>48</v>
+        <v>7.8</v>
       </c>
       <c r="Y33" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD33" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA33" t="n">
+      <c r="AE33" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG33" t="n">
         <v>14.5</v>
       </c>
-      <c r="AB33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>30</v>
-      </c>
       <c r="AH33" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI33" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AJ33" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="AK33" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AL33" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AO33" t="n">
-        <v>3.8</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.35</v>
+        <v>8.4</v>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>8.6</v>
       </c>
       <c r="H34" t="n">
-        <v>2.48</v>
+        <v>1.39</v>
       </c>
       <c r="I34" t="n">
-        <v>2.52</v>
+        <v>1.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="K34" t="n">
-        <v>3.3</v>
+        <v>6.2</v>
       </c>
       <c r="L34" t="n">
-        <v>1.52</v>
+        <v>1.21</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>3.15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O34" t="n">
-        <v>1.45</v>
+        <v>1.11</v>
       </c>
       <c r="P34" t="n">
-        <v>1.71</v>
+        <v>3.7</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.34</v>
+        <v>1.36</v>
       </c>
       <c r="R34" t="n">
-        <v>1.26</v>
+        <v>2.06</v>
       </c>
       <c r="S34" t="n">
-        <v>4.5</v>
+        <v>1.92</v>
       </c>
       <c r="T34" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="U34" t="n">
-        <v>1.98</v>
+        <v>2.68</v>
       </c>
       <c r="V34" t="n">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="W34" t="n">
-        <v>1.41</v>
+        <v>1.13</v>
       </c>
       <c r="X34" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="Z34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA34" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA34" t="n">
-        <v>36</v>
-      </c>
       <c r="AB34" t="n">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="AD34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE34" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE34" t="n">
-        <v>32</v>
-      </c>
       <c r="AF34" t="n">
+        <v>85</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI34" t="n">
         <v>21</v>
       </c>
-      <c r="AG34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>50</v>
-      </c>
       <c r="AJ34" t="n">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="AK34" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AL34" t="n">
         <v>65</v>
       </c>
       <c r="AM34" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AN34" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AO34" t="n">
-        <v>28</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F35" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H35" t="n">
         <v>2.5</v>
       </c>
-      <c r="G35" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.9</v>
-      </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>2.52</v>
       </c>
       <c r="J35" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="M35" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>2.26</v>
+        <v>3.15</v>
       </c>
       <c r="O35" t="n">
-        <v>1.76</v>
+        <v>1.45</v>
       </c>
       <c r="P35" t="n">
-        <v>1.39</v>
+        <v>1.71</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.4</v>
+        <v>2.36</v>
       </c>
       <c r="R35" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="S35" t="n">
-        <v>7.8</v>
+        <v>4.7</v>
       </c>
       <c r="T35" t="n">
-        <v>2.44</v>
+        <v>1.97</v>
       </c>
       <c r="U35" t="n">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="V35" t="n">
-        <v>1.33</v>
+        <v>1.66</v>
       </c>
       <c r="W35" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="X35" t="n">
-        <v>6.2</v>
+        <v>10.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z35" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="AB35" t="n">
-        <v>6.6</v>
+        <v>11</v>
       </c>
       <c r="AC35" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD35" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AF35" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AG35" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI35" t="n">
         <v>55</v>
       </c>
-      <c r="AI35" t="n">
-        <v>280</v>
-      </c>
       <c r="AJ35" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AK35" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL35" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AM35" t="n">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="AN35" t="n">
         <v>55</v>
       </c>
       <c r="AO35" t="n">
-        <v>140</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Albion FC</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="G36" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="H36" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K36" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="L36" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="M36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R36" t="n">
         <v>1.13</v>
       </c>
-      <c r="N36" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.19</v>
-      </c>
       <c r="S36" t="n">
-        <v>5.7</v>
+        <v>7.8</v>
       </c>
       <c r="T36" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="U36" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="V36" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="W36" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="X36" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y36" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Y36" t="n">
-        <v>20</v>
-      </c>
       <c r="Z36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI36" t="n">
         <v>500</v>
       </c>
-      <c r="AA36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH36" t="n">
+      <c r="AJ36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>230</v>
+      </c>
+      <c r="AM36" t="n">
         <v>500</v>
       </c>
-      <c r="AI36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>220</v>
-      </c>
-      <c r="AK36" t="n">
+      <c r="AN36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO36" t="n">
         <v>140</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,123 +5378,123 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Quindio</t>
+          <t>Albion FC</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.58</v>
+        <v>2.28</v>
       </c>
       <c r="G37" t="n">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="I37" t="n">
-        <v>10.5</v>
+        <v>4.1</v>
       </c>
       <c r="J37" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="K37" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="L37" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="M37" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N37" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="O37" t="n">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="P37" t="n">
-        <v>1.8</v>
+        <v>1.52</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.1</v>
+        <v>2.76</v>
       </c>
       <c r="R37" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="S37" t="n">
-        <v>3.85</v>
+        <v>5.7</v>
       </c>
       <c r="T37" t="n">
-        <v>1.05</v>
+        <v>2.16</v>
       </c>
       <c r="U37" t="n">
-        <v>1.05</v>
+        <v>1.74</v>
       </c>
       <c r="V37" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="W37" t="n">
-        <v>2.52</v>
+        <v>1.73</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y37" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC37" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="AG37" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AH37" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="AK37" t="n">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="AL37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,120 +5518,255 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Juventud De Las Piedras</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="G38" t="n">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I38" t="n">
-        <v>5.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="K38" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="L38" t="n">
         <v>1.45</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
         <v>3.4</v>
       </c>
       <c r="O38" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P38" t="n">
         <v>1.81</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R38" t="n">
         <v>1.3</v>
       </c>
       <c r="S38" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="X38" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Uruguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Juventud De Las Piedras</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K39" t="n">
         <v>3.9</v>
       </c>
-      <c r="T38" t="n">
+      <c r="L39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T39" t="n">
         <v>1.92</v>
       </c>
-      <c r="U38" t="n">
+      <c r="U39" t="n">
         <v>1.86</v>
       </c>
-      <c r="V38" t="n">
+      <c r="V39" t="n">
         <v>1.22</v>
       </c>
-      <c r="W38" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="X38" t="n">
+      <c r="W39" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="X39" t="n">
         <v>15</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Y39" t="n">
         <v>17</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="Z39" t="n">
         <v>48</v>
       </c>
-      <c r="AA38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB38" t="n">
+      <c r="AA39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB39" t="n">
         <v>8</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AC39" t="n">
         <v>9</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AD39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>22</v>
       </c>
-      <c r="AE38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK38" t="n">
+      <c r="AK39" t="n">
         <v>22</v>
       </c>
-      <c r="AL38" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN38" t="n">
+      <c r="AL39" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN39" t="n">
         <v>15</v>
       </c>
-      <c r="AO38" t="n">
+      <c r="AO39" t="n">
         <v>130</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO39"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:30:34</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Shamakhi FK</t>
+          <t>FK Qabala</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PFK Turan Tovuz</t>
+          <t>FC Sabah</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.2</v>
+        <v>8.6</v>
       </c>
       <c r="G2" t="n">
-        <v>5.7</v>
+        <v>9.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>1.72</v>
       </c>
       <c r="I2" t="n">
-        <v>3.05</v>
+        <v>1.73</v>
       </c>
       <c r="J2" t="n">
-        <v>2.06</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>2.14</v>
+        <v>3.3</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.59</v>
+        <v>1.21</v>
       </c>
       <c r="N2" t="n">
-        <v>1.3</v>
+        <v>1.96</v>
       </c>
       <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="n">
         <v>4.2</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S2" t="n">
-        <v>85</v>
-      </c>
-      <c r="T2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4.6</v>
-      </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.4</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF2" t="n">
         <v>80</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AG2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>550</v>
       </c>
-      <c r="AF2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>130</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>510</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:03:12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FK Borac Cacak</t>
+          <t>Septemvri</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FK Jedinstvo Ub</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.86</v>
+        <v>2.8</v>
       </c>
       <c r="G3" t="n">
-        <v>1.91</v>
+        <v>2.94</v>
       </c>
       <c r="H3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I3" t="n">
         <v>5.3</v>
       </c>
-      <c r="I3" t="n">
-        <v>5.8</v>
-      </c>
       <c r="J3" t="n">
-        <v>3.45</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>2.24</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>10</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="S3" t="n">
+        <v>40</v>
+      </c>
+      <c r="T3" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.51</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="X3" t="n">
         <v>3.05</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X3" t="n">
-        <v>10</v>
-      </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>550</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK3" t="n">
         <v>230</v>
       </c>
-      <c r="AB3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>23</v>
-      </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>17.5</v>
+        <v>430</v>
       </c>
       <c r="AO3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FK Qabala</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7.6</v>
+        <v>3.4</v>
       </c>
       <c r="G4" t="n">
-        <v>8.4</v>
+        <v>3.55</v>
       </c>
       <c r="H4" t="n">
-        <v>1.52</v>
+        <v>2.84</v>
       </c>
       <c r="I4" t="n">
-        <v>1.55</v>
+        <v>2.96</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>2.68</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>2.78</v>
       </c>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="N4" t="n">
-        <v>3.95</v>
+        <v>2.12</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.85</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>1.34</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>3.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.11</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="V4" t="n">
-        <v>2.8</v>
+        <v>1.51</v>
       </c>
       <c r="W4" t="n">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="AN4" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Septemvri</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.74</v>
+        <v>1.81</v>
       </c>
       <c r="G5" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
         <v>2.92</v>
       </c>
-      <c r="H5" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
         <v>1.65</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="R5" t="n">
         <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="V5" t="n">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
-        <v>1.52</v>
+        <v>2.16</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="AA5" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF5" t="n">
         <v>9.4</v>
       </c>
-      <c r="AC5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>17</v>
-      </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60</v>
+        <v>19.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="AN5" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K6" t="n">
         <v>3.35</v>
       </c>
-      <c r="G6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.8</v>
-      </c>
       <c r="L6" t="n">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="M6" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="P6" t="n">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.75</v>
+        <v>2.54</v>
       </c>
       <c r="R6" t="n">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="U6" t="n">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.52</v>
+        <v>2.02</v>
       </c>
       <c r="W6" t="n">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="X6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB6" t="n">
         <v>14</v>
       </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AK6" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM6" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="AO6" t="n">
-        <v>600</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="G7" t="n">
-        <v>1.84</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="L7" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
-        <v>2.92</v>
+        <v>2.78</v>
       </c>
       <c r="O7" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="P7" t="n">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="U7" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W7" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB7" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>290</v>
+        <v>480</v>
       </c>
       <c r="AF7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG7" t="n">
         <v>12</v>
       </c>
-      <c r="AG7" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="n">
-        <v>700</v>
+        <v>230</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AK7" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AO7" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.1</v>
+        <v>1.43</v>
       </c>
       <c r="G8" t="n">
-        <v>5.3</v>
+        <v>1.45</v>
       </c>
       <c r="H8" t="n">
-        <v>1.89</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>1.91</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.1</v>
       </c>
-      <c r="N8" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.08</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.23</v>
+        <v>3.25</v>
       </c>
       <c r="X8" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.8</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>600</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>340</v>
+      </c>
+      <c r="AN8" t="n">
         <v>10</v>
       </c>
-      <c r="AA8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>130</v>
-      </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="G9" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="M9" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>2.74</v>
+        <v>3.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.58</v>
+        <v>1.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="U9" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
-        <v>9.199999999999999</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="Z9" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AA9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI9" t="n">
         <v>500</v>
       </c>
-      <c r="AB9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>480</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>390</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>65</v>
+        <v>900</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.42</v>
+        <v>1.92</v>
       </c>
       <c r="G10" t="n">
-        <v>1.44</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="n">
-        <v>10.5</v>
+        <v>3.95</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.7</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>1.79</v>
+        <v>2.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>4.2</v>
+        <v>2.52</v>
       </c>
       <c r="T10" t="n">
-        <v>2.44</v>
+        <v>1.58</v>
       </c>
       <c r="U10" t="n">
-        <v>1.6</v>
+        <v>2.52</v>
       </c>
       <c r="V10" t="n">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="W10" t="n">
-        <v>3.25</v>
+        <v>1.98</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>560</v>
+        <v>190</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.4</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG10" t="n">
         <v>11</v>
       </c>
-      <c r="AD10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="AJ10" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
         <v>9.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>560</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,78 +1868,78 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>Rudar Prijedor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.02</v>
+        <v>1.48</v>
       </c>
       <c r="G11" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="I11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.05</v>
+        <v>2.52</v>
       </c>
       <c r="U11" t="n">
-        <v>1.9</v>
+        <v>1.54</v>
       </c>
       <c r="V11" t="n">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="W11" t="n">
-        <v>1.86</v>
+        <v>2.84</v>
       </c>
       <c r="X11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,43 +1948,43 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>5.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AD11" t="n">
-        <v>980</v>
+        <v>220</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH11" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>900</v>
+        <v>38</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AM11" t="n">
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NK Aluminij</t>
+          <t>Fatih Karagumruk Istanbul</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>2.02</v>
       </c>
       <c r="H12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S12" t="n">
         <v>3.9</v>
       </c>
-      <c r="I12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.56</v>
-      </c>
       <c r="T12" t="n">
-        <v>1.54</v>
+        <v>1.87</v>
       </c>
       <c r="U12" t="n">
-        <v>2.52</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
         <v>1.98</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>23</v>
       </c>
-      <c r="Z12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
+      <c r="AK12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>430</v>
+      </c>
+      <c r="AN12" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>10</v>
-      </c>
       <c r="AO12" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Zeljeznicar</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rudar Prijedor</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.56</v>
+        <v>1.98</v>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="H13" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X13" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z13" t="n">
         <v>32</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X13" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>21</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AG13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>23</v>
       </c>
-      <c r="AH13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>38</v>
-      </c>
       <c r="AK13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM13" t="n">
         <v>65</v>
       </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Fatih Karagumruk Istanbul</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>3.65</v>
       </c>
       <c r="G14" t="n">
-        <v>2.04</v>
+        <v>3.85</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>2.56</v>
       </c>
       <c r="I14" t="n">
-        <v>4.6</v>
+        <v>2.66</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>2.82</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>2.86</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="N14" t="n">
-        <v>3.65</v>
+        <v>2.36</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
       <c r="P14" t="n">
-        <v>1.85</v>
+        <v>1.43</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>3.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="S14" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>2.34</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>1.66</v>
       </c>
       <c r="V14" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="W14" t="n">
-        <v>1.96</v>
+        <v>1.35</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Z14" t="n">
-        <v>32</v>
+        <v>14.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG14" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>900</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="AN14" t="n">
-        <v>16.5</v>
+        <v>600</v>
       </c>
       <c r="AO14" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2.74</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>2.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S15" t="n">
         <v>3.1</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.4</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.94</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>1.96</v>
+        <v>2.32</v>
       </c>
       <c r="V15" t="n">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK15" t="n">
         <v>40</v>
       </c>
-      <c r="AF15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>34</v>
-      </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
         <v>34</v>
       </c>
       <c r="AO15" t="n">
-        <v>44</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G16" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="H16" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
         <v>3.4</v>
@@ -2575,64 +2575,64 @@
         <v>3.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S16" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.05</v>
+        <v>1.76</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W16" t="n">
         <v>1.66</v>
       </c>
       <c r="X16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA16" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
         <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF16" t="n">
         <v>36</v>
@@ -2641,34 +2641,34 @@
         <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
         <v>500</v>
       </c>
-      <c r="AK16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
+      <c r="AO16" t="n">
         <v>600</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.3</v>
+        <v>2.68</v>
       </c>
       <c r="G17" t="n">
-        <v>1.31</v>
+        <v>2.74</v>
       </c>
       <c r="H17" t="n">
-        <v>14.5</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="P17" t="n">
-        <v>2.18</v>
+        <v>1.68</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="R17" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="T17" t="n">
-        <v>2.36</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.06</v>
+        <v>1.46</v>
       </c>
       <c r="W17" t="n">
-        <v>4.1</v>
+        <v>1.57</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="Y17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO17" t="n">
         <v>44</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>870</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>420</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>310</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>1.31</v>
       </c>
       <c r="H18" t="n">
-        <v>2.58</v>
+        <v>15.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.64</v>
+        <v>17</v>
       </c>
       <c r="J18" t="n">
-        <v>2.84</v>
+        <v>5.8</v>
       </c>
       <c r="K18" t="n">
-        <v>2.86</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.7</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>2.36</v>
+        <v>4.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.69</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>1.43</v>
+        <v>2.22</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.2</v>
+        <v>1.77</v>
       </c>
       <c r="R18" t="n">
-        <v>1.14</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X18" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>44</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>740</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>390</v>
+      </c>
+      <c r="AF18" t="n">
         <v>7.2</v>
       </c>
-      <c r="T18" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>23</v>
-      </c>
       <c r="AG18" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AJ18" t="n">
-        <v>900</v>
+        <v>9.4</v>
       </c>
       <c r="AK18" t="n">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>340</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>500</v>
+        <v>260</v>
       </c>
       <c r="AN18" t="n">
-        <v>600</v>
+        <v>5.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.98</v>
+        <v>2.68</v>
       </c>
       <c r="G19" t="n">
-        <v>2.02</v>
+        <v>2.86</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>2.46</v>
       </c>
       <c r="I19" t="n">
-        <v>3.95</v>
+        <v>2.56</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.46</v>
+        <v>2.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>2.7</v>
+        <v>2.34</v>
       </c>
       <c r="T19" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.64</v>
       </c>
-      <c r="U19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.33</v>
-      </c>
       <c r="W19" t="n">
-        <v>1.98</v>
+        <v>1.54</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="Y19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE19" t="n">
         <v>32</v>
       </c>
-      <c r="AA19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AF19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO19" t="n">
         <v>13</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="G20" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="I20" t="n">
-        <v>2.22</v>
+        <v>1.59</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>4.9</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>4.4</v>
+        <v>7.4</v>
       </c>
       <c r="O20" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>2.16</v>
+        <v>3.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.82</v>
+        <v>1.45</v>
       </c>
       <c r="R20" t="n">
-        <v>1.46</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="U20" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="V20" t="n">
-        <v>1.83</v>
+        <v>2.68</v>
       </c>
       <c r="W20" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="X20" t="n">
-        <v>19.5</v>
+        <v>95</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>44</v>
+        <v>16.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AF20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG20" t="n">
         <v>48</v>
       </c>
-      <c r="AG20" t="n">
-        <v>16</v>
-      </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>230</v>
+        <v>700</v>
       </c>
       <c r="AK20" t="n">
-        <v>42</v>
+        <v>700</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>700</v>
       </c>
       <c r="AM20" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,87 +3218,87 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.68</v>
+        <v>2.44</v>
       </c>
       <c r="G21" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
-        <v>2.44</v>
+        <v>2.78</v>
       </c>
       <c r="I21" t="n">
-        <v>2.56</v>
+        <v>2.84</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
         <v>4.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P21" t="n">
-        <v>2.72</v>
+        <v>2.98</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="R21" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="S21" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="T21" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="U21" t="n">
-        <v>2.24</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="W21" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="X21" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AA21" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
-        <v>42</v>
+        <v>19.5</v>
       </c>
       <c r="AC21" t="n">
         <v>10.5</v>
@@ -3307,34 +3307,34 @@
         <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>290</v>
+        <v>36</v>
       </c>
       <c r="AK21" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AM21" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="G22" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="H22" t="n">
-        <v>1.53</v>
+        <v>2.48</v>
       </c>
       <c r="I22" t="n">
-        <v>1.57</v>
+        <v>2.54</v>
       </c>
       <c r="J22" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R22" t="n">
         <v>1.24</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S22" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="U22" t="n">
-        <v>2.52</v>
+        <v>1.95</v>
       </c>
       <c r="V22" t="n">
-        <v>2.74</v>
+        <v>1.64</v>
       </c>
       <c r="W22" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="X22" t="n">
-        <v>95</v>
+        <v>19.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z22" t="n">
-        <v>13.5</v>
+        <v>500</v>
       </c>
       <c r="AA22" t="n">
-        <v>16</v>
+        <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="AC22" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AG22" t="n">
-        <v>46</v>
+        <v>500</v>
       </c>
       <c r="AH22" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AI22" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.42</v>
+        <v>3.7</v>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
-        <v>2.78</v>
+        <v>2.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.84</v>
+        <v>2.44</v>
       </c>
       <c r="J23" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="N23" t="n">
-        <v>7</v>
+        <v>2.66</v>
       </c>
       <c r="O23" t="n">
-        <v>1.15</v>
+        <v>1.54</v>
       </c>
       <c r="P23" t="n">
-        <v>2.96</v>
+        <v>1.58</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.48</v>
+        <v>2.66</v>
       </c>
       <c r="R23" t="n">
-        <v>1.77</v>
+        <v>1.19</v>
       </c>
       <c r="S23" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="U23" t="n">
-        <v>2.9</v>
+        <v>1.78</v>
       </c>
       <c r="V23" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="W23" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="X23" t="n">
-        <v>75</v>
+        <v>8.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>22</v>
+        <v>7.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AA23" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AI23" t="n">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AJ23" t="n">
-        <v>38</v>
+        <v>900</v>
       </c>
       <c r="AK23" t="n">
-        <v>38</v>
+        <v>310</v>
       </c>
       <c r="AL23" t="n">
-        <v>26</v>
+        <v>500</v>
       </c>
       <c r="AM23" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,121 +3628,121 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.15</v>
+        <v>2.24</v>
       </c>
       <c r="G24" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>2.54</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>2.58</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.35</v>
       </c>
-      <c r="K24" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>3.55</v>
+        <v>2.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="P24" t="n">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="U24" t="n">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="V24" t="n">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.45</v>
+        <v>1.72</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>15.5</v>
+        <v>65</v>
       </c>
       <c r="AA24" t="n">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="AE24" t="n">
-        <v>970</v>
+        <v>160</v>
       </c>
       <c r="AF24" t="n">
         <v>21</v>
       </c>
       <c r="AG24" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="AI24" t="n">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="AJ24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK24" t="n">
         <v>55</v>
       </c>
-      <c r="AK24" t="n">
-        <v>38</v>
-      </c>
       <c r="AL24" t="n">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="AM24" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="AO24" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G25" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>3.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M25" t="n">
         <v>1.1</v>
@@ -3802,7 +3802,7 @@
         <v>1.44</v>
       </c>
       <c r="P25" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q25" t="n">
         <v>2.34</v>
@@ -3811,73 +3811,73 @@
         <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T25" t="n">
         <v>1.92</v>
       </c>
       <c r="U25" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="V25" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z25" t="n">
         <v>48</v>
       </c>
       <c r="AA25" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH25" t="n">
         <v>42</v>
       </c>
-      <c r="AD25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>60</v>
-      </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ25" t="n">
         <v>300</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM25" t="n">
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
@@ -3910,19 +3910,19 @@
         <v>6.6</v>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H26" t="n">
         <v>1.66</v>
       </c>
       <c r="I26" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K26" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L26" t="n">
         <v>1.56</v>
@@ -3946,16 +3946,16 @@
         <v>1.2</v>
       </c>
       <c r="S26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T26" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U26" t="n">
         <v>1.64</v>
       </c>
       <c r="V26" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="W26" t="n">
         <v>1.15</v>
@@ -3964,7 +3964,7 @@
         <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.2</v>
+        <v>8.4</v>
       </c>
       <c r="Z26" t="n">
         <v>12.5</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="G27" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="I27" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="J27" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="L27" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="n">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.66</v>
+        <v>3.55</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="P27" t="n">
-        <v>1.53</v>
+        <v>1.86</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.68</v>
+        <v>2.14</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S27" t="n">
-        <v>5.4</v>
+        <v>3.95</v>
       </c>
       <c r="T27" t="n">
-        <v>1.05</v>
+        <v>1.84</v>
       </c>
       <c r="U27" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="V27" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="W27" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="X27" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AB27" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AF27" t="n">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="n">
-        <v>310</v>
+        <v>38</v>
       </c>
       <c r="AL27" t="n">
-        <v>430</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>2.48</v>
       </c>
       <c r="H28" t="n">
-        <v>2.46</v>
+        <v>3.8</v>
       </c>
       <c r="I28" t="n">
-        <v>2.54</v>
+        <v>3.85</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="K28" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N28" t="n">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="P28" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S28" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W28" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q28" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.4</v>
-      </c>
       <c r="X28" t="n">
-        <v>19.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AA28" t="n">
-        <v>900</v>
+        <v>90</v>
       </c>
       <c r="AB28" t="n">
-        <v>21</v>
+        <v>7.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>13.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF28" t="n">
-        <v>500</v>
+        <v>12.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>500</v>
+        <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.28</v>
+        <v>3.4</v>
       </c>
       <c r="G29" t="n">
-        <v>2.42</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.6</v>
+        <v>2.54</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>2.58</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N29" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O29" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="P29" t="n">
         <v>1.62</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="R29" t="n">
         <v>1.22</v>
       </c>
       <c r="S29" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="T29" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="U29" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="V29" t="n">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="W29" t="n">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="X29" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z29" t="n">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="AA29" t="n">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM29" t="n">
         <v>500</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>380</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>290</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>1000</v>
       </c>
       <c r="AN29" t="n">
         <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>600</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Argentinian Primera B Metropolitana</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Comunicaciones B Aires</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Argentino de Merlo</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.4</v>
+        <v>2.24</v>
       </c>
       <c r="G30" t="n">
-        <v>3.5</v>
+        <v>2.52</v>
       </c>
       <c r="H30" t="n">
-        <v>2.5</v>
+        <v>3.95</v>
       </c>
       <c r="I30" t="n">
-        <v>2.56</v>
+        <v>5.8</v>
       </c>
       <c r="J30" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K30" t="n">
         <v>3.1</v>
       </c>
-      <c r="K30" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L30" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="M30" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="N30" t="n">
-        <v>2.86</v>
+        <v>2.46</v>
       </c>
       <c r="O30" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="P30" t="n">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.58</v>
+        <v>2.9</v>
       </c>
       <c r="R30" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="S30" t="n">
-        <v>5.2</v>
+        <v>2.96</v>
       </c>
       <c r="T30" t="n">
         <v>1.05</v>
       </c>
       <c r="U30" t="n">
-        <v>1.86</v>
+        <v>1.05</v>
       </c>
       <c r="V30" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="W30" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="X30" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.8</v>
+        <v>42</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="G31" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="I31" t="n">
-        <v>3.8</v>
+        <v>2.96</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K31" t="n">
         <v>3.05</v>
       </c>
       <c r="L31" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O31" t="n">
         <v>1.64</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.6</v>
-      </c>
       <c r="P31" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="S31" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U31" t="n">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="V31" t="n">
-        <v>1.35</v>
+        <v>1.51</v>
       </c>
       <c r="W31" t="n">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="X31" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD31" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
+        <v>420</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>500</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL31" t="n">
         <v>95</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>70</v>
-      </c>
       <c r="AM31" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>95</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentinian Primera B Metropolitana</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Comunicaciones B Aires</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Argentino de Merlo</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.28</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>2.58</v>
+        <v>9</v>
       </c>
       <c r="H32" t="n">
-        <v>4.2</v>
+        <v>1.38</v>
       </c>
       <c r="I32" t="n">
-        <v>5.5</v>
+        <v>1.39</v>
       </c>
       <c r="J32" t="n">
-        <v>2.58</v>
+        <v>6</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="L32" t="n">
-        <v>1.65</v>
+        <v>1.21</v>
       </c>
       <c r="M32" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>2.46</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O32" t="n">
-        <v>1.59</v>
+        <v>1.11</v>
       </c>
       <c r="P32" t="n">
-        <v>1.43</v>
+        <v>3.65</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.9</v>
+        <v>1.36</v>
       </c>
       <c r="R32" t="n">
-        <v>1.16</v>
+        <v>2.06</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>1.92</v>
       </c>
       <c r="T32" t="n">
-        <v>1.05</v>
+        <v>1.58</v>
       </c>
       <c r="U32" t="n">
-        <v>1.05</v>
+        <v>2.66</v>
       </c>
       <c r="V32" t="n">
-        <v>1.26</v>
+        <v>3.55</v>
       </c>
       <c r="W32" t="n">
-        <v>1.64</v>
+        <v>1.12</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.66</v>
+        <v>3.45</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94</v>
+        <v>3.55</v>
       </c>
       <c r="H33" t="n">
-        <v>3.1</v>
+        <v>2.46</v>
       </c>
       <c r="I33" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="J33" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L33" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="M33" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>2.42</v>
+        <v>3.15</v>
       </c>
       <c r="O33" t="n">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="P33" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.96</v>
+        <v>2.38</v>
       </c>
       <c r="R33" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="S33" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="T33" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="U33" t="n">
-        <v>1.72</v>
+        <v>1.99</v>
       </c>
       <c r="V33" t="n">
-        <v>1.42</v>
+        <v>1.66</v>
       </c>
       <c r="W33" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="X33" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z33" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>300</v>
+        <v>36</v>
       </c>
       <c r="AB33" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD33" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="AF33" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AG33" t="n">
         <v>14.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="AJ33" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK33" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL33" t="n">
         <v>65</v>
       </c>
-      <c r="AL33" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="AO33" t="n">
-        <v>600</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>8.4</v>
+        <v>2.48</v>
       </c>
       <c r="G34" t="n">
-        <v>8.6</v>
+        <v>2.54</v>
       </c>
       <c r="H34" t="n">
-        <v>1.39</v>
+        <v>3.8</v>
       </c>
       <c r="I34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="P34" t="n">
         <v>1.4</v>
       </c>
-      <c r="J34" t="n">
-        <v>6</v>
-      </c>
-      <c r="K34" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N34" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3.7</v>
-      </c>
       <c r="Q34" t="n">
-        <v>1.36</v>
+        <v>3.4</v>
       </c>
       <c r="R34" t="n">
-        <v>2.06</v>
+        <v>1.13</v>
       </c>
       <c r="S34" t="n">
-        <v>1.92</v>
+        <v>8</v>
       </c>
       <c r="T34" t="n">
-        <v>1.58</v>
+        <v>2.48</v>
       </c>
       <c r="U34" t="n">
-        <v>2.68</v>
+        <v>1.62</v>
       </c>
       <c r="V34" t="n">
-        <v>3.5</v>
+        <v>1.35</v>
       </c>
       <c r="W34" t="n">
-        <v>1.13</v>
+        <v>1.65</v>
       </c>
       <c r="X34" t="n">
-        <v>46</v>
+        <v>6.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z34" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="AA34" t="n">
-        <v>14.5</v>
+        <v>90</v>
       </c>
       <c r="AB34" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>460</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN34" t="n">
         <v>55</v>
       </c>
-      <c r="AC34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>85</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>250</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>70</v>
-      </c>
       <c r="AO34" t="n">
-        <v>3.85</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Albion FC</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.45</v>
+        <v>2.3</v>
       </c>
       <c r="G35" t="n">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>2.52</v>
+        <v>4.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K35" t="n">
         <v>3.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="M35" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>3.15</v>
+        <v>2.62</v>
       </c>
       <c r="O35" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="P35" t="n">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.36</v>
+        <v>2.76</v>
       </c>
       <c r="R35" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="S35" t="n">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="T35" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="U35" t="n">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="V35" t="n">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="W35" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="X35" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.6</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="n">
-        <v>14.5</v>
+        <v>500</v>
       </c>
       <c r="AA35" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>11.5</v>
+        <v>42</v>
       </c>
       <c r="AE35" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AG35" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="AK35" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="AL35" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,126 +5243,126 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.48</v>
+        <v>1.58</v>
       </c>
       <c r="G36" t="n">
-        <v>2.54</v>
+        <v>1.66</v>
       </c>
       <c r="H36" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J36" t="n">
         <v>3.85</v>
       </c>
-      <c r="I36" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.9</v>
-      </c>
       <c r="K36" t="n">
-        <v>2.92</v>
+        <v>4.4</v>
       </c>
       <c r="L36" t="n">
-        <v>1.74</v>
+        <v>1.45</v>
       </c>
       <c r="M36" t="n">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>2.26</v>
+        <v>3.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.76</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
-        <v>1.4</v>
+        <v>1.81</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="S36" t="n">
-        <v>7.8</v>
+        <v>3.85</v>
       </c>
       <c r="T36" t="n">
-        <v>2.48</v>
+        <v>2.04</v>
       </c>
       <c r="U36" t="n">
-        <v>1.62</v>
+        <v>1.05</v>
       </c>
       <c r="V36" t="n">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="W36" t="n">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="X36" t="n">
-        <v>6.4</v>
+        <v>16</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="Z36" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>6.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE36" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN36" t="n">
         <v>13</v>
       </c>
-      <c r="AG36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>230</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>55</v>
-      </c>
       <c r="AO36" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
@@ -5378,395 +5378,125 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Albion FC</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Juventud De Las Piedras</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.28</v>
+        <v>1.8</v>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>1.86</v>
       </c>
       <c r="H37" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="J37" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K37" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="M37" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>2.62</v>
+        <v>3.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.76</v>
+        <v>2.12</v>
       </c>
       <c r="R37" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="S37" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="T37" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W37" t="n">
         <v>2.16</v>
       </c>
-      <c r="U37" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W37" t="n">
-        <v>1.73</v>
-      </c>
       <c r="X37" t="n">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z37" t="n">
-        <v>500</v>
+        <v>42</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF37" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AG37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH37" t="n">
         <v>23</v>
       </c>
-      <c r="AH37" t="n">
-        <v>500</v>
-      </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="n">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="AK37" t="n">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Quindio</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="H38" t="n">
-        <v>6</v>
-      </c>
-      <c r="I38" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W38" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="X38" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Uruguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Torque</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Juventud De Las Piedras</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W39" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="X39" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO39" t="n">
         <v>130</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:59:54</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FK Qabala</t>
+          <t>Modern Sport FC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FC Sabah</t>
+          <t>Kahraba Ismailia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8.6</v>
+        <v>4.2</v>
       </c>
       <c r="G2" t="n">
-        <v>9.4</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.72</v>
+        <v>3.05</v>
       </c>
       <c r="I2" t="n">
-        <v>1.73</v>
+        <v>3.15</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>2.26</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>2.28</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="N2" t="n">
-        <v>1.96</v>
+        <v>1.54</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>2.78</v>
       </c>
       <c r="P2" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.7</v>
+        <v>7.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="S2" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="V2" t="n">
-        <v>2.34</v>
+        <v>1.46</v>
       </c>
       <c r="W2" t="n">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="X2" t="n">
-        <v>6</v>
+        <v>3.45</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>7</v>
+        <v>17.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>6.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AF2" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AH2" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AI2" t="n">
-        <v>290</v>
+        <v>560</v>
       </c>
       <c r="AJ2" t="n">
-        <v>550</v>
+        <v>180</v>
       </c>
       <c r="AK2" t="n">
-        <v>610</v>
+        <v>250</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>46</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,114 +788,114 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10:03:12</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Septemvri</t>
+          <t>Al Ittihad (EGY)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="G3" t="n">
-        <v>2.94</v>
+        <v>4.3</v>
       </c>
       <c r="H3" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="N3" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="O3" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="P3" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="T3" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="X3" t="n">
-        <v>3.05</v>
+        <v>2.56</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>380</v>
+        <v>230</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AE3" t="n">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="AF3" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AH3" t="n">
-        <v>150</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="AK3" t="n">
-        <v>230</v>
+        <v>570</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,120 +923,120 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:02:06</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Hermannstadt</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="J4" t="n">
-        <v>2.68</v>
+        <v>2.22</v>
       </c>
       <c r="K4" t="n">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="L4" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.2</v>
+        <v>1.43</v>
       </c>
       <c r="N4" t="n">
-        <v>2.12</v>
+        <v>1.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.85</v>
+        <v>2.98</v>
       </c>
       <c r="P4" t="n">
-        <v>1.34</v>
+        <v>1.12</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.75</v>
+        <v>8.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="S4" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>4.4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="V4" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:31:44</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>Botev Vratsa</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>Dobrudzha</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="G5" t="n">
-        <v>1.85</v>
+        <v>2.46</v>
       </c>
       <c r="H5" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>2.54</v>
       </c>
       <c r="K5" t="n">
-        <v>3.6</v>
+        <v>2.66</v>
       </c>
       <c r="L5" t="n">
-        <v>1.54</v>
+        <v>3.15</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="N5" t="n">
-        <v>2.92</v>
+        <v>1.75</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.52</v>
+        <v>5.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
       <c r="S5" t="n">
-        <v>5.1</v>
+        <v>17</v>
       </c>
       <c r="T5" t="n">
-        <v>2.16</v>
+        <v>3.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.78</v>
+        <v>1.35</v>
       </c>
       <c r="V5" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="X5" t="n">
-        <v>9.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="AC5" t="n">
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AE5" t="n">
+        <v>210</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>440</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>240</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>110</v>
       </c>
-      <c r="AF5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>18</v>
-      </c>
       <c r="AO5" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Greek Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:24</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Atromitos</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.2</v>
+        <v>1.45</v>
       </c>
       <c r="G6" t="n">
-        <v>5.3</v>
+        <v>1.47</v>
       </c>
       <c r="H6" t="n">
-        <v>1.96</v>
+        <v>10.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.97</v>
+        <v>11.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="O6" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="P6" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T6" t="n">
-        <v>2.12</v>
+        <v>2.72</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="V6" t="n">
-        <v>2.02</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>1.23</v>
+        <v>3.1</v>
       </c>
       <c r="X6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AG6" t="n">
         <v>10</v>
       </c>
-      <c r="Y6" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AH6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>550</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>360</v>
+      </c>
+      <c r="AN6" t="n">
         <v>11</v>
       </c>
-      <c r="AA6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>160</v>
-      </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Serbian Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>13:01:35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>FK IMT Novi Beograd</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>FK Javor Ivanjica</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="O7" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="P7" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U7" t="n">
         <v>1.79</v>
       </c>
       <c r="V7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="X7" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF7" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>500</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>480</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>13</v>
-      </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="AJ7" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AK7" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.43</v>
+        <v>1.98</v>
       </c>
       <c r="G8" t="n">
-        <v>1.45</v>
+        <v>2.04</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>3.85</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>3.35</v>
+        <v>5.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>1.77</v>
+        <v>2.52</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22</v>
+        <v>1.63</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="S8" t="n">
-        <v>4.3</v>
+        <v>2.54</v>
       </c>
       <c r="T8" t="n">
-        <v>2.46</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>2.56</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="W8" t="n">
-        <v>3.25</v>
+        <v>1.98</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Z8" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>600</v>
+        <v>85</v>
       </c>
       <c r="AB8" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>44</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.2</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.5</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
-        <v>340</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
         <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>540</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>Fatih Karagumruk Istanbul</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="G9" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.7</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.3</v>
-      </c>
       <c r="O9" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.94</v>
       </c>
-      <c r="V9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>500</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>19.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>900</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN9" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NK Aluminij</t>
+          <t>Rudar Prijedor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.92</v>
+        <v>1.48</v>
       </c>
       <c r="G10" t="n">
-        <v>2.02</v>
+        <v>1.5</v>
       </c>
       <c r="H10" t="n">
-        <v>3.95</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
         <v>4.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>2.98</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.54</v>
+        <v>1.67</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.61</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>2.52</v>
+        <v>4.7</v>
       </c>
       <c r="T10" t="n">
-        <v>1.58</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2.52</v>
+        <v>1.54</v>
       </c>
       <c r="V10" t="n">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="W10" t="n">
-        <v>1.98</v>
+        <v>2.96</v>
       </c>
       <c r="X10" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
         <v>26</v>
       </c>
-      <c r="Y10" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AO10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Zeljeznicar</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Rudar Prijedor</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.48</v>
+        <v>1.96</v>
       </c>
       <c r="G11" t="n">
-        <v>1.53</v>
+        <v>1.99</v>
       </c>
       <c r="H11" t="n">
-        <v>8.6</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2</v>
+      </c>
+      <c r="X11" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF11" t="n">
         <v>14.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="X11" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>220</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>12</v>
-      </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM11" t="n">
         <v>65</v>
       </c>
-      <c r="AL11" t="n">
-        <v>290</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN11" t="n">
-        <v>29</v>
+        <v>9.6</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fatih Karagumruk Istanbul</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="G12" t="n">
-        <v>2.02</v>
+        <v>3.85</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>2.58</v>
       </c>
       <c r="I12" t="n">
-        <v>4.6</v>
+        <v>2.62</v>
       </c>
       <c r="J12" t="n">
-        <v>3.55</v>
+        <v>2.82</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>2.86</v>
       </c>
       <c r="L12" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="N12" t="n">
-        <v>3.6</v>
+        <v>2.34</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="P12" t="n">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="S12" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.87</v>
+        <v>2.36</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.61</v>
       </c>
       <c r="W12" t="n">
-        <v>1.98</v>
+        <v>1.35</v>
       </c>
       <c r="X12" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Z12" t="n">
         <v>15</v>
       </c>
-      <c r="Z12" t="n">
-        <v>32</v>
-      </c>
       <c r="AA12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG12" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>500</v>
       </c>
       <c r="AK12" t="n">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="AM12" t="n">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="AN12" t="n">
-        <v>16.5</v>
+        <v>600</v>
       </c>
       <c r="AO12" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.98</v>
+        <v>3.85</v>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>3.95</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="I13" t="n">
-        <v>3.95</v>
+        <v>2.16</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="R13" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="V13" t="n">
-        <v>1.34</v>
+        <v>1.87</v>
       </c>
       <c r="W13" t="n">
-        <v>1.98</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI13" t="n">
         <v>32</v>
       </c>
-      <c r="AA13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AJ13" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN13" t="n">
         <v>38</v>
       </c>
-      <c r="AF13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>10</v>
-      </c>
       <c r="AO13" t="n">
-        <v>30</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S14" t="n">
         <v>3.65</v>
       </c>
-      <c r="G14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S14" t="n">
-        <v>7.2</v>
-      </c>
       <c r="T14" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="U14" t="n">
-        <v>1.66</v>
+        <v>2.08</v>
       </c>
       <c r="V14" t="n">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.35</v>
+        <v>1.76</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>14.5</v>
+        <v>500</v>
       </c>
       <c r="AA14" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>500</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK14" t="n">
         <v>65</v>
       </c>
-      <c r="AB14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AL14" t="n">
         <v>500</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>340</v>
-      </c>
       <c r="AM14" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>600</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>2.74</v>
       </c>
       <c r="H15" t="n">
-        <v>2.16</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.82</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.46</v>
       </c>
-      <c r="S15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="X15" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AB15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF15" t="n">
         <v>16</v>
       </c>
-      <c r="AC15" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>27</v>
-      </c>
       <c r="AG15" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
         <v>34</v>
       </c>
       <c r="AO15" t="n">
-        <v>14.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.38</v>
+        <v>1.29</v>
       </c>
       <c r="G16" t="n">
-        <v>2.46</v>
+        <v>1.3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>16</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>17</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>5.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="P16" t="n">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.76</v>
+        <v>2.36</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="V16" t="n">
-        <v>1.42</v>
+        <v>1.06</v>
       </c>
       <c r="W16" t="n">
-        <v>1.66</v>
+        <v>4.3</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="Z16" t="n">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="AA16" t="n">
-        <v>500</v>
+        <v>890</v>
       </c>
       <c r="AB16" t="n">
-        <v>18</v>
+        <v>7.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>13.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AE16" t="n">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="AF16" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="n">
-        <v>160</v>
+        <v>290</v>
       </c>
       <c r="AJ16" t="n">
-        <v>120</v>
+        <v>9.4</v>
       </c>
       <c r="AK16" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN16" t="n">
-        <v>500</v>
+        <v>5.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.68</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="W17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM17" t="n">
         <v>55</v>
       </c>
-      <c r="AB17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AN17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO17" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="G18" t="n">
-        <v>1.31</v>
+        <v>2.56</v>
       </c>
       <c r="H18" t="n">
-        <v>15.5</v>
+        <v>2.74</v>
       </c>
       <c r="I18" t="n">
-        <v>17</v>
+        <v>2.78</v>
       </c>
       <c r="J18" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>4.6</v>
+        <v>7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S18" t="n">
         <v>2.22</v>
       </c>
-      <c r="Q18" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.98</v>
-      </c>
       <c r="T18" t="n">
-        <v>2.38</v>
+        <v>1.39</v>
       </c>
       <c r="U18" t="n">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>1.06</v>
+        <v>1.56</v>
       </c>
       <c r="W18" t="n">
-        <v>4.2</v>
+        <v>1.64</v>
       </c>
       <c r="X18" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB18" t="n">
         <v>19</v>
       </c>
-      <c r="Y18" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>740</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8</v>
-      </c>
       <c r="AC18" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>390</v>
+        <v>24</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
       </c>
       <c r="AH18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>38</v>
       </c>
-      <c r="AI18" t="n">
-        <v>310</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AK18" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AM18" t="n">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.5</v>
+        <v>11.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.68</v>
+        <v>5.7</v>
       </c>
       <c r="G19" t="n">
-        <v>2.86</v>
+        <v>5.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.46</v>
+        <v>1.56</v>
       </c>
       <c r="I19" t="n">
-        <v>2.56</v>
+        <v>1.57</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="P19" t="n">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="S19" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
         <v>1.56</v>
       </c>
       <c r="U19" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="V19" t="n">
-        <v>1.64</v>
+        <v>2.74</v>
       </c>
       <c r="W19" t="n">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="X19" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="Y19" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH19" t="n">
         <v>17</v>
       </c>
-      <c r="Z19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AI19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL19" t="n">
         <v>55</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>46</v>
-      </c>
       <c r="AM19" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AN19" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="G20" t="n">
-        <v>6.2</v>
+        <v>3.65</v>
       </c>
       <c r="H20" t="n">
-        <v>1.56</v>
+        <v>2.38</v>
       </c>
       <c r="I20" t="n">
-        <v>1.59</v>
+        <v>2.54</v>
       </c>
       <c r="J20" t="n">
-        <v>4.9</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="L20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.24</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S20" t="n">
-        <v>2.1</v>
+        <v>4.6</v>
       </c>
       <c r="T20" t="n">
-        <v>1.56</v>
+        <v>1.94</v>
       </c>
       <c r="U20" t="n">
-        <v>2.56</v>
+        <v>1.92</v>
       </c>
       <c r="V20" t="n">
-        <v>2.68</v>
+        <v>1.64</v>
       </c>
       <c r="W20" t="n">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="X20" t="n">
-        <v>95</v>
+        <v>19.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z20" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>13</v>
-      </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>160</v>
+        <v>500</v>
       </c>
       <c r="AG20" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AI20" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
         <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.44</v>
+        <v>3.7</v>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
-        <v>2.78</v>
+        <v>2.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.84</v>
+        <v>2.4</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="L21" t="n">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>2.68</v>
       </c>
       <c r="O21" t="n">
-        <v>1.15</v>
+        <v>1.54</v>
       </c>
       <c r="P21" t="n">
-        <v>2.98</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.47</v>
+        <v>2.64</v>
       </c>
       <c r="R21" t="n">
-        <v>1.79</v>
+        <v>1.19</v>
       </c>
       <c r="S21" t="n">
-        <v>2.22</v>
+        <v>5.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.46</v>
+        <v>2.1</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="W21" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="X21" t="n">
-        <v>40</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y21" t="n">
-        <v>21</v>
+        <v>7.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AA21" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="n">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>14.5</v>
+        <v>42</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="AL21" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.3</v>
+        <v>2.24</v>
       </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="H22" t="n">
-        <v>2.48</v>
+        <v>3.65</v>
       </c>
       <c r="I22" t="n">
-        <v>2.54</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
         <v>3.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P22" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.32</v>
+        <v>2.46</v>
       </c>
       <c r="R22" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S22" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="U22" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="W22" t="n">
-        <v>1.4</v>
+        <v>1.72</v>
       </c>
       <c r="X22" t="n">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>500</v>
+        <v>90</v>
       </c>
       <c r="AA22" t="n">
         <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AE22" t="n">
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI22" t="n">
         <v>500</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AJ22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
         <v>500</v>
       </c>
-      <c r="AH22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.7</v>
+        <v>2.42</v>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>2.48</v>
       </c>
       <c r="H23" t="n">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>2.44</v>
+        <v>3.55</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="L23" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="M23" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="P23" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.66</v>
+        <v>2.34</v>
       </c>
       <c r="R23" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S23" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="U23" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="V23" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="X23" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="AA23" t="n">
-        <v>36</v>
+        <v>350</v>
       </c>
       <c r="AB23" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="AE23" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>500</v>
+      </c>
+      <c r="AL23" t="n">
         <v>160</v>
       </c>
-      <c r="AG23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>310</v>
-      </c>
-      <c r="AL23" t="n">
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
         <v>500</v>
       </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO23" t="n">
-        <v>36</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.24</v>
+        <v>6.6</v>
       </c>
       <c r="G24" t="n">
-        <v>2.38</v>
+        <v>7.6</v>
       </c>
       <c r="H24" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J24" t="n">
         <v>3.6</v>
       </c>
-      <c r="I24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K24" t="n">
-        <v>3.35</v>
+        <v>3.95</v>
       </c>
       <c r="L24" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="M24" t="n">
         <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="O24" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P24" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="R24" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S24" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="U24" t="n">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="V24" t="n">
-        <v>1.33</v>
+        <v>2.36</v>
       </c>
       <c r="W24" t="n">
-        <v>1.72</v>
+        <v>1.15</v>
       </c>
       <c r="X24" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="Z24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE24" t="n">
         <v>65</v>
       </c>
-      <c r="AA24" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>160</v>
-      </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AI24" t="n">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="AJ24" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.44</v>
+        <v>3.25</v>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.25</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N25" t="n">
         <v>3.5</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3.05</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="R25" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S25" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="U25" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="V25" t="n">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
       <c r="W25" t="n">
-        <v>1.66</v>
+        <v>1.43</v>
       </c>
       <c r="X25" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z25" t="n">
         <v>15</v>
       </c>
-      <c r="Z25" t="n">
-        <v>48</v>
-      </c>
       <c r="AA25" t="n">
-        <v>350</v>
+        <v>36</v>
       </c>
       <c r="AB25" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="AF25" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>42</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>500</v>
+        <v>44</v>
       </c>
       <c r="AJ25" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM25" t="n">
         <v>110</v>
       </c>
-      <c r="AL25" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN25" t="n">
-        <v>600</v>
+        <v>46</v>
       </c>
       <c r="AO25" t="n">
-        <v>600</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6.6</v>
+        <v>3.65</v>
       </c>
       <c r="G26" t="n">
-        <v>7.8</v>
+        <v>3.7</v>
       </c>
       <c r="H26" t="n">
-        <v>1.66</v>
+        <v>2.46</v>
       </c>
       <c r="I26" t="n">
-        <v>1.73</v>
+        <v>2.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.56</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N26" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="O26" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P26" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="R26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="S26" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T26" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="U26" t="n">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="V26" t="n">
-        <v>2.36</v>
+        <v>1.66</v>
       </c>
       <c r="W26" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="X26" t="n">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AA26" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AB26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>990</v>
+      </c>
+      <c r="AO26" t="n">
         <v>34</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>500</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>95</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>2.44</v>
       </c>
       <c r="H27" t="n">
-        <v>2.54</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>2.56</v>
+        <v>3.95</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="L27" t="n">
-        <v>1.46</v>
+        <v>1.66</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="N27" t="n">
-        <v>3.55</v>
+        <v>2.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.37</v>
+        <v>1.6</v>
       </c>
       <c r="P27" t="n">
-        <v>1.86</v>
+        <v>1.52</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.14</v>
+        <v>2.88</v>
       </c>
       <c r="R27" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.84</v>
+        <v>2.26</v>
       </c>
       <c r="U27" t="n">
-        <v>2.14</v>
+        <v>1.75</v>
       </c>
       <c r="V27" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>7.6</v>
       </c>
       <c r="Y27" t="n">
         <v>10</v>
       </c>
       <c r="Z27" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="AA27" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AB27" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>11.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AK27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN27" t="n">
         <v>38</v>
       </c>
-      <c r="AL27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>44</v>
-      </c>
       <c r="AO27" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Argentinian Primera B Metropolitana</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Comunicaciones B Aires</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Argentino de Merlo</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="G28" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I28" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.98</v>
+        <v>2.64</v>
       </c>
       <c r="K28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q28" t="n">
         <v>3</v>
       </c>
-      <c r="L28" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.88</v>
-      </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="S28" t="n">
         <v>6.2</v>
       </c>
       <c r="T28" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="U28" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="V28" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="W28" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="X28" t="n">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="Z28" t="n">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="AA28" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.2</v>
+        <v>50</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.8</v>
+        <v>14</v>
       </c>
       <c r="AD28" t="n">
-        <v>16.5</v>
+        <v>38</v>
       </c>
       <c r="AE28" t="n">
-        <v>65</v>
+        <v>500</v>
       </c>
       <c r="AF28" t="n">
-        <v>12.5</v>
+        <v>190</v>
       </c>
       <c r="AG28" t="n">
-        <v>12.5</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="AK28" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AM28" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="G29" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
-        <v>2.54</v>
+        <v>2.82</v>
       </c>
       <c r="I29" t="n">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.1</v>
       </c>
-      <c r="K29" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="M29" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="N29" t="n">
-        <v>2.88</v>
+        <v>2.42</v>
       </c>
       <c r="O29" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="P29" t="n">
-        <v>1.62</v>
+        <v>1.46</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="S29" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="T29" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="U29" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="V29" t="n">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X29" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Y29" t="n">
         <v>8</v>
       </c>
       <c r="Z29" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="AB29" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="AJ29" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AK29" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AL29" t="n">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="AM29" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
         <v>600</v>
       </c>
       <c r="AO29" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Argentinian Primera B Metropolitana</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Comunicaciones B Aires</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Argentino de Merlo</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.24</v>
+        <v>8.6</v>
       </c>
       <c r="G30" t="n">
-        <v>2.52</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>3.95</v>
+        <v>1.38</v>
       </c>
       <c r="I30" t="n">
-        <v>5.8</v>
+        <v>1.39</v>
       </c>
       <c r="J30" t="n">
-        <v>2.58</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
       <c r="M30" t="n">
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>2.46</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O30" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T30" t="n">
         <v>1.58</v>
       </c>
-      <c r="P30" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.05</v>
-      </c>
       <c r="U30" t="n">
-        <v>1.05</v>
+        <v>2.66</v>
       </c>
       <c r="V30" t="n">
-        <v>1.25</v>
+        <v>3.55</v>
       </c>
       <c r="W30" t="n">
-        <v>1.67</v>
+        <v>1.12</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AC30" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="G31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.25</v>
       </c>
-      <c r="H31" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.05</v>
-      </c>
       <c r="L31" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="M31" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="P31" t="n">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="R31" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="T31" t="n">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
       <c r="U31" t="n">
-        <v>1.71</v>
+        <v>1.97</v>
       </c>
       <c r="V31" t="n">
-        <v>1.51</v>
+        <v>1.67</v>
       </c>
       <c r="W31" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X31" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AA31" t="n">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AC31" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG31" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>16</v>
-      </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>420</v>
+        <v>50</v>
       </c>
       <c r="AJ31" t="n">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="AK31" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL31" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO31" t="n">
-        <v>600</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="F32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S32" t="n">
+        <v>8</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y32" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G32" t="n">
-        <v>9</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="J32" t="n">
-        <v>6</v>
-      </c>
-      <c r="K32" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N32" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V32" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X32" t="n">
-        <v>48</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>16.5</v>
-      </c>
       <c r="Z32" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AA32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="n">
         <v>14</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AG32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>230</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN32" t="n">
         <v>55</v>
       </c>
-      <c r="AC32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>450</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>65</v>
-      </c>
       <c r="AO32" t="n">
-        <v>3.85</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Albion FC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.45</v>
+        <v>2.3</v>
       </c>
       <c r="G33" t="n">
-        <v>3.55</v>
+        <v>2.4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.46</v>
+        <v>3.75</v>
       </c>
       <c r="I33" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K33" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L33" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="M33" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N33" t="n">
-        <v>3.15</v>
+        <v>2.62</v>
       </c>
       <c r="O33" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="P33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W33" t="n">
         <v>1.71</v>
       </c>
-      <c r="Q33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.39</v>
-      </c>
       <c r="X33" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.6</v>
+        <v>18</v>
       </c>
       <c r="Z33" t="n">
-        <v>14.5</v>
+        <v>65</v>
       </c>
       <c r="AA33" t="n">
-        <v>36</v>
+        <v>900</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="AE33" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG33" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AI33" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AK33" t="n">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="AL33" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,126 +4973,126 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Newells</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.48</v>
+        <v>1.58</v>
       </c>
       <c r="G34" t="n">
-        <v>2.54</v>
+        <v>1.64</v>
       </c>
       <c r="H34" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="I34" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S34" t="n">
         <v>3.85</v>
       </c>
-      <c r="J34" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S34" t="n">
-        <v>8</v>
-      </c>
       <c r="T34" t="n">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="U34" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V34" t="n">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="W34" t="n">
-        <v>1.65</v>
+        <v>2.56</v>
       </c>
       <c r="X34" t="n">
-        <v>6.4</v>
+        <v>15.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="Z34" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC34" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AE34" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN34" t="n">
         <v>13</v>
       </c>
-      <c r="AG34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>500</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>460</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>55</v>
-      </c>
       <c r="AO34" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5108,396 +5108,126 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Albion FC</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Juventud De Las Piedras</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.3</v>
+        <v>1.81</v>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>1.86</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K35" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="L35" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="M35" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>2.62</v>
+        <v>3.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="P35" t="n">
-        <v>1.53</v>
+        <v>1.81</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.76</v>
+        <v>2.12</v>
       </c>
       <c r="R35" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="S35" t="n">
-        <v>5.7</v>
+        <v>3.95</v>
       </c>
       <c r="T35" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W35" t="n">
         <v>2.16</v>
       </c>
-      <c r="U35" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.73</v>
-      </c>
       <c r="X35" t="n">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z35" t="n">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>500</v>
+        <v>26</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ35" t="n">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="AK35" t="n">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Quindio</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H36" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X36" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Uruguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Torque</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Juventud De Las Piedras</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W37" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="X37" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO35"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Slovenian Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,114 +653,114 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:59:54</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Modern Sport FC</t>
+          <t>NK Bravo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kahraba Ismailia</t>
+          <t>NK Aluminij</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.05</v>
+        <v>6.6</v>
       </c>
       <c r="I2" t="n">
-        <v>3.15</v>
+        <v>7.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.26</v>
+        <v>1.49</v>
       </c>
       <c r="K2" t="n">
-        <v>2.28</v>
+        <v>1.53</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.8</v>
+        <v>2.92</v>
       </c>
       <c r="R2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="S2" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="T2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.46</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="X2" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="AD2" t="n">
-        <v>32</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>6.2</v>
       </c>
       <c r="AH2" t="n">
-        <v>110</v>
+        <v>960</v>
       </c>
       <c r="AI2" t="n">
-        <v>560</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:59:43</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Ittihad (EGY)</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Fatih Karagumruk Istanbul</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.2</v>
+        <v>1.34</v>
       </c>
       <c r="G3" t="n">
-        <v>4.3</v>
+        <v>1.35</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>19.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>21</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>4.8</v>
       </c>
       <c r="K3" t="n">
-        <v>2.04</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.31</v>
+        <v>3.75</v>
       </c>
       <c r="O3" t="n">
-        <v>4.1</v>
+        <v>1.35</v>
       </c>
       <c r="P3" t="n">
-        <v>1.06</v>
+        <v>1.51</v>
       </c>
       <c r="Q3" t="n">
-        <v>15.5</v>
+        <v>2.86</v>
       </c>
       <c r="R3" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="S3" t="n">
-        <v>65</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>6.4</v>
+        <v>2.24</v>
       </c>
       <c r="U3" t="n">
-        <v>1.16</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="X3" t="n">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH3" t="n">
         <v>32</v>
       </c>
-      <c r="AA3" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>490</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>990</v>
-      </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ3" t="n">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="AK3" t="n">
-        <v>570</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Bosnian Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:02:06</t>
+          <t>14:00:57</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hermannstadt</t>
+          <t>Zeljeznicar</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Rudar Prijedor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="G4" t="n">
-        <v>4.6</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.05</v>
+        <v>1.27</v>
       </c>
       <c r="J4" t="n">
-        <v>2.22</v>
+        <v>6.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.24</v>
+        <v>6.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.12</v>
+        <v>3.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.6</v>
+        <v>1.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.03</v>
+        <v>1.61</v>
       </c>
       <c r="S4" t="n">
-        <v>32</v>
+        <v>2.54</v>
       </c>
       <c r="T4" t="n">
-        <v>4.4</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.27</v>
+        <v>2.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>4.7</v>
       </c>
       <c r="W4" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="X4" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>4.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>85</v>
+        <v>11.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AI4" t="n">
         <v>29</v>
       </c>
-      <c r="AE4" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:31:44</t>
+          <t>15:00:02</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Botev Vratsa</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dobrudzha</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="G5" t="n">
-        <v>2.46</v>
+        <v>2.14</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.1</v>
+        <v>3.85</v>
       </c>
       <c r="J5" t="n">
-        <v>2.54</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>2.66</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.75</v>
+        <v>14</v>
       </c>
       <c r="O5" t="n">
-        <v>2.3</v>
+        <v>1.07</v>
       </c>
       <c r="P5" t="n">
-        <v>1.2</v>
+        <v>3.65</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.5</v>
+        <v>1.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.05</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
-        <v>17</v>
+        <v>2.08</v>
       </c>
       <c r="T5" t="n">
-        <v>3.5</v>
+        <v>1.23</v>
       </c>
       <c r="U5" t="n">
-        <v>1.35</v>
+        <v>4.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="W5" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="X5" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>5</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>32</v>
       </c>
-      <c r="AE5" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>440</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>55</v>
-      </c>
       <c r="AK5" t="n">
-        <v>75</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AN5" t="n">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greek Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,108 +1193,108 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:24</t>
+          <t>15:01:01</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Atromitos</t>
+          <t>Dinamo Bucharest</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="U6" t="n">
         <v>1.54</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="X6" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE6" t="n">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ6" t="n">
         <v>11.5</v>
@@ -1303,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>550</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Serbian Super League</t>
+          <t>Polish I Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:01:35</t>
+          <t>15:01:06</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FK IMT Novi Beograd</t>
+          <t>GKS Tychy</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FK Javor Ivanjica</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.04</v>
+        <v>2.42</v>
       </c>
       <c r="G7" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="L7" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="N7" t="n">
-        <v>2.96</v>
+        <v>2.46</v>
       </c>
       <c r="O7" t="n">
-        <v>1.49</v>
+        <v>1.65</v>
       </c>
       <c r="P7" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="S7" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
       <c r="T7" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="U7" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.86</v>
+        <v>1.68</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="n">
         <v>120</v>
       </c>
       <c r="AB7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC7" t="n">
         <v>7.4</v>
       </c>
-      <c r="AC7" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Slovenian Premier League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>15:01:07</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NK Bravo</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NK Aluminij</t>
+          <t>Lusitania Futebol Clube</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.98</v>
+        <v>3.2</v>
       </c>
       <c r="G8" t="n">
-        <v>2.04</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>2.72</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>2.82</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>2.08</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.22</v>
       </c>
       <c r="N8" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.95</v>
       </c>
       <c r="P8" t="n">
-        <v>2.52</v>
+        <v>1.32</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.63</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="S8" t="n">
-        <v>2.54</v>
+        <v>10.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.58</v>
+        <v>2.84</v>
       </c>
       <c r="U8" t="n">
-        <v>2.56</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="W8" t="n">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>5.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>23</v>
+        <v>6.8</v>
       </c>
       <c r="Z8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>40</v>
       </c>
-      <c r="AA8" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>16</v>
-      </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>550</v>
       </c>
       <c r="AJ8" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="n">
-        <v>19.5</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>550</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="AO8" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:01:20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fatih Karagumruk Istanbul</t>
+          <t>National Bank</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="G9" t="n">
-        <v>2.04</v>
+        <v>4.3</v>
       </c>
       <c r="H9" t="n">
-        <v>4.3</v>
+        <v>2.46</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>2.7</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.98</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>2.06</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.9</v>
       </c>
       <c r="P9" t="n">
-        <v>1.88</v>
+        <v>1.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>3.95</v>
       </c>
       <c r="R9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.33</v>
       </c>
-      <c r="S9" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.94</v>
-      </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z9" t="n">
         <v>15</v>
       </c>
-      <c r="Z9" t="n">
-        <v>32</v>
-      </c>
       <c r="AA9" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
         <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>990</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bosnian Premier League</t>
+          <t>Danish Superliga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:02:22</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Zeljeznicar</t>
+          <t>SonderjyskE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Rudar Prijedor</t>
+          <t>Silkeborg</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.48</v>
+        <v>3.15</v>
       </c>
       <c r="G10" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>2.32</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>2.34</v>
       </c>
       <c r="J10" t="n">
         <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2.98</v>
+        <v>19</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.05</v>
       </c>
       <c r="P10" t="n">
-        <v>1.67</v>
+        <v>4.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>1.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>2.26</v>
       </c>
       <c r="S10" t="n">
-        <v>4.7</v>
+        <v>1.77</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>1.15</v>
       </c>
       <c r="U10" t="n">
-        <v>1.54</v>
+        <v>6.6</v>
       </c>
       <c r="V10" t="n">
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="W10" t="n">
-        <v>2.96</v>
+        <v>1.47</v>
       </c>
       <c r="X10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE10" t="n">
         <v>20</v>
       </c>
-      <c r="Y10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AN10" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Danish Superliga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SonderjyskE</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Silkeborg</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.96</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>1.99</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>2.28</v>
       </c>
       <c r="I11" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J11" t="n">
         <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.1</v>
       </c>
       <c r="K11" t="n">
         <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="S11" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="U11" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="V11" t="n">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="W11" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="X11" t="n">
         <v>24</v>
       </c>
       <c r="Y11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB11" t="n">
         <v>20</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AC11" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK11" t="n">
         <v>32</v>
       </c>
-      <c r="AA11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>18</v>
-      </c>
       <c r="AL11" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>National Bank</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="G12" t="n">
-        <v>3.85</v>
+        <v>5.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.58</v>
+        <v>1.58</v>
       </c>
       <c r="I12" t="n">
-        <v>2.62</v>
+        <v>1.59</v>
       </c>
       <c r="J12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P12" t="n">
         <v>2.82</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.42</v>
-      </c>
       <c r="Q12" t="n">
-        <v>3.25</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="S12" t="n">
-        <v>7.2</v>
+        <v>2.32</v>
       </c>
       <c r="T12" t="n">
-        <v>2.36</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>2.42</v>
       </c>
       <c r="V12" t="n">
-        <v>1.61</v>
+        <v>2.68</v>
       </c>
       <c r="W12" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.8</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.800000000000001</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE12" t="n">
-        <v>46</v>
+        <v>15.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>500</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AK12" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>500</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="n">
-        <v>500</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.85</v>
+        <v>2.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.95</v>
+        <v>2.56</v>
       </c>
       <c r="H13" t="n">
-        <v>2.1</v>
+        <v>2.66</v>
       </c>
       <c r="I13" t="n">
-        <v>2.16</v>
+        <v>2.76</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="P13" t="n">
-        <v>2.18</v>
+        <v>2.98</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.84</v>
+        <v>1.49</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="S13" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="U13" t="n">
-        <v>2.34</v>
+        <v>2.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
       <c r="W13" t="n">
-        <v>1.33</v>
+        <v>1.64</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Y13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AN13" t="n">
         <v>11</v>
       </c>
-      <c r="Z13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>38</v>
-      </c>
       <c r="AO13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Polish I Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GKS Tychy</t>
+          <t>Sociedad B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>2.48</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>2.52</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="R14" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="U14" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="W14" t="n">
-        <v>1.76</v>
+        <v>1.42</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z14" t="n">
         <v>15</v>
       </c>
-      <c r="Z14" t="n">
-        <v>500</v>
-      </c>
       <c r="AA14" t="n">
-        <v>900</v>
+        <v>36</v>
       </c>
       <c r="AB14" t="n">
         <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH14" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE14" t="n">
-        <v>500</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>24</v>
-      </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="n">
-        <v>500</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lusitania Futebol Clube</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.7</v>
+        <v>6.8</v>
       </c>
       <c r="G15" t="n">
-        <v>2.74</v>
+        <v>7.8</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>1.71</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="M15" t="n">
         <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="P15" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="Q15" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V15" t="n">
         <v>2.4</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S15" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.46</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.58</v>
+        <v>1.15</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>6.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.199999999999999</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Dinamo Bucharest</t>
+          <t>Pesaro</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Nuovo Campobasso</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.29</v>
+        <v>2.42</v>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>2.54</v>
       </c>
       <c r="H16" t="n">
-        <v>16</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>5.8</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>6.2</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S16" t="n">
         <v>4.6</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T16" t="n">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="U16" t="n">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="V16" t="n">
-        <v>1.06</v>
+        <v>1.4</v>
       </c>
       <c r="W16" t="n">
-        <v>4.3</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="AA16" t="n">
-        <v>890</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>13.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="AF16" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI16" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.4</v>
+        <v>170</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="AL16" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="AM16" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.4</v>
+        <v>600</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>ASD Pineto Calcio</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.72</v>
+        <v>3.7</v>
       </c>
       <c r="G17" t="n">
-        <v>2.86</v>
+        <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="I17" t="n">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="L17" t="n">
-        <v>1.28</v>
+        <v>1.58</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>2.68</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="P17" t="n">
-        <v>2.64</v>
+        <v>1.58</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.56</v>
+        <v>2.66</v>
       </c>
       <c r="R17" t="n">
-        <v>1.66</v>
+        <v>1.19</v>
       </c>
       <c r="S17" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.53</v>
+        <v>2.12</v>
       </c>
       <c r="U17" t="n">
-        <v>2.68</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="X17" t="n">
-        <v>24</v>
+        <v>8.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>17</v>
+        <v>7.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AA17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB17" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD17" t="n">
         <v>12.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>500</v>
       </c>
       <c r="AJ17" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>310</v>
       </c>
       <c r="AL17" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.5</v>
+        <v>3.35</v>
       </c>
       <c r="G18" t="n">
-        <v>2.56</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
-        <v>2.74</v>
+        <v>2.38</v>
       </c>
       <c r="I18" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>3.05</v>
       </c>
       <c r="O18" t="n">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="P18" t="n">
-        <v>2.98</v>
+        <v>1.67</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.5</v>
+        <v>2.36</v>
       </c>
       <c r="R18" t="n">
-        <v>1.79</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>2.22</v>
+        <v>4.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.39</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>1.93</v>
       </c>
       <c r="V18" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="W18" t="n">
-        <v>1.64</v>
+        <v>1.38</v>
       </c>
       <c r="X18" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>500</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
         <v>21</v>
       </c>
-      <c r="Z18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>19</v>
-      </c>
       <c r="AC18" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AH18" t="n">
-        <v>14.5</v>
+        <v>60</v>
       </c>
       <c r="AI18" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="AJ18" t="n">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.7</v>
+        <v>2.26</v>
       </c>
       <c r="G19" t="n">
-        <v>5.9</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
-        <v>1.56</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.57</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>5.1</v>
+        <v>3.15</v>
       </c>
       <c r="K19" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="M19" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>7.4</v>
+        <v>2.94</v>
       </c>
       <c r="O19" t="n">
-        <v>1.14</v>
+        <v>1.48</v>
       </c>
       <c r="P19" t="n">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.45</v>
+        <v>2.46</v>
       </c>
       <c r="R19" t="n">
-        <v>1.86</v>
+        <v>1.22</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>4.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.56</v>
+        <v>2.02</v>
       </c>
       <c r="U19" t="n">
-        <v>2.58</v>
+        <v>1.83</v>
       </c>
       <c r="V19" t="n">
-        <v>2.74</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.2</v>
+        <v>1.72</v>
       </c>
       <c r="X19" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AA19" t="n">
-        <v>16.5</v>
+        <v>190</v>
       </c>
       <c r="AB19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>36</v>
       </c>
-      <c r="AC19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>150</v>
-      </c>
       <c r="AK19" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AM19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO19" t="n">
-        <v>5.1</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Bastia</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>ESTAC Troyes</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="G20" t="n">
         <v>3.65</v>
       </c>
       <c r="H20" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="I20" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="J20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.15</v>
       </c>
-      <c r="K20" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="O20" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="P20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.66</v>
       </c>
-      <c r="Q20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.64</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X20" t="n">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>13.5</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF20" t="n">
-        <v>500</v>
+        <v>23</v>
       </c>
       <c r="AG20" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ASD Pineto Calcio</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="G21" t="n">
-        <v>4.1</v>
+        <v>2.44</v>
       </c>
       <c r="H21" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>2.4</v>
+        <v>3.95</v>
       </c>
       <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.05</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.58</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.54</v>
-      </c>
       <c r="P21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="R21" t="n">
         <v>1.19</v>
       </c>
       <c r="S21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T21" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V21" t="n">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="W21" t="n">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="X21" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AA21" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AB21" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE21" t="n">
         <v>65</v>
       </c>
       <c r="AF21" t="n">
-        <v>120</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ21" t="n">
-        <v>900</v>
+        <v>32</v>
       </c>
       <c r="AK21" t="n">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Argentinian Primera B Metropolitana</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Comunicaciones B Aires</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Argentino de Merlo</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="G22" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="H22" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>2.56</v>
       </c>
       <c r="K22" t="n">
-        <v>3.4</v>
+        <v>2.92</v>
       </c>
       <c r="L22" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="M22" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="N22" t="n">
-        <v>2.9</v>
+        <v>2.46</v>
       </c>
       <c r="O22" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="P22" t="n">
-        <v>1.62</v>
+        <v>1.43</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.46</v>
+        <v>2.96</v>
       </c>
       <c r="R22" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="S22" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="V22" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W22" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="X22" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AA22" t="n">
         <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AC22" t="n">
         <v>7.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AI22" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AK22" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,123 +3488,123 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Pesaro</t>
+          <t>Tigres FC Zipaquira</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nuovo Campobasso</t>
+          <t>Independiente Yumbo</t>
         </is>
       </c>
       <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N23" t="n">
         <v>2.42</v>
       </c>
-      <c r="G23" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.05</v>
-      </c>
       <c r="O23" t="n">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="P23" t="n">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.34</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="S23" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="U23" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="V23" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W23" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>46</v>
+        <v>17.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AJ23" t="n">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="AK23" t="n">
-        <v>500</v>
+        <v>85</v>
       </c>
       <c r="AL23" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>600</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1.66</v>
+        <v>1.37</v>
       </c>
       <c r="I24" t="n">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="K24" t="n">
-        <v>3.95</v>
+        <v>6.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>2.78</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O24" t="n">
-        <v>1.51</v>
+        <v>1.12</v>
       </c>
       <c r="P24" t="n">
-        <v>1.58</v>
+        <v>3.45</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.54</v>
+        <v>1.39</v>
       </c>
       <c r="R24" t="n">
-        <v>1.2</v>
+        <v>1.96</v>
       </c>
       <c r="S24" t="n">
-        <v>5.2</v>
+        <v>2.02</v>
       </c>
       <c r="T24" t="n">
-        <v>2.28</v>
+        <v>1.62</v>
       </c>
       <c r="U24" t="n">
-        <v>1.64</v>
+        <v>2.56</v>
       </c>
       <c r="V24" t="n">
-        <v>2.36</v>
+        <v>3.65</v>
       </c>
       <c r="W24" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>48</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.2</v>
+        <v>14.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL24" t="n">
         <v>70</v>
       </c>
-      <c r="AB24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>95</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>460</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO24" t="n">
-        <v>85</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sociedad B</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="H25" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="I25" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="J25" t="n">
         <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="P25" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="R25" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="T25" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="U25" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="V25" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W25" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="X25" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
         <v>7.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO25" t="n">
         <v>29</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bastia</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ESTAC Troyes</t>
+          <t>Newells</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="G26" t="n">
-        <v>3.7</v>
+        <v>2.52</v>
       </c>
       <c r="H26" t="n">
-        <v>2.46</v>
+        <v>3.85</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="L26" t="n">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="M26" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="N26" t="n">
-        <v>2.86</v>
+        <v>2.26</v>
       </c>
       <c r="O26" t="n">
-        <v>1.52</v>
+        <v>1.76</v>
       </c>
       <c r="P26" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.58</v>
+        <v>3.35</v>
       </c>
       <c r="R26" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="S26" t="n">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="T26" t="n">
-        <v>2.12</v>
+        <v>2.52</v>
       </c>
       <c r="U26" t="n">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
-        <v>1.66</v>
+        <v>1.34</v>
       </c>
       <c r="W26" t="n">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="X26" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y26" t="n">
         <v>9</v>
       </c>
-      <c r="Y26" t="n">
-        <v>7.8</v>
-      </c>
       <c r="Z26" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AA26" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC26" t="n">
         <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AE26" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH26" t="n">
         <v>32</v>
       </c>
-      <c r="AF26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>23</v>
-      </c>
       <c r="AI26" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO26" t="n">
         <v>140</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>990</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Albion FC</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G27" t="n">
         <v>2.4</v>
       </c>
-      <c r="G27" t="n">
-        <v>2.44</v>
-      </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I27" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="L27" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="O27" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="P27" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S27" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="T27" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V27" t="n">
         <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB27" t="n">
         <v>7.6</v>
       </c>
-      <c r="Y27" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AC27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK27" t="n">
         <v>95</v>
       </c>
-      <c r="AB27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>34</v>
-      </c>
       <c r="AL27" t="n">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="AM27" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
       <c r="AO27" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera B Metropolitana</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,123 +4163,123 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Comunicaciones B Aires</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Argentino de Merlo</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>1.63</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>7.2</v>
       </c>
       <c r="I28" t="n">
-        <v>4.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>2.64</v>
+        <v>3.9</v>
       </c>
       <c r="K28" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="M28" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>2.44</v>
+        <v>3.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.42</v>
+        <v>1.83</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.15</v>
       </c>
-      <c r="S28" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W28" t="n">
-        <v>1.64</v>
+        <v>2.58</v>
       </c>
       <c r="X28" t="n">
         <v>15.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z28" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>50</v>
+        <v>7.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AD28" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AE28" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>190</v>
+        <v>9.6</v>
       </c>
       <c r="AG28" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI28" t="n">
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>900</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL28" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,936 +4298,126 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tigres FC Zipaquira</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Independiente Yumbo</t>
+          <t>Juventud De Las Piedras</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.05</v>
+        <v>1.87</v>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>1.93</v>
       </c>
       <c r="H29" t="n">
-        <v>2.82</v>
+        <v>4.7</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="K29" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="M29" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>2.42</v>
+        <v>3.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="P29" t="n">
-        <v>1.46</v>
+        <v>1.82</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>2.12</v>
       </c>
       <c r="R29" t="n">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="S29" t="n">
-        <v>6.6</v>
+        <v>3.95</v>
       </c>
       <c r="T29" t="n">
-        <v>2.18</v>
+        <v>1.91</v>
       </c>
       <c r="U29" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="V29" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="W29" t="n">
-        <v>1.44</v>
+        <v>2.06</v>
       </c>
       <c r="X29" t="n">
-        <v>7.8</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Z29" t="n">
-        <v>17.5</v>
+        <v>38</v>
       </c>
       <c r="AA29" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AE29" t="n">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="n">
-        <v>19.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>230</v>
+        <v>44</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>600</v>
+        <v>16.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Girona</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="G30" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="J30" t="n">
-        <v>6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N30" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V30" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X30" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>470</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Rio Ave</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Moreirense</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Deportivo Riestra</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Newells</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S32" t="n">
-        <v>8</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="X32" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>230</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Uruguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Albion FC</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Cerro</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="X33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>600</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Quindio</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="H34" t="n">
-        <v>7</v>
-      </c>
-      <c r="I34" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W34" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="X34" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Uruguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Torque</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Juventud De Las Piedras</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="H35" t="n">
-        <v>5</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="X35" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Quindio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,666 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:00:05</t>
+          <t>21:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Juventud De Las Piedras</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Uruguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>18:59:58</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Albion FC</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Cerro</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>19:00:15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Deportivo Riestra</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Newells</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="S5" t="n">
-        <v>15</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>180</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>490</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>880</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Quindio</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X6" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>44</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Uruguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Torque</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Juventud De Las Piedras</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,276 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Colombian Primera B</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Quindio</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Barranquilla</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="X2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Uruguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>21:30:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Torque</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Juventud De Las Piedras</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="X3" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>960</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>960</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
